--- a/CDC WORK 2025 - 2026 dec.xlsx
+++ b/CDC WORK 2025 - 2026 dec.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TW - JFS" sheetId="13" r:id="rId1"/>
     <sheet name="TT -  VI SEM" sheetId="14" r:id="rId2"/>
     <sheet name="VI SEM" sheetId="12" r:id="rId3"/>
-    <sheet name="V SEM" sheetId="1" r:id="rId4"/>
-    <sheet name="V" sheetId="7" r:id="rId5"/>
-    <sheet name="HR" sheetId="2" r:id="rId6"/>
-    <sheet name="LC" sheetId="3" r:id="rId7"/>
-    <sheet name="CC" sheetId="11" r:id="rId8"/>
-    <sheet name="Docs" sheetId="10" r:id="rId9"/>
-    <sheet name="QUIZ" sheetId="9" r:id="rId10"/>
-    <sheet name="TW" sheetId="6" r:id="rId11"/>
-    <sheet name="TT" sheetId="4" r:id="rId12"/>
-    <sheet name="PLINKS" sheetId="5" r:id="rId13"/>
-    <sheet name="CERTIFICATES" sheetId="8" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId4"/>
+    <sheet name="V SEM" sheetId="1" r:id="rId5"/>
+    <sheet name="V" sheetId="7" r:id="rId6"/>
+    <sheet name="HR" sheetId="2" r:id="rId7"/>
+    <sheet name="LC" sheetId="3" r:id="rId8"/>
+    <sheet name="CC" sheetId="11" r:id="rId9"/>
+    <sheet name="Docs" sheetId="10" r:id="rId10"/>
+    <sheet name="QUIZ" sheetId="9" r:id="rId11"/>
+    <sheet name="TW" sheetId="6" r:id="rId12"/>
+    <sheet name="TT" sheetId="4" r:id="rId13"/>
+    <sheet name="PLINKS" sheetId="5" r:id="rId14"/>
+    <sheet name="CERTIFICATES" sheetId="8" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="304">
   <si>
     <t xml:space="preserve">DBMS TRAINING SCHEDULE IN CDC </t>
   </si>
@@ -924,10 +925,40 @@
     <t>Complete project using Maven, JDBC, Servlets, Hibernate, Microservices &amp; REST integration</t>
   </si>
   <si>
-    <t>Git &amp; SWP</t>
-  </si>
-  <si>
     <t>WEEK</t>
+  </si>
+  <si>
+    <t>Employee _JDBC through Maven</t>
+  </si>
+  <si>
+    <t>Git Overview , Web page 1 - Inventor list</t>
+  </si>
+  <si>
+    <t>Web page 2 - Course Registration Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web page 3 - Pat timetable </t>
+  </si>
+  <si>
+    <t>Maven Overview :Simple Java Projects through Maven</t>
+  </si>
+  <si>
+    <t>Student_JDBC through maven</t>
+  </si>
+  <si>
+    <t>BOXERS DAY</t>
+  </si>
+  <si>
+    <t>SRI RAMA NAVAMI</t>
+  </si>
+  <si>
+    <t>RAMZAN</t>
+  </si>
+  <si>
+    <t>UGADI</t>
+  </si>
+  <si>
+    <t>HOLI</t>
   </si>
 </sst>
 </file>
@@ -1376,6 +1407,9 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1383,6 +1417,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1421,9 +1494,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1450,45 +1520,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1901,7 +1932,7 @@
   <dimension ref="C4:J19"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1912,13 +1943,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="I4" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="J4" s="90" t="s">
+      <c r="J4" s="53" t="s">
         <v>269</v>
       </c>
     </row>
@@ -2166,6 +2197,223 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="39.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C2" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C4" s="19">
+        <v>2</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C5" s="19">
+        <v>3</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="19">
+        <v>4</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C7" s="19">
+        <v>5</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="19">
+        <v>6</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="19">
+        <v>7</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="19">
+        <v>8</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="19">
+        <v>9</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="19">
+        <v>10</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="19">
+        <v>11</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="19">
+        <v>12</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="19">
+        <v>13</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C16" s="19">
+        <v>14</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F18"/>
   <sheetViews>
@@ -2382,7 +2630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F18"/>
   <sheetViews>
@@ -2599,7 +2847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2614,7 +2862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:G12"/>
   <sheetViews>
@@ -2694,7 +2942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H38"/>
   <sheetViews>
@@ -3096,7 +3344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N2:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -3109,7 +3357,7 @@
   <sheetData>
     <row r="2" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N2" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="14:16" x14ac:dyDescent="0.35">
@@ -3133,33 +3381,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.6328125" style="51" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.453125" customWidth="1"/>
+    <col min="4" max="4" width="46.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B2" s="49" t="s">
@@ -3192,7 +3442,7 @@
         <v>45992</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3213,10 +3463,12 @@
       <c r="B4" s="3">
         <v>45993</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3236,7 +3488,9 @@
         <v>45994</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -3255,9 +3509,13 @@
       <c r="B6" s="3">
         <v>45995</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -3276,7 +3534,9 @@
         <v>45996</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -3295,7 +3555,9 @@
       <c r="B8" s="3">
         <v>45997</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3315,20 +3577,20 @@
       <c r="B9" s="3">
         <v>45998</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="56"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="51" t="s">
@@ -3337,7 +3599,9 @@
       <c r="B10" s="3">
         <v>45999</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3358,7 +3622,9 @@
         <v>46000</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3379,7 +3645,9 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -3397,7 +3665,9 @@
       <c r="B13" s="3">
         <v>46002</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -3457,20 +3727,20 @@
       <c r="B16" s="3">
         <v>46005</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="56"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="51" t="s">
@@ -3599,20 +3869,20 @@
       <c r="B23" s="3">
         <v>46012</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="56"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="51" t="s">
@@ -3681,20 +3951,20 @@
       <c r="B27" s="3">
         <v>46016</v>
       </c>
-      <c r="C27" s="87" t="s">
+      <c r="C27" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="89"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="68"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="51" t="s">
@@ -3703,18 +3973,20 @@
       <c r="B28" s="3">
         <v>46017</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="C28" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="68"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="51" t="s">
@@ -3743,20 +4015,20 @@
       <c r="B30" s="3">
         <v>46019</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="56"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="51" t="s">
@@ -3885,20 +4157,20 @@
       <c r="B37" s="3">
         <v>46026</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="56"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="51" t="s">
@@ -4027,20 +4299,20 @@
       <c r="B44" s="3">
         <v>46033</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="56"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="51" t="s">
@@ -4049,20 +4321,20 @@
       <c r="B45" s="3">
         <v>46034</v>
       </c>
-      <c r="C45" s="78" t="s">
+      <c r="C45" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="80"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="59"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="51" t="s">
@@ -4071,18 +4343,18 @@
       <c r="B46" s="3">
         <v>46035</v>
       </c>
-      <c r="C46" s="81"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="83"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="62"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="51" t="s">
@@ -4091,18 +4363,18 @@
       <c r="B47" s="3">
         <v>46036</v>
       </c>
-      <c r="C47" s="81"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="83"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="62"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="51" t="s">
@@ -4111,18 +4383,18 @@
       <c r="B48" s="3">
         <v>46037</v>
       </c>
-      <c r="C48" s="81"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="83"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="62"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="51" t="s">
@@ -4131,18 +4403,18 @@
       <c r="B49" s="3">
         <v>46038</v>
       </c>
-      <c r="C49" s="81"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="83"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="62"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="51" t="s">
@@ -4151,18 +4423,18 @@
       <c r="B50" s="3">
         <v>46039</v>
       </c>
-      <c r="C50" s="84"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="86"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="65"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="51" t="s">
@@ -4171,20 +4443,20 @@
       <c r="B51" s="3">
         <v>46040</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="56"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="51" t="s">
@@ -4313,20 +4585,20 @@
       <c r="B58" s="3">
         <v>46047</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="56"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="51" t="s">
@@ -4335,20 +4607,20 @@
       <c r="B59" s="3">
         <v>46048</v>
       </c>
-      <c r="C59" s="87" t="s">
+      <c r="C59" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="89"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="68"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="51" t="s">
@@ -4553,20 +4825,20 @@
       <c r="B65" s="3">
         <v>46054</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="56"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="51" t="s">
@@ -4719,20 +4991,20 @@
       <c r="B72" s="3">
         <v>46061</v>
       </c>
-      <c r="C72" s="53" t="s">
+      <c r="C72" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="55"/>
+      <c r="N72" s="56"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="51" t="s">
@@ -4861,20 +5133,20 @@
       <c r="B79" s="3">
         <v>46068</v>
       </c>
-      <c r="C79" s="53" t="s">
+      <c r="C79" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="55"/>
+      <c r="L79" s="55"/>
+      <c r="M79" s="55"/>
+      <c r="N79" s="56"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="51" t="s">
@@ -5003,20 +5275,20 @@
       <c r="B86" s="3">
         <v>46075</v>
       </c>
-      <c r="C86" s="53" t="s">
+      <c r="C86" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="54"/>
-      <c r="J86" s="54"/>
-      <c r="K86" s="54"/>
-      <c r="L86" s="54"/>
-      <c r="M86" s="54"/>
-      <c r="N86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="55"/>
+      <c r="N86" s="56"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="51" t="s">
@@ -5145,20 +5417,20 @@
       <c r="B93" s="3">
         <v>46082</v>
       </c>
-      <c r="C93" s="53" t="s">
+      <c r="C93" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D93" s="54"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="54"/>
-      <c r="G93" s="54"/>
-      <c r="H93" s="54"/>
-      <c r="I93" s="54"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="54"/>
-      <c r="L93" s="54"/>
-      <c r="M93" s="54"/>
-      <c r="N93" s="55"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="55"/>
+      <c r="I93" s="55"/>
+      <c r="J93" s="55"/>
+      <c r="K93" s="55"/>
+      <c r="L93" s="55"/>
+      <c r="M93" s="55"/>
+      <c r="N93" s="56"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="51" t="s">
@@ -5187,18 +5459,20 @@
       <c r="B95" s="3">
         <v>46084</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+      <c r="C95" s="66" t="s">
+        <v>303</v>
+      </c>
+      <c r="D95" s="67"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
+      <c r="J95" s="67"/>
+      <c r="K95" s="67"/>
+      <c r="L95" s="67"/>
+      <c r="M95" s="67"/>
+      <c r="N95" s="68"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="51" t="s">
@@ -5287,20 +5561,20 @@
       <c r="B100" s="3">
         <v>46089</v>
       </c>
-      <c r="C100" s="53" t="s">
+      <c r="C100" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D100" s="54"/>
-      <c r="E100" s="54"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="54"/>
-      <c r="H100" s="54"/>
-      <c r="I100" s="54"/>
-      <c r="J100" s="54"/>
-      <c r="K100" s="54"/>
-      <c r="L100" s="54"/>
-      <c r="M100" s="54"/>
-      <c r="N100" s="55"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="55"/>
+      <c r="K100" s="55"/>
+      <c r="L100" s="55"/>
+      <c r="M100" s="55"/>
+      <c r="N100" s="56"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="51" t="s">
@@ -5429,20 +5703,20 @@
       <c r="B107" s="3">
         <v>46096</v>
       </c>
-      <c r="C107" s="53" t="s">
+      <c r="C107" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D107" s="54"/>
-      <c r="E107" s="54"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="54"/>
-      <c r="I107" s="54"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="54"/>
-      <c r="L107" s="54"/>
-      <c r="M107" s="54"/>
-      <c r="N107" s="55"/>
+      <c r="D107" s="55"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="55"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="55"/>
+      <c r="J107" s="55"/>
+      <c r="K107" s="55"/>
+      <c r="L107" s="55"/>
+      <c r="M107" s="55"/>
+      <c r="N107" s="56"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="51" t="s">
@@ -5511,18 +5785,20 @@
       <c r="B111" s="3">
         <v>46100</v>
       </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+      <c r="C111" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="D111" s="67"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="67"/>
+      <c r="H111" s="67"/>
+      <c r="I111" s="67"/>
+      <c r="J111" s="67"/>
+      <c r="K111" s="67"/>
+      <c r="L111" s="67"/>
+      <c r="M111" s="67"/>
+      <c r="N111" s="68"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="51" t="s">
@@ -5551,18 +5827,20 @@
       <c r="B113" s="3">
         <v>46102</v>
       </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
+      <c r="C113" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="D113" s="67"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="67"/>
+      <c r="K113" s="67"/>
+      <c r="L113" s="67"/>
+      <c r="M113" s="67"/>
+      <c r="N113" s="68"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="51" t="s">
@@ -5571,20 +5849,20 @@
       <c r="B114" s="3">
         <v>46103</v>
       </c>
-      <c r="C114" s="53" t="s">
+      <c r="C114" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D114" s="54"/>
-      <c r="E114" s="54"/>
-      <c r="F114" s="54"/>
-      <c r="G114" s="54"/>
-      <c r="H114" s="54"/>
-      <c r="I114" s="54"/>
-      <c r="J114" s="54"/>
-      <c r="K114" s="54"/>
-      <c r="L114" s="54"/>
-      <c r="M114" s="54"/>
-      <c r="N114" s="55"/>
+      <c r="D114" s="55"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="55"/>
+      <c r="J114" s="55"/>
+      <c r="K114" s="55"/>
+      <c r="L114" s="55"/>
+      <c r="M114" s="55"/>
+      <c r="N114" s="56"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="51" t="s">
@@ -5673,18 +5951,20 @@
       <c r="B119" s="3">
         <v>46108</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
+      <c r="C119" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="D119" s="67"/>
+      <c r="E119" s="67"/>
+      <c r="F119" s="67"/>
+      <c r="G119" s="67"/>
+      <c r="H119" s="67"/>
+      <c r="I119" s="67"/>
+      <c r="J119" s="67"/>
+      <c r="K119" s="67"/>
+      <c r="L119" s="67"/>
+      <c r="M119" s="67"/>
+      <c r="N119" s="68"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="51" t="s">
@@ -5713,20 +5993,20 @@
       <c r="B121" s="3">
         <v>46110</v>
       </c>
-      <c r="C121" s="53" t="s">
+      <c r="C121" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
-      <c r="L121" s="54"/>
-      <c r="M121" s="54"/>
-      <c r="N121" s="55"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="55"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="55"/>
+      <c r="H121" s="55"/>
+      <c r="I121" s="55"/>
+      <c r="J121" s="55"/>
+      <c r="K121" s="55"/>
+      <c r="L121" s="55"/>
+      <c r="M121" s="55"/>
+      <c r="N121" s="56"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="51" t="s">
@@ -5749,7 +6029,9 @@
       <c r="N122" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="26">
+    <mergeCell ref="C113:N113"/>
+    <mergeCell ref="C119:N119"/>
     <mergeCell ref="C37:N37"/>
     <mergeCell ref="C27:N27"/>
     <mergeCell ref="B1:N1"/>
@@ -5757,6 +6039,7 @@
     <mergeCell ref="C16:N16"/>
     <mergeCell ref="C23:N23"/>
     <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C28:N28"/>
     <mergeCell ref="C121:N121"/>
     <mergeCell ref="C44:N44"/>
     <mergeCell ref="C51:N51"/>
@@ -5771,12 +6054,28 @@
     <mergeCell ref="C100:N100"/>
     <mergeCell ref="C107:N107"/>
     <mergeCell ref="C114:N114"/>
+    <mergeCell ref="C95:N95"/>
+    <mergeCell ref="C111:N111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R149"/>
   <sheetViews>
@@ -5798,21 +6097,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
@@ -6000,20 +6299,20 @@
       <c r="B9" s="3">
         <v>45851</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="56"/>
       <c r="R9" s="17"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.35">
@@ -6142,40 +6441,40 @@
       <c r="B16" s="3">
         <v>45858</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="56"/>
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>45859</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="58"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="72"/>
       <c r="R17" s="17"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.35">
@@ -6278,20 +6577,20 @@
       <c r="B23" s="3">
         <v>45865</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="56"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
@@ -6413,20 +6712,20 @@
       <c r="B30" s="3">
         <v>45872</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="56"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
@@ -6545,20 +6844,20 @@
       <c r="B37" s="3">
         <v>45879</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="56"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
@@ -6638,58 +6937,58 @@
       <c r="B42" s="3">
         <v>45884</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="58"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="72"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>45885</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="58"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="72"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>45886</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="56"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
@@ -6805,20 +7104,20 @@
       <c r="B51" s="3">
         <v>45893</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="56"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
@@ -6863,20 +7162,20 @@
       <c r="B54" s="3">
         <v>45896</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="58"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="72"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
@@ -6940,73 +7239,73 @@
       <c r="B58" s="3">
         <v>45900</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="56"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B59" s="38">
         <v>45901</v>
       </c>
-      <c r="C59" s="69" t="s">
+      <c r="C59" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="70"/>
-      <c r="M59" s="70"/>
-      <c r="N59" s="71"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
+      <c r="N59" s="84"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B60" s="38">
         <v>45902</v>
       </c>
-      <c r="C60" s="72"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="74"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="86"/>
+      <c r="G60" s="86"/>
+      <c r="H60" s="86"/>
+      <c r="I60" s="86"/>
+      <c r="J60" s="86"/>
+      <c r="K60" s="86"/>
+      <c r="L60" s="86"/>
+      <c r="M60" s="86"/>
+      <c r="N60" s="87"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B61" s="38">
         <v>45903</v>
       </c>
-      <c r="C61" s="75"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="76"/>
-      <c r="N61" s="77"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="89"/>
+      <c r="H61" s="89"/>
+      <c r="I61" s="89"/>
+      <c r="J61" s="89"/>
+      <c r="K61" s="89"/>
+      <c r="L61" s="89"/>
+      <c r="M61" s="89"/>
+      <c r="N61" s="90"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
@@ -7031,56 +7330,56 @@
       <c r="B63" s="3">
         <v>45905</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="60"/>
-      <c r="N63" s="61"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="74"/>
+      <c r="M63" s="74"/>
+      <c r="N63" s="75"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>45906</v>
       </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66"/>
-      <c r="L64" s="66"/>
-      <c r="M64" s="66"/>
-      <c r="N64" s="67"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="80"/>
+      <c r="G64" s="80"/>
+      <c r="H64" s="80"/>
+      <c r="I64" s="80"/>
+      <c r="J64" s="80"/>
+      <c r="K64" s="80"/>
+      <c r="L64" s="80"/>
+      <c r="M64" s="80"/>
+      <c r="N64" s="81"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>45907</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="56"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
@@ -7199,20 +7498,20 @@
       <c r="B72" s="3">
         <v>45914</v>
       </c>
-      <c r="C72" s="53" t="s">
+      <c r="C72" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="55"/>
+      <c r="N72" s="56"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
@@ -7330,20 +7629,20 @@
       <c r="B79" s="3">
         <v>45921</v>
       </c>
-      <c r="C79" s="53" t="s">
+      <c r="C79" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="55"/>
+      <c r="L79" s="55"/>
+      <c r="M79" s="55"/>
+      <c r="N79" s="56"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B80" s="3">
@@ -7459,143 +7758,143 @@
       <c r="B86" s="3">
         <v>45928</v>
       </c>
-      <c r="C86" s="53" t="s">
+      <c r="C86" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="54"/>
-      <c r="J86" s="54"/>
-      <c r="K86" s="54"/>
-      <c r="L86" s="54"/>
-      <c r="M86" s="54"/>
-      <c r="N86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="55"/>
+      <c r="N86" s="56"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B87" s="3">
         <v>45929</v>
       </c>
-      <c r="C87" s="59" t="s">
+      <c r="C87" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="60"/>
-      <c r="K87" s="60"/>
-      <c r="L87" s="60"/>
-      <c r="M87" s="60"/>
-      <c r="N87" s="61"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74"/>
+      <c r="I87" s="74"/>
+      <c r="J87" s="74"/>
+      <c r="K87" s="74"/>
+      <c r="L87" s="74"/>
+      <c r="M87" s="74"/>
+      <c r="N87" s="75"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B88" s="3">
         <v>45930</v>
       </c>
-      <c r="C88" s="62"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="63"/>
-      <c r="K88" s="63"/>
-      <c r="L88" s="63"/>
-      <c r="M88" s="63"/>
-      <c r="N88" s="64"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="77"/>
+      <c r="I88" s="77"/>
+      <c r="J88" s="77"/>
+      <c r="K88" s="77"/>
+      <c r="L88" s="77"/>
+      <c r="M88" s="77"/>
+      <c r="N88" s="78"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B89" s="3">
         <v>45931</v>
       </c>
-      <c r="C89" s="62"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="63"/>
-      <c r="G89" s="63"/>
-      <c r="H89" s="63"/>
-      <c r="I89" s="63"/>
-      <c r="J89" s="63"/>
-      <c r="K89" s="63"/>
-      <c r="L89" s="63"/>
-      <c r="M89" s="63"/>
-      <c r="N89" s="64"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="77"/>
+      <c r="I89" s="77"/>
+      <c r="J89" s="77"/>
+      <c r="K89" s="77"/>
+      <c r="L89" s="77"/>
+      <c r="M89" s="77"/>
+      <c r="N89" s="78"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B90" s="3">
         <v>45932</v>
       </c>
-      <c r="C90" s="62"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="63"/>
-      <c r="G90" s="63"/>
-      <c r="H90" s="63"/>
-      <c r="I90" s="63"/>
-      <c r="J90" s="63"/>
-      <c r="K90" s="63"/>
-      <c r="L90" s="63"/>
-      <c r="M90" s="63"/>
-      <c r="N90" s="64"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="77"/>
+      <c r="I90" s="77"/>
+      <c r="J90" s="77"/>
+      <c r="K90" s="77"/>
+      <c r="L90" s="77"/>
+      <c r="M90" s="77"/>
+      <c r="N90" s="78"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B91" s="3">
         <v>45933</v>
       </c>
-      <c r="C91" s="62"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63"/>
-      <c r="G91" s="63"/>
-      <c r="H91" s="63"/>
-      <c r="I91" s="63"/>
-      <c r="J91" s="63"/>
-      <c r="K91" s="63"/>
-      <c r="L91" s="63"/>
-      <c r="M91" s="63"/>
-      <c r="N91" s="64"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="77"/>
+      <c r="I91" s="77"/>
+      <c r="J91" s="77"/>
+      <c r="K91" s="77"/>
+      <c r="L91" s="77"/>
+      <c r="M91" s="77"/>
+      <c r="N91" s="78"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <v>45934</v>
       </c>
-      <c r="C92" s="65"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="66"/>
-      <c r="H92" s="66"/>
-      <c r="I92" s="66"/>
-      <c r="J92" s="66"/>
-      <c r="K92" s="66"/>
-      <c r="L92" s="66"/>
-      <c r="M92" s="66"/>
-      <c r="N92" s="67"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="80"/>
+      <c r="E92" s="80"/>
+      <c r="F92" s="80"/>
+      <c r="G92" s="80"/>
+      <c r="H92" s="80"/>
+      <c r="I92" s="80"/>
+      <c r="J92" s="80"/>
+      <c r="K92" s="80"/>
+      <c r="L92" s="80"/>
+      <c r="M92" s="80"/>
+      <c r="N92" s="81"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B93" s="3">
         <v>45935</v>
       </c>
-      <c r="C93" s="53" t="s">
+      <c r="C93" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="54"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="54"/>
-      <c r="G93" s="54"/>
-      <c r="H93" s="54"/>
-      <c r="I93" s="54"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="54"/>
-      <c r="L93" s="54"/>
-      <c r="M93" s="54"/>
-      <c r="N93" s="55"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="55"/>
+      <c r="I93" s="55"/>
+      <c r="J93" s="55"/>
+      <c r="K93" s="55"/>
+      <c r="L93" s="55"/>
+      <c r="M93" s="55"/>
+      <c r="N93" s="56"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B94" s="3">
@@ -7711,20 +8010,20 @@
       <c r="B100" s="3">
         <v>45942</v>
       </c>
-      <c r="C100" s="53" t="s">
+      <c r="C100" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="54"/>
-      <c r="E100" s="54"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="54"/>
-      <c r="H100" s="54"/>
-      <c r="I100" s="54"/>
-      <c r="J100" s="54"/>
-      <c r="K100" s="54"/>
-      <c r="L100" s="54"/>
-      <c r="M100" s="54"/>
-      <c r="N100" s="55"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="55"/>
+      <c r="K100" s="55"/>
+      <c r="L100" s="55"/>
+      <c r="M100" s="55"/>
+      <c r="N100" s="56"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B101" s="3">
@@ -7823,58 +8122,58 @@
       <c r="B106" s="3">
         <v>45948</v>
       </c>
-      <c r="C106" s="56" t="s">
+      <c r="C106" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="D106" s="57"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="57"/>
-      <c r="I106" s="57"/>
-      <c r="J106" s="57"/>
-      <c r="K106" s="57"/>
-      <c r="L106" s="57"/>
-      <c r="M106" s="57"/>
-      <c r="N106" s="58"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="71"/>
+      <c r="L106" s="71"/>
+      <c r="M106" s="71"/>
+      <c r="N106" s="72"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B107" s="3">
         <v>45949</v>
       </c>
-      <c r="C107" s="53" t="s">
+      <c r="C107" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="54"/>
-      <c r="E107" s="54"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="54"/>
-      <c r="I107" s="54"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="54"/>
-      <c r="L107" s="54"/>
-      <c r="M107" s="54"/>
-      <c r="N107" s="55"/>
+      <c r="D107" s="55"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="55"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="55"/>
+      <c r="J107" s="55"/>
+      <c r="K107" s="55"/>
+      <c r="L107" s="55"/>
+      <c r="M107" s="55"/>
+      <c r="N107" s="56"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B108" s="3">
         <v>45950</v>
       </c>
-      <c r="C108" s="56" t="s">
+      <c r="C108" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="57"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="57"/>
-      <c r="J108" s="57"/>
-      <c r="K108" s="57"/>
-      <c r="L108" s="57"/>
-      <c r="M108" s="57"/>
-      <c r="N108" s="58"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="71"/>
+      <c r="J108" s="71"/>
+      <c r="K108" s="71"/>
+      <c r="L108" s="71"/>
+      <c r="M108" s="71"/>
+      <c r="N108" s="72"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B109" s="3">
@@ -7973,20 +8272,20 @@
       <c r="B114" s="3">
         <v>45956</v>
       </c>
-      <c r="C114" s="53" t="s">
+      <c r="C114" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="54"/>
-      <c r="E114" s="54"/>
-      <c r="F114" s="54"/>
-      <c r="G114" s="54"/>
-      <c r="H114" s="54"/>
-      <c r="I114" s="54"/>
-      <c r="J114" s="54"/>
-      <c r="K114" s="54"/>
-      <c r="L114" s="54"/>
-      <c r="M114" s="54"/>
-      <c r="N114" s="55"/>
+      <c r="D114" s="55"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="55"/>
+      <c r="J114" s="55"/>
+      <c r="K114" s="55"/>
+      <c r="L114" s="55"/>
+      <c r="M114" s="55"/>
+      <c r="N114" s="56"/>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B115" s="3">
@@ -8105,20 +8404,20 @@
       <c r="B121" s="3">
         <v>45963</v>
       </c>
-      <c r="C121" s="53" t="s">
+      <c r="C121" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
-      <c r="L121" s="54"/>
-      <c r="M121" s="54"/>
-      <c r="N121" s="55"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="55"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="55"/>
+      <c r="H121" s="55"/>
+      <c r="I121" s="55"/>
+      <c r="J121" s="55"/>
+      <c r="K121" s="55"/>
+      <c r="L121" s="55"/>
+      <c r="M121" s="55"/>
+      <c r="N121" s="56"/>
       <c r="O121" t="s">
         <v>199</v>
       </c>
@@ -8169,20 +8468,20 @@
       <c r="B124" s="3">
         <v>45966</v>
       </c>
-      <c r="C124" s="56" t="s">
+      <c r="C124" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="57"/>
-      <c r="E124" s="57"/>
-      <c r="F124" s="57"/>
-      <c r="G124" s="57"/>
-      <c r="H124" s="57"/>
-      <c r="I124" s="57"/>
-      <c r="J124" s="57"/>
-      <c r="K124" s="57"/>
-      <c r="L124" s="57"/>
-      <c r="M124" s="57"/>
-      <c r="N124" s="58"/>
+      <c r="D124" s="71"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="71"/>
+      <c r="G124" s="71"/>
+      <c r="H124" s="71"/>
+      <c r="I124" s="71"/>
+      <c r="J124" s="71"/>
+      <c r="K124" s="71"/>
+      <c r="L124" s="71"/>
+      <c r="M124" s="71"/>
+      <c r="N124" s="72"/>
       <c r="O124" t="s">
         <v>199</v>
       </c>
@@ -8469,7 +8768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:G12"/>
   <sheetViews>
@@ -8548,7 +8847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:T26"/>
   <sheetViews>
@@ -8972,7 +9271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:L14"/>
   <sheetViews>
@@ -9241,7 +9540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:O15"/>
   <sheetViews>
@@ -9494,221 +9793,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="39.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C2" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C3" s="19">
-        <v>1</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="19">
-        <v>2</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="19">
-        <v>3</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C6" s="19">
-        <v>4</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="19">
-        <v>5</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="19">
-        <v>6</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="19">
-        <v>7</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="19">
-        <v>8</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="19">
-        <v>9</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="19">
-        <v>10</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="19">
-        <v>11</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="19">
-        <v>12</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="19">
-        <v>13</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C16" s="19">
-        <v>14</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/CDC WORK 2025 - 2026 dec.xlsx
+++ b/CDC WORK 2025 - 2026 dec.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="305">
   <si>
     <t xml:space="preserve">DBMS TRAINING SCHEDULE IN CDC </t>
   </si>
@@ -959,6 +959,9 @@
   </si>
   <si>
     <t>HOLI</t>
+  </si>
+  <si>
+    <t>PAT - Agentic AI workshop</t>
   </si>
 </sst>
 </file>
@@ -996,7 +999,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1114,6 +1117,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,7 +1296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1410,6 +1419,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1417,6 +1435,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1446,54 +1467,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1521,6 +1494,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2635,7 +2645,7 @@
   <dimension ref="C2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3382,7 +3392,7 @@
   <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3395,21 +3405,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B2" s="49" t="s">
@@ -3577,20 +3587,20 @@
       <c r="B9" s="3">
         <v>45998</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="56"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="59"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="51" t="s">
@@ -3688,7 +3698,9 @@
         <v>46003</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3709,7 +3721,9 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="91" t="s">
+        <v>304</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -3727,20 +3741,20 @@
       <c r="B16" s="3">
         <v>46005</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="56"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="51" t="s">
@@ -3749,7 +3763,9 @@
       <c r="B17" s="3">
         <v>46006</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -3869,20 +3885,20 @@
       <c r="B23" s="3">
         <v>46012</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="56"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="59"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="51" t="s">
@@ -3951,20 +3967,20 @@
       <c r="B27" s="3">
         <v>46016</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="68"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="56"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="51" t="s">
@@ -3973,20 +3989,20 @@
       <c r="B28" s="3">
         <v>46017</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="68"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="56"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="51" t="s">
@@ -4015,20 +4031,20 @@
       <c r="B30" s="3">
         <v>46019</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="56"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="59"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="51" t="s">
@@ -4157,20 +4173,20 @@
       <c r="B37" s="3">
         <v>46026</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="56"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="59"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="51" t="s">
@@ -4299,20 +4315,20 @@
       <c r="B44" s="3">
         <v>46033</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="56"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="59"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="51" t="s">
@@ -4321,20 +4337,20 @@
       <c r="B45" s="3">
         <v>46034</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="59"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="63"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="51" t="s">
@@ -4343,18 +4359,18 @@
       <c r="B46" s="3">
         <v>46035</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="62"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="66"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="51" t="s">
@@ -4363,18 +4379,18 @@
       <c r="B47" s="3">
         <v>46036</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="62"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="66"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="51" t="s">
@@ -4383,18 +4399,18 @@
       <c r="B48" s="3">
         <v>46037</v>
       </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="62"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="66"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="51" t="s">
@@ -4403,18 +4419,18 @@
       <c r="B49" s="3">
         <v>46038</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="62"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="66"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="51" t="s">
@@ -4423,18 +4439,18 @@
       <c r="B50" s="3">
         <v>46039</v>
       </c>
-      <c r="C50" s="63"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="64"/>
-      <c r="N50" s="65"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="69"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="51" t="s">
@@ -4443,20 +4459,20 @@
       <c r="B51" s="3">
         <v>46040</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="55"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="56"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="59"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="51" t="s">
@@ -4585,20 +4601,20 @@
       <c r="B58" s="3">
         <v>46047</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="56"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="59"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="51" t="s">
@@ -4607,20 +4623,20 @@
       <c r="B59" s="3">
         <v>46048</v>
       </c>
-      <c r="C59" s="66" t="s">
+      <c r="C59" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="67"/>
-      <c r="N59" s="68"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="56"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="51" t="s">
@@ -4825,20 +4841,20 @@
       <c r="B65" s="3">
         <v>46054</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="56"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
+      <c r="N65" s="59"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="51" t="s">
@@ -4991,20 +5007,20 @@
       <c r="B72" s="3">
         <v>46061</v>
       </c>
-      <c r="C72" s="54" t="s">
+      <c r="C72" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="55"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="55"/>
-      <c r="M72" s="55"/>
-      <c r="N72" s="56"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="58"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="58"/>
+      <c r="N72" s="59"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="51" t="s">
@@ -5133,20 +5149,20 @@
       <c r="B79" s="3">
         <v>46068</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="55"/>
-      <c r="K79" s="55"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="55"/>
-      <c r="N79" s="56"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="58"/>
+      <c r="N79" s="59"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="51" t="s">
@@ -5275,20 +5291,20 @@
       <c r="B86" s="3">
         <v>46075</v>
       </c>
-      <c r="C86" s="54" t="s">
+      <c r="C86" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="55"/>
-      <c r="N86" s="56"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="58"/>
+      <c r="J86" s="58"/>
+      <c r="K86" s="58"/>
+      <c r="L86" s="58"/>
+      <c r="M86" s="58"/>
+      <c r="N86" s="59"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="51" t="s">
@@ -5417,20 +5433,20 @@
       <c r="B93" s="3">
         <v>46082</v>
       </c>
-      <c r="C93" s="54" t="s">
+      <c r="C93" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D93" s="55"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="55"/>
-      <c r="J93" s="55"/>
-      <c r="K93" s="55"/>
-      <c r="L93" s="55"/>
-      <c r="M93" s="55"/>
-      <c r="N93" s="56"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="58"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="58"/>
+      <c r="L93" s="58"/>
+      <c r="M93" s="58"/>
+      <c r="N93" s="59"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="51" t="s">
@@ -5459,20 +5475,20 @@
       <c r="B95" s="3">
         <v>46084</v>
       </c>
-      <c r="C95" s="66" t="s">
+      <c r="C95" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="D95" s="67"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="67"/>
-      <c r="I95" s="67"/>
-      <c r="J95" s="67"/>
-      <c r="K95" s="67"/>
-      <c r="L95" s="67"/>
-      <c r="M95" s="67"/>
-      <c r="N95" s="68"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="55"/>
+      <c r="J95" s="55"/>
+      <c r="K95" s="55"/>
+      <c r="L95" s="55"/>
+      <c r="M95" s="55"/>
+      <c r="N95" s="56"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="51" t="s">
@@ -5561,20 +5577,20 @@
       <c r="B100" s="3">
         <v>46089</v>
       </c>
-      <c r="C100" s="54" t="s">
+      <c r="C100" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D100" s="55"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="55"/>
-      <c r="I100" s="55"/>
-      <c r="J100" s="55"/>
-      <c r="K100" s="55"/>
-      <c r="L100" s="55"/>
-      <c r="M100" s="55"/>
-      <c r="N100" s="56"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="58"/>
+      <c r="J100" s="58"/>
+      <c r="K100" s="58"/>
+      <c r="L100" s="58"/>
+      <c r="M100" s="58"/>
+      <c r="N100" s="59"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="51" t="s">
@@ -5703,20 +5719,20 @@
       <c r="B107" s="3">
         <v>46096</v>
       </c>
-      <c r="C107" s="54" t="s">
+      <c r="C107" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D107" s="55"/>
-      <c r="E107" s="55"/>
-      <c r="F107" s="55"/>
-      <c r="G107" s="55"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="55"/>
-      <c r="J107" s="55"/>
-      <c r="K107" s="55"/>
-      <c r="L107" s="55"/>
-      <c r="M107" s="55"/>
-      <c r="N107" s="56"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="58"/>
+      <c r="J107" s="58"/>
+      <c r="K107" s="58"/>
+      <c r="L107" s="58"/>
+      <c r="M107" s="58"/>
+      <c r="N107" s="59"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="51" t="s">
@@ -5785,20 +5801,20 @@
       <c r="B111" s="3">
         <v>46100</v>
       </c>
-      <c r="C111" s="66" t="s">
+      <c r="C111" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="D111" s="67"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="67"/>
-      <c r="H111" s="67"/>
-      <c r="I111" s="67"/>
-      <c r="J111" s="67"/>
-      <c r="K111" s="67"/>
-      <c r="L111" s="67"/>
-      <c r="M111" s="67"/>
-      <c r="N111" s="68"/>
+      <c r="D111" s="55"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="55"/>
+      <c r="J111" s="55"/>
+      <c r="K111" s="55"/>
+      <c r="L111" s="55"/>
+      <c r="M111" s="55"/>
+      <c r="N111" s="56"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="51" t="s">
@@ -5827,20 +5843,20 @@
       <c r="B113" s="3">
         <v>46102</v>
       </c>
-      <c r="C113" s="66" t="s">
+      <c r="C113" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="67"/>
-      <c r="J113" s="67"/>
-      <c r="K113" s="67"/>
-      <c r="L113" s="67"/>
-      <c r="M113" s="67"/>
-      <c r="N113" s="68"/>
+      <c r="D113" s="55"/>
+      <c r="E113" s="55"/>
+      <c r="F113" s="55"/>
+      <c r="G113" s="55"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="55"/>
+      <c r="J113" s="55"/>
+      <c r="K113" s="55"/>
+      <c r="L113" s="55"/>
+      <c r="M113" s="55"/>
+      <c r="N113" s="56"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="51" t="s">
@@ -5849,20 +5865,20 @@
       <c r="B114" s="3">
         <v>46103</v>
       </c>
-      <c r="C114" s="54" t="s">
+      <c r="C114" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D114" s="55"/>
-      <c r="E114" s="55"/>
-      <c r="F114" s="55"/>
-      <c r="G114" s="55"/>
-      <c r="H114" s="55"/>
-      <c r="I114" s="55"/>
-      <c r="J114" s="55"/>
-      <c r="K114" s="55"/>
-      <c r="L114" s="55"/>
-      <c r="M114" s="55"/>
-      <c r="N114" s="56"/>
+      <c r="D114" s="58"/>
+      <c r="E114" s="58"/>
+      <c r="F114" s="58"/>
+      <c r="G114" s="58"/>
+      <c r="H114" s="58"/>
+      <c r="I114" s="58"/>
+      <c r="J114" s="58"/>
+      <c r="K114" s="58"/>
+      <c r="L114" s="58"/>
+      <c r="M114" s="58"/>
+      <c r="N114" s="59"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="51" t="s">
@@ -5951,20 +5967,20 @@
       <c r="B119" s="3">
         <v>46108</v>
       </c>
-      <c r="C119" s="66" t="s">
+      <c r="C119" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="D119" s="67"/>
-      <c r="E119" s="67"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="67"/>
-      <c r="H119" s="67"/>
-      <c r="I119" s="67"/>
-      <c r="J119" s="67"/>
-      <c r="K119" s="67"/>
-      <c r="L119" s="67"/>
-      <c r="M119" s="67"/>
-      <c r="N119" s="68"/>
+      <c r="D119" s="55"/>
+      <c r="E119" s="55"/>
+      <c r="F119" s="55"/>
+      <c r="G119" s="55"/>
+      <c r="H119" s="55"/>
+      <c r="I119" s="55"/>
+      <c r="J119" s="55"/>
+      <c r="K119" s="55"/>
+      <c r="L119" s="55"/>
+      <c r="M119" s="55"/>
+      <c r="N119" s="56"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="51" t="s">
@@ -5993,20 +6009,20 @@
       <c r="B121" s="3">
         <v>46110</v>
       </c>
-      <c r="C121" s="54" t="s">
+      <c r="C121" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D121" s="55"/>
-      <c r="E121" s="55"/>
-      <c r="F121" s="55"/>
-      <c r="G121" s="55"/>
-      <c r="H121" s="55"/>
-      <c r="I121" s="55"/>
-      <c r="J121" s="55"/>
-      <c r="K121" s="55"/>
-      <c r="L121" s="55"/>
-      <c r="M121" s="55"/>
-      <c r="N121" s="56"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="58"/>
+      <c r="F121" s="58"/>
+      <c r="G121" s="58"/>
+      <c r="H121" s="58"/>
+      <c r="I121" s="58"/>
+      <c r="J121" s="58"/>
+      <c r="K121" s="58"/>
+      <c r="L121" s="58"/>
+      <c r="M121" s="58"/>
+      <c r="N121" s="59"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="51" t="s">
@@ -6030,16 +6046,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C113:N113"/>
-    <mergeCell ref="C119:N119"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="C27:N27"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="C30:N30"/>
-    <mergeCell ref="C28:N28"/>
     <mergeCell ref="C121:N121"/>
     <mergeCell ref="C44:N44"/>
     <mergeCell ref="C51:N51"/>
@@ -6056,6 +6062,16 @@
     <mergeCell ref="C114:N114"/>
     <mergeCell ref="C95:N95"/>
     <mergeCell ref="C111:N111"/>
+    <mergeCell ref="C113:N113"/>
+    <mergeCell ref="C119:N119"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C28:N28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6097,21 +6113,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
@@ -6299,20 +6315,20 @@
       <c r="B9" s="3">
         <v>45851</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="56"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="59"/>
       <c r="R9" s="17"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.35">
@@ -6441,40 +6457,40 @@
       <c r="B16" s="3">
         <v>45858</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="56"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>45859</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="72"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="87"/>
       <c r="R17" s="17"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.35">
@@ -6577,20 +6593,20 @@
       <c r="B23" s="3">
         <v>45865</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="56"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="59"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
@@ -6712,20 +6728,20 @@
       <c r="B30" s="3">
         <v>45872</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="56"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="59"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
@@ -6844,20 +6860,20 @@
       <c r="B37" s="3">
         <v>45879</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="56"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="59"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
@@ -6937,58 +6953,58 @@
       <c r="B42" s="3">
         <v>45884</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C42" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="72"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="87"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>45885</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="72"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="86"/>
+      <c r="N43" s="87"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>45886</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="56"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="59"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
@@ -7104,20 +7120,20 @@
       <c r="B51" s="3">
         <v>45893</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="55"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="56"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="59"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
@@ -7162,20 +7178,20 @@
       <c r="B54" s="3">
         <v>45896</v>
       </c>
-      <c r="C54" s="70" t="s">
+      <c r="C54" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="72"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="86"/>
+      <c r="J54" s="86"/>
+      <c r="K54" s="86"/>
+      <c r="L54" s="86"/>
+      <c r="M54" s="86"/>
+      <c r="N54" s="87"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
@@ -7239,73 +7255,73 @@
       <c r="B58" s="3">
         <v>45900</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="56"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="59"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B59" s="38">
         <v>45901</v>
       </c>
-      <c r="C59" s="82" t="s">
+      <c r="C59" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="83"/>
-      <c r="N59" s="84"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="71"/>
+      <c r="L59" s="71"/>
+      <c r="M59" s="71"/>
+      <c r="N59" s="72"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B60" s="38">
         <v>45902</v>
       </c>
-      <c r="C60" s="85"/>
-      <c r="D60" s="86"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="86"/>
-      <c r="H60" s="86"/>
-      <c r="I60" s="86"/>
-      <c r="J60" s="86"/>
-      <c r="K60" s="86"/>
-      <c r="L60" s="86"/>
-      <c r="M60" s="86"/>
-      <c r="N60" s="87"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="75"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B61" s="38">
         <v>45903</v>
       </c>
-      <c r="C61" s="88"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="89"/>
-      <c r="I61" s="89"/>
-      <c r="J61" s="89"/>
-      <c r="K61" s="89"/>
-      <c r="L61" s="89"/>
-      <c r="M61" s="89"/>
-      <c r="N61" s="90"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="77"/>
+      <c r="L61" s="77"/>
+      <c r="M61" s="77"/>
+      <c r="N61" s="78"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
@@ -7330,56 +7346,56 @@
       <c r="B63" s="3">
         <v>45905</v>
       </c>
-      <c r="C63" s="73" t="s">
+      <c r="C63" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="74"/>
-      <c r="I63" s="74"/>
-      <c r="J63" s="74"/>
-      <c r="K63" s="74"/>
-      <c r="L63" s="74"/>
-      <c r="M63" s="74"/>
-      <c r="N63" s="75"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="80"/>
+      <c r="M63" s="80"/>
+      <c r="N63" s="81"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>45906</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="80"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="80"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="80"/>
-      <c r="L64" s="80"/>
-      <c r="M64" s="80"/>
-      <c r="N64" s="81"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="83"/>
+      <c r="K64" s="83"/>
+      <c r="L64" s="83"/>
+      <c r="M64" s="83"/>
+      <c r="N64" s="84"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>45907</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="56"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
+      <c r="N65" s="59"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
@@ -7498,20 +7514,20 @@
       <c r="B72" s="3">
         <v>45914</v>
       </c>
-      <c r="C72" s="54" t="s">
+      <c r="C72" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="55"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="55"/>
-      <c r="M72" s="55"/>
-      <c r="N72" s="56"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="58"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="58"/>
+      <c r="N72" s="59"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
@@ -7629,20 +7645,20 @@
       <c r="B79" s="3">
         <v>45921</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="55"/>
-      <c r="K79" s="55"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="55"/>
-      <c r="N79" s="56"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="58"/>
+      <c r="N79" s="59"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B80" s="3">
@@ -7758,143 +7774,143 @@
       <c r="B86" s="3">
         <v>45928</v>
       </c>
-      <c r="C86" s="54" t="s">
+      <c r="C86" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="55"/>
-      <c r="N86" s="56"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="58"/>
+      <c r="J86" s="58"/>
+      <c r="K86" s="58"/>
+      <c r="L86" s="58"/>
+      <c r="M86" s="58"/>
+      <c r="N86" s="59"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B87" s="3">
         <v>45929</v>
       </c>
-      <c r="C87" s="73" t="s">
+      <c r="C87" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="74"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="74"/>
-      <c r="G87" s="74"/>
-      <c r="H87" s="74"/>
-      <c r="I87" s="74"/>
-      <c r="J87" s="74"/>
-      <c r="K87" s="74"/>
-      <c r="L87" s="74"/>
-      <c r="M87" s="74"/>
-      <c r="N87" s="75"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="80"/>
+      <c r="H87" s="80"/>
+      <c r="I87" s="80"/>
+      <c r="J87" s="80"/>
+      <c r="K87" s="80"/>
+      <c r="L87" s="80"/>
+      <c r="M87" s="80"/>
+      <c r="N87" s="81"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B88" s="3">
         <v>45930</v>
       </c>
-      <c r="C88" s="76"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="77"/>
-      <c r="H88" s="77"/>
-      <c r="I88" s="77"/>
-      <c r="J88" s="77"/>
-      <c r="K88" s="77"/>
-      <c r="L88" s="77"/>
-      <c r="M88" s="77"/>
-      <c r="N88" s="78"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
+      <c r="G88" s="89"/>
+      <c r="H88" s="89"/>
+      <c r="I88" s="89"/>
+      <c r="J88" s="89"/>
+      <c r="K88" s="89"/>
+      <c r="L88" s="89"/>
+      <c r="M88" s="89"/>
+      <c r="N88" s="90"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B89" s="3">
         <v>45931</v>
       </c>
-      <c r="C89" s="76"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="77"/>
-      <c r="G89" s="77"/>
-      <c r="H89" s="77"/>
-      <c r="I89" s="77"/>
-      <c r="J89" s="77"/>
-      <c r="K89" s="77"/>
-      <c r="L89" s="77"/>
-      <c r="M89" s="77"/>
-      <c r="N89" s="78"/>
+      <c r="C89" s="88"/>
+      <c r="D89" s="89"/>
+      <c r="E89" s="89"/>
+      <c r="F89" s="89"/>
+      <c r="G89" s="89"/>
+      <c r="H89" s="89"/>
+      <c r="I89" s="89"/>
+      <c r="J89" s="89"/>
+      <c r="K89" s="89"/>
+      <c r="L89" s="89"/>
+      <c r="M89" s="89"/>
+      <c r="N89" s="90"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B90" s="3">
         <v>45932</v>
       </c>
-      <c r="C90" s="76"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="77"/>
-      <c r="H90" s="77"/>
-      <c r="I90" s="77"/>
-      <c r="J90" s="77"/>
-      <c r="K90" s="77"/>
-      <c r="L90" s="77"/>
-      <c r="M90" s="77"/>
-      <c r="N90" s="78"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="89"/>
+      <c r="E90" s="89"/>
+      <c r="F90" s="89"/>
+      <c r="G90" s="89"/>
+      <c r="H90" s="89"/>
+      <c r="I90" s="89"/>
+      <c r="J90" s="89"/>
+      <c r="K90" s="89"/>
+      <c r="L90" s="89"/>
+      <c r="M90" s="89"/>
+      <c r="N90" s="90"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B91" s="3">
         <v>45933</v>
       </c>
-      <c r="C91" s="76"/>
-      <c r="D91" s="77"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="77"/>
-      <c r="G91" s="77"/>
-      <c r="H91" s="77"/>
-      <c r="I91" s="77"/>
-      <c r="J91" s="77"/>
-      <c r="K91" s="77"/>
-      <c r="L91" s="77"/>
-      <c r="M91" s="77"/>
-      <c r="N91" s="78"/>
+      <c r="C91" s="88"/>
+      <c r="D91" s="89"/>
+      <c r="E91" s="89"/>
+      <c r="F91" s="89"/>
+      <c r="G91" s="89"/>
+      <c r="H91" s="89"/>
+      <c r="I91" s="89"/>
+      <c r="J91" s="89"/>
+      <c r="K91" s="89"/>
+      <c r="L91" s="89"/>
+      <c r="M91" s="89"/>
+      <c r="N91" s="90"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <v>45934</v>
       </c>
-      <c r="C92" s="79"/>
-      <c r="D92" s="80"/>
-      <c r="E92" s="80"/>
-      <c r="F92" s="80"/>
-      <c r="G92" s="80"/>
-      <c r="H92" s="80"/>
-      <c r="I92" s="80"/>
-      <c r="J92" s="80"/>
-      <c r="K92" s="80"/>
-      <c r="L92" s="80"/>
-      <c r="M92" s="80"/>
-      <c r="N92" s="81"/>
+      <c r="C92" s="82"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="83"/>
+      <c r="H92" s="83"/>
+      <c r="I92" s="83"/>
+      <c r="J92" s="83"/>
+      <c r="K92" s="83"/>
+      <c r="L92" s="83"/>
+      <c r="M92" s="83"/>
+      <c r="N92" s="84"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B93" s="3">
         <v>45935</v>
       </c>
-      <c r="C93" s="54" t="s">
+      <c r="C93" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="55"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="55"/>
-      <c r="J93" s="55"/>
-      <c r="K93" s="55"/>
-      <c r="L93" s="55"/>
-      <c r="M93" s="55"/>
-      <c r="N93" s="56"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="58"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="58"/>
+      <c r="L93" s="58"/>
+      <c r="M93" s="58"/>
+      <c r="N93" s="59"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B94" s="3">
@@ -8010,20 +8026,20 @@
       <c r="B100" s="3">
         <v>45942</v>
       </c>
-      <c r="C100" s="54" t="s">
+      <c r="C100" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="55"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="55"/>
-      <c r="I100" s="55"/>
-      <c r="J100" s="55"/>
-      <c r="K100" s="55"/>
-      <c r="L100" s="55"/>
-      <c r="M100" s="55"/>
-      <c r="N100" s="56"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="58"/>
+      <c r="J100" s="58"/>
+      <c r="K100" s="58"/>
+      <c r="L100" s="58"/>
+      <c r="M100" s="58"/>
+      <c r="N100" s="59"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B101" s="3">
@@ -8122,58 +8138,58 @@
       <c r="B106" s="3">
         <v>45948</v>
       </c>
-      <c r="C106" s="70" t="s">
+      <c r="C106" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="D106" s="71"/>
-      <c r="E106" s="71"/>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71"/>
-      <c r="H106" s="71"/>
-      <c r="I106" s="71"/>
-      <c r="J106" s="71"/>
-      <c r="K106" s="71"/>
-      <c r="L106" s="71"/>
-      <c r="M106" s="71"/>
-      <c r="N106" s="72"/>
+      <c r="D106" s="86"/>
+      <c r="E106" s="86"/>
+      <c r="F106" s="86"/>
+      <c r="G106" s="86"/>
+      <c r="H106" s="86"/>
+      <c r="I106" s="86"/>
+      <c r="J106" s="86"/>
+      <c r="K106" s="86"/>
+      <c r="L106" s="86"/>
+      <c r="M106" s="86"/>
+      <c r="N106" s="87"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B107" s="3">
         <v>45949</v>
       </c>
-      <c r="C107" s="54" t="s">
+      <c r="C107" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="55"/>
-      <c r="E107" s="55"/>
-      <c r="F107" s="55"/>
-      <c r="G107" s="55"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="55"/>
-      <c r="J107" s="55"/>
-      <c r="K107" s="55"/>
-      <c r="L107" s="55"/>
-      <c r="M107" s="55"/>
-      <c r="N107" s="56"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="58"/>
+      <c r="J107" s="58"/>
+      <c r="K107" s="58"/>
+      <c r="L107" s="58"/>
+      <c r="M107" s="58"/>
+      <c r="N107" s="59"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B108" s="3">
         <v>45950</v>
       </c>
-      <c r="C108" s="70" t="s">
+      <c r="C108" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="71"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="71"/>
-      <c r="G108" s="71"/>
-      <c r="H108" s="71"/>
-      <c r="I108" s="71"/>
-      <c r="J108" s="71"/>
-      <c r="K108" s="71"/>
-      <c r="L108" s="71"/>
-      <c r="M108" s="71"/>
-      <c r="N108" s="72"/>
+      <c r="D108" s="86"/>
+      <c r="E108" s="86"/>
+      <c r="F108" s="86"/>
+      <c r="G108" s="86"/>
+      <c r="H108" s="86"/>
+      <c r="I108" s="86"/>
+      <c r="J108" s="86"/>
+      <c r="K108" s="86"/>
+      <c r="L108" s="86"/>
+      <c r="M108" s="86"/>
+      <c r="N108" s="87"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B109" s="3">
@@ -8272,20 +8288,20 @@
       <c r="B114" s="3">
         <v>45956</v>
       </c>
-      <c r="C114" s="54" t="s">
+      <c r="C114" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="55"/>
-      <c r="E114" s="55"/>
-      <c r="F114" s="55"/>
-      <c r="G114" s="55"/>
-      <c r="H114" s="55"/>
-      <c r="I114" s="55"/>
-      <c r="J114" s="55"/>
-      <c r="K114" s="55"/>
-      <c r="L114" s="55"/>
-      <c r="M114" s="55"/>
-      <c r="N114" s="56"/>
+      <c r="D114" s="58"/>
+      <c r="E114" s="58"/>
+      <c r="F114" s="58"/>
+      <c r="G114" s="58"/>
+      <c r="H114" s="58"/>
+      <c r="I114" s="58"/>
+      <c r="J114" s="58"/>
+      <c r="K114" s="58"/>
+      <c r="L114" s="58"/>
+      <c r="M114" s="58"/>
+      <c r="N114" s="59"/>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B115" s="3">
@@ -8404,20 +8420,20 @@
       <c r="B121" s="3">
         <v>45963</v>
       </c>
-      <c r="C121" s="54" t="s">
+      <c r="C121" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="55"/>
-      <c r="E121" s="55"/>
-      <c r="F121" s="55"/>
-      <c r="G121" s="55"/>
-      <c r="H121" s="55"/>
-      <c r="I121" s="55"/>
-      <c r="J121" s="55"/>
-      <c r="K121" s="55"/>
-      <c r="L121" s="55"/>
-      <c r="M121" s="55"/>
-      <c r="N121" s="56"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="58"/>
+      <c r="F121" s="58"/>
+      <c r="G121" s="58"/>
+      <c r="H121" s="58"/>
+      <c r="I121" s="58"/>
+      <c r="J121" s="58"/>
+      <c r="K121" s="58"/>
+      <c r="L121" s="58"/>
+      <c r="M121" s="58"/>
+      <c r="N121" s="59"/>
       <c r="O121" t="s">
         <v>199</v>
       </c>
@@ -8468,20 +8484,20 @@
       <c r="B124" s="3">
         <v>45966</v>
       </c>
-      <c r="C124" s="70" t="s">
+      <c r="C124" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="71"/>
-      <c r="E124" s="71"/>
-      <c r="F124" s="71"/>
-      <c r="G124" s="71"/>
-      <c r="H124" s="71"/>
-      <c r="I124" s="71"/>
-      <c r="J124" s="71"/>
-      <c r="K124" s="71"/>
-      <c r="L124" s="71"/>
-      <c r="M124" s="71"/>
-      <c r="N124" s="72"/>
+      <c r="D124" s="86"/>
+      <c r="E124" s="86"/>
+      <c r="F124" s="86"/>
+      <c r="G124" s="86"/>
+      <c r="H124" s="86"/>
+      <c r="I124" s="86"/>
+      <c r="J124" s="86"/>
+      <c r="K124" s="86"/>
+      <c r="L124" s="86"/>
+      <c r="M124" s="86"/>
+      <c r="N124" s="87"/>
       <c r="O124" t="s">
         <v>199</v>
       </c>
@@ -8734,21 +8750,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C59:N61"/>
-    <mergeCell ref="C63:N64"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="C42:N42"/>
-    <mergeCell ref="C43:N43"/>
-    <mergeCell ref="C54:N54"/>
-    <mergeCell ref="C44:N44"/>
-    <mergeCell ref="C51:N51"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="C30:N30"/>
     <mergeCell ref="C65:N65"/>
     <mergeCell ref="C108:N108"/>
     <mergeCell ref="C124:N124"/>
@@ -8762,6 +8763,21 @@
     <mergeCell ref="C72:N72"/>
     <mergeCell ref="C79:N79"/>
     <mergeCell ref="C106:N106"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C59:N61"/>
+    <mergeCell ref="C63:N64"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="C42:N42"/>
+    <mergeCell ref="C43:N43"/>
+    <mergeCell ref="C54:N54"/>
+    <mergeCell ref="C44:N44"/>
+    <mergeCell ref="C51:N51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8852,7 +8868,7 @@
   <dimension ref="D3:T26"/>
   <sheetViews>
     <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9276,7 +9292,7 @@
   <dimension ref="C4:L14"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:L4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/CDC WORK 2025 - 2026 dec.xlsx
+++ b/CDC WORK 2025 - 2026 dec.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="307">
   <si>
     <t xml:space="preserve">DBMS TRAINING SCHEDULE IN CDC </t>
   </si>
@@ -962,6 +962,12 @@
   </si>
   <si>
     <t>PAT - Agentic AI workshop</t>
+  </si>
+  <si>
+    <t>Student_JDBC through maven - add functionality</t>
+  </si>
+  <si>
+    <t>branch wise count</t>
   </si>
 </sst>
 </file>
@@ -1419,6 +1425,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1530,7 +1537,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3391,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3402,24 +3408,25 @@
     <col min="3" max="3" width="47.453125" customWidth="1"/>
     <col min="4" max="4" width="46.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.90625" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B2" s="49" t="s">
@@ -3587,20 +3594,20 @@
       <c r="B9" s="3">
         <v>45998</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="60"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="51" t="s">
@@ -3721,7 +3728,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="91" t="s">
+      <c r="E15" s="54" t="s">
         <v>304</v>
       </c>
       <c r="F15" s="2"/>
@@ -3741,20 +3748,20 @@
       <c r="B16" s="3">
         <v>46005</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="60"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="51" t="s">
@@ -3764,11 +3771,13 @@
         <v>46006</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3786,7 +3795,9 @@
         <v>46007</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3807,7 +3818,9 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -3885,20 +3898,20 @@
       <c r="B23" s="3">
         <v>46012</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="60"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="51" t="s">
@@ -3967,20 +3980,20 @@
       <c r="B27" s="3">
         <v>46016</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="57"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="51" t="s">
@@ -3989,20 +4002,20 @@
       <c r="B28" s="3">
         <v>46017</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="57"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="51" t="s">
@@ -4031,20 +4044,20 @@
       <c r="B30" s="3">
         <v>46019</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="60"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="51" t="s">
@@ -4173,20 +4186,20 @@
       <c r="B37" s="3">
         <v>46026</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="60"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="51" t="s">
@@ -4315,20 +4328,20 @@
       <c r="B44" s="3">
         <v>46033</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="60"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="51" t="s">
@@ -4337,20 +4350,20 @@
       <c r="B45" s="3">
         <v>46034</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="64"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="51" t="s">
@@ -4359,18 +4372,18 @@
       <c r="B46" s="3">
         <v>46035</v>
       </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65"/>
-      <c r="N46" s="66"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="67"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="51" t="s">
@@ -4379,18 +4392,18 @@
       <c r="B47" s="3">
         <v>46036</v>
       </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="66"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="67"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="51" t="s">
@@ -4399,18 +4412,18 @@
       <c r="B48" s="3">
         <v>46037</v>
       </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="66"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="67"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="51" t="s">
@@ -4419,18 +4432,18 @@
       <c r="B49" s="3">
         <v>46038</v>
       </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="66"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="66"/>
+      <c r="N49" s="67"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="51" t="s">
@@ -4439,18 +4452,18 @@
       <c r="B50" s="3">
         <v>46039</v>
       </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="69"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="70"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="51" t="s">
@@ -4459,20 +4472,20 @@
       <c r="B51" s="3">
         <v>46040</v>
       </c>
-      <c r="C51" s="57" t="s">
+      <c r="C51" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="60"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="51" t="s">
@@ -4601,20 +4614,20 @@
       <c r="B58" s="3">
         <v>46047</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C58" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="58"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="60"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="51" t="s">
@@ -4623,20 +4636,20 @@
       <c r="B59" s="3">
         <v>46048</v>
       </c>
-      <c r="C59" s="54" t="s">
+      <c r="C59" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="55"/>
-      <c r="M59" s="55"/>
-      <c r="N59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="57"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="51" t="s">
@@ -4841,20 +4854,20 @@
       <c r="B65" s="3">
         <v>46054</v>
       </c>
-      <c r="C65" s="57" t="s">
+      <c r="C65" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="60"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="51" t="s">
@@ -5007,20 +5020,20 @@
       <c r="B72" s="3">
         <v>46061</v>
       </c>
-      <c r="C72" s="57" t="s">
+      <c r="C72" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="58"/>
-      <c r="L72" s="58"/>
-      <c r="M72" s="58"/>
-      <c r="N72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="60"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="51" t="s">
@@ -5149,20 +5162,20 @@
       <c r="B79" s="3">
         <v>46068</v>
       </c>
-      <c r="C79" s="57" t="s">
+      <c r="C79" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="58"/>
-      <c r="M79" s="58"/>
-      <c r="N79" s="59"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="59"/>
+      <c r="L79" s="59"/>
+      <c r="M79" s="59"/>
+      <c r="N79" s="60"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="51" t="s">
@@ -5291,20 +5304,20 @@
       <c r="B86" s="3">
         <v>46075</v>
       </c>
-      <c r="C86" s="57" t="s">
+      <c r="C86" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="58"/>
-      <c r="K86" s="58"/>
-      <c r="L86" s="58"/>
-      <c r="M86" s="58"/>
-      <c r="N86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="59"/>
+      <c r="M86" s="59"/>
+      <c r="N86" s="60"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="51" t="s">
@@ -5433,20 +5446,20 @@
       <c r="B93" s="3">
         <v>46082</v>
       </c>
-      <c r="C93" s="57" t="s">
+      <c r="C93" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="58"/>
-      <c r="L93" s="58"/>
-      <c r="M93" s="58"/>
-      <c r="N93" s="59"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="59"/>
+      <c r="H93" s="59"/>
+      <c r="I93" s="59"/>
+      <c r="J93" s="59"/>
+      <c r="K93" s="59"/>
+      <c r="L93" s="59"/>
+      <c r="M93" s="59"/>
+      <c r="N93" s="60"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="51" t="s">
@@ -5475,20 +5488,20 @@
       <c r="B95" s="3">
         <v>46084</v>
       </c>
-      <c r="C95" s="54" t="s">
+      <c r="C95" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="D95" s="55"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="55"/>
-      <c r="H95" s="55"/>
-      <c r="I95" s="55"/>
-      <c r="J95" s="55"/>
-      <c r="K95" s="55"/>
-      <c r="L95" s="55"/>
-      <c r="M95" s="55"/>
-      <c r="N95" s="56"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="56"/>
+      <c r="J95" s="56"/>
+      <c r="K95" s="56"/>
+      <c r="L95" s="56"/>
+      <c r="M95" s="56"/>
+      <c r="N95" s="57"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="51" t="s">
@@ -5577,20 +5590,20 @@
       <c r="B100" s="3">
         <v>46089</v>
       </c>
-      <c r="C100" s="57" t="s">
+      <c r="C100" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="58"/>
-      <c r="L100" s="58"/>
-      <c r="M100" s="58"/>
-      <c r="N100" s="59"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="59"/>
+      <c r="K100" s="59"/>
+      <c r="L100" s="59"/>
+      <c r="M100" s="59"/>
+      <c r="N100" s="60"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="51" t="s">
@@ -5719,20 +5732,20 @@
       <c r="B107" s="3">
         <v>46096</v>
       </c>
-      <c r="C107" s="57" t="s">
+      <c r="C107" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D107" s="58"/>
-      <c r="E107" s="58"/>
-      <c r="F107" s="58"/>
-      <c r="G107" s="58"/>
-      <c r="H107" s="58"/>
-      <c r="I107" s="58"/>
-      <c r="J107" s="58"/>
-      <c r="K107" s="58"/>
-      <c r="L107" s="58"/>
-      <c r="M107" s="58"/>
-      <c r="N107" s="59"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="59"/>
+      <c r="K107" s="59"/>
+      <c r="L107" s="59"/>
+      <c r="M107" s="59"/>
+      <c r="N107" s="60"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="51" t="s">
@@ -5801,20 +5814,20 @@
       <c r="B111" s="3">
         <v>46100</v>
       </c>
-      <c r="C111" s="54" t="s">
+      <c r="C111" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="D111" s="55"/>
-      <c r="E111" s="55"/>
-      <c r="F111" s="55"/>
-      <c r="G111" s="55"/>
-      <c r="H111" s="55"/>
-      <c r="I111" s="55"/>
-      <c r="J111" s="55"/>
-      <c r="K111" s="55"/>
-      <c r="L111" s="55"/>
-      <c r="M111" s="55"/>
-      <c r="N111" s="56"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="56"/>
+      <c r="F111" s="56"/>
+      <c r="G111" s="56"/>
+      <c r="H111" s="56"/>
+      <c r="I111" s="56"/>
+      <c r="J111" s="56"/>
+      <c r="K111" s="56"/>
+      <c r="L111" s="56"/>
+      <c r="M111" s="56"/>
+      <c r="N111" s="57"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="51" t="s">
@@ -5843,20 +5856,20 @@
       <c r="B113" s="3">
         <v>46102</v>
       </c>
-      <c r="C113" s="54" t="s">
+      <c r="C113" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="D113" s="55"/>
-      <c r="E113" s="55"/>
-      <c r="F113" s="55"/>
-      <c r="G113" s="55"/>
-      <c r="H113" s="55"/>
-      <c r="I113" s="55"/>
-      <c r="J113" s="55"/>
-      <c r="K113" s="55"/>
-      <c r="L113" s="55"/>
-      <c r="M113" s="55"/>
-      <c r="N113" s="56"/>
+      <c r="D113" s="56"/>
+      <c r="E113" s="56"/>
+      <c r="F113" s="56"/>
+      <c r="G113" s="56"/>
+      <c r="H113" s="56"/>
+      <c r="I113" s="56"/>
+      <c r="J113" s="56"/>
+      <c r="K113" s="56"/>
+      <c r="L113" s="56"/>
+      <c r="M113" s="56"/>
+      <c r="N113" s="57"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="51" t="s">
@@ -5865,20 +5878,20 @@
       <c r="B114" s="3">
         <v>46103</v>
       </c>
-      <c r="C114" s="57" t="s">
+      <c r="C114" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D114" s="58"/>
-      <c r="E114" s="58"/>
-      <c r="F114" s="58"/>
-      <c r="G114" s="58"/>
-      <c r="H114" s="58"/>
-      <c r="I114" s="58"/>
-      <c r="J114" s="58"/>
-      <c r="K114" s="58"/>
-      <c r="L114" s="58"/>
-      <c r="M114" s="58"/>
-      <c r="N114" s="59"/>
+      <c r="D114" s="59"/>
+      <c r="E114" s="59"/>
+      <c r="F114" s="59"/>
+      <c r="G114" s="59"/>
+      <c r="H114" s="59"/>
+      <c r="I114" s="59"/>
+      <c r="J114" s="59"/>
+      <c r="K114" s="59"/>
+      <c r="L114" s="59"/>
+      <c r="M114" s="59"/>
+      <c r="N114" s="60"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="51" t="s">
@@ -5967,20 +5980,20 @@
       <c r="B119" s="3">
         <v>46108</v>
       </c>
-      <c r="C119" s="54" t="s">
+      <c r="C119" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="D119" s="55"/>
-      <c r="E119" s="55"/>
-      <c r="F119" s="55"/>
-      <c r="G119" s="55"/>
-      <c r="H119" s="55"/>
-      <c r="I119" s="55"/>
-      <c r="J119" s="55"/>
-      <c r="K119" s="55"/>
-      <c r="L119" s="55"/>
-      <c r="M119" s="55"/>
-      <c r="N119" s="56"/>
+      <c r="D119" s="56"/>
+      <c r="E119" s="56"/>
+      <c r="F119" s="56"/>
+      <c r="G119" s="56"/>
+      <c r="H119" s="56"/>
+      <c r="I119" s="56"/>
+      <c r="J119" s="56"/>
+      <c r="K119" s="56"/>
+      <c r="L119" s="56"/>
+      <c r="M119" s="56"/>
+      <c r="N119" s="57"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="51" t="s">
@@ -6009,20 +6022,20 @@
       <c r="B121" s="3">
         <v>46110</v>
       </c>
-      <c r="C121" s="57" t="s">
+      <c r="C121" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D121" s="58"/>
-      <c r="E121" s="58"/>
-      <c r="F121" s="58"/>
-      <c r="G121" s="58"/>
-      <c r="H121" s="58"/>
-      <c r="I121" s="58"/>
-      <c r="J121" s="58"/>
-      <c r="K121" s="58"/>
-      <c r="L121" s="58"/>
-      <c r="M121" s="58"/>
-      <c r="N121" s="59"/>
+      <c r="D121" s="59"/>
+      <c r="E121" s="59"/>
+      <c r="F121" s="59"/>
+      <c r="G121" s="59"/>
+      <c r="H121" s="59"/>
+      <c r="I121" s="59"/>
+      <c r="J121" s="59"/>
+      <c r="K121" s="59"/>
+      <c r="L121" s="59"/>
+      <c r="M121" s="59"/>
+      <c r="N121" s="60"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="51" t="s">
@@ -6113,21 +6126,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
@@ -6315,20 +6328,20 @@
       <c r="B9" s="3">
         <v>45851</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="60"/>
       <c r="R9" s="17"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.35">
@@ -6457,40 +6470,40 @@
       <c r="B16" s="3">
         <v>45858</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="60"/>
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>45859</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="88"/>
       <c r="R17" s="17"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.35">
@@ -6593,20 +6606,20 @@
       <c r="B23" s="3">
         <v>45865</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="60"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
@@ -6728,20 +6741,20 @@
       <c r="B30" s="3">
         <v>45872</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="60"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
@@ -6860,20 +6873,20 @@
       <c r="B37" s="3">
         <v>45879</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="60"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
@@ -6953,58 +6966,58 @@
       <c r="B42" s="3">
         <v>45884</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="88"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>45885</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="88"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>45886</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="60"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
@@ -7120,20 +7133,20 @@
       <c r="B51" s="3">
         <v>45893</v>
       </c>
-      <c r="C51" s="57" t="s">
+      <c r="C51" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="60"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
@@ -7178,20 +7191,20 @@
       <c r="B54" s="3">
         <v>45896</v>
       </c>
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="86"/>
-      <c r="I54" s="86"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="86"/>
-      <c r="L54" s="86"/>
-      <c r="M54" s="86"/>
-      <c r="N54" s="87"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="87"/>
+      <c r="L54" s="87"/>
+      <c r="M54" s="87"/>
+      <c r="N54" s="88"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
@@ -7255,73 +7268,73 @@
       <c r="B58" s="3">
         <v>45900</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C58" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="58"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="60"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B59" s="38">
         <v>45901</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C59" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="72"/>
+      <c r="N59" s="73"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B60" s="38">
         <v>45902</v>
       </c>
-      <c r="C60" s="73"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="74"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="74"/>
-      <c r="M60" s="74"/>
-      <c r="N60" s="75"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="75"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="75"/>
+      <c r="N60" s="76"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B61" s="38">
         <v>45903</v>
       </c>
-      <c r="C61" s="76"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="77"/>
-      <c r="J61" s="77"/>
-      <c r="K61" s="77"/>
-      <c r="L61" s="77"/>
-      <c r="M61" s="77"/>
-      <c r="N61" s="78"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="78"/>
+      <c r="K61" s="78"/>
+      <c r="L61" s="78"/>
+      <c r="M61" s="78"/>
+      <c r="N61" s="79"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
@@ -7346,56 +7359,56 @@
       <c r="B63" s="3">
         <v>45905</v>
       </c>
-      <c r="C63" s="79" t="s">
+      <c r="C63" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
-      <c r="J63" s="80"/>
-      <c r="K63" s="80"/>
-      <c r="L63" s="80"/>
-      <c r="M63" s="80"/>
-      <c r="N63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="81"/>
+      <c r="J63" s="81"/>
+      <c r="K63" s="81"/>
+      <c r="L63" s="81"/>
+      <c r="M63" s="81"/>
+      <c r="N63" s="82"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>45906</v>
       </c>
-      <c r="C64" s="82"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="83"/>
-      <c r="L64" s="83"/>
-      <c r="M64" s="83"/>
-      <c r="N64" s="84"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="84"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="85"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>45907</v>
       </c>
-      <c r="C65" s="57" t="s">
+      <c r="C65" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="60"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
@@ -7514,20 +7527,20 @@
       <c r="B72" s="3">
         <v>45914</v>
       </c>
-      <c r="C72" s="57" t="s">
+      <c r="C72" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="58"/>
-      <c r="L72" s="58"/>
-      <c r="M72" s="58"/>
-      <c r="N72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="60"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
@@ -7645,20 +7658,20 @@
       <c r="B79" s="3">
         <v>45921</v>
       </c>
-      <c r="C79" s="57" t="s">
+      <c r="C79" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="58"/>
-      <c r="M79" s="58"/>
-      <c r="N79" s="59"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="59"/>
+      <c r="L79" s="59"/>
+      <c r="M79" s="59"/>
+      <c r="N79" s="60"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B80" s="3">
@@ -7774,143 +7787,143 @@
       <c r="B86" s="3">
         <v>45928</v>
       </c>
-      <c r="C86" s="57" t="s">
+      <c r="C86" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="58"/>
-      <c r="K86" s="58"/>
-      <c r="L86" s="58"/>
-      <c r="M86" s="58"/>
-      <c r="N86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="59"/>
+      <c r="M86" s="59"/>
+      <c r="N86" s="60"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B87" s="3">
         <v>45929</v>
       </c>
-      <c r="C87" s="79" t="s">
+      <c r="C87" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="80"/>
-      <c r="G87" s="80"/>
-      <c r="H87" s="80"/>
-      <c r="I87" s="80"/>
-      <c r="J87" s="80"/>
-      <c r="K87" s="80"/>
-      <c r="L87" s="80"/>
-      <c r="M87" s="80"/>
-      <c r="N87" s="81"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="H87" s="81"/>
+      <c r="I87" s="81"/>
+      <c r="J87" s="81"/>
+      <c r="K87" s="81"/>
+      <c r="L87" s="81"/>
+      <c r="M87" s="81"/>
+      <c r="N87" s="82"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B88" s="3">
         <v>45930</v>
       </c>
-      <c r="C88" s="88"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="89"/>
-      <c r="F88" s="89"/>
-      <c r="G88" s="89"/>
-      <c r="H88" s="89"/>
-      <c r="I88" s="89"/>
-      <c r="J88" s="89"/>
-      <c r="K88" s="89"/>
-      <c r="L88" s="89"/>
-      <c r="M88" s="89"/>
-      <c r="N88" s="90"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="90"/>
+      <c r="E88" s="90"/>
+      <c r="F88" s="90"/>
+      <c r="G88" s="90"/>
+      <c r="H88" s="90"/>
+      <c r="I88" s="90"/>
+      <c r="J88" s="90"/>
+      <c r="K88" s="90"/>
+      <c r="L88" s="90"/>
+      <c r="M88" s="90"/>
+      <c r="N88" s="91"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B89" s="3">
         <v>45931</v>
       </c>
-      <c r="C89" s="88"/>
-      <c r="D89" s="89"/>
-      <c r="E89" s="89"/>
-      <c r="F89" s="89"/>
-      <c r="G89" s="89"/>
-      <c r="H89" s="89"/>
-      <c r="I89" s="89"/>
-      <c r="J89" s="89"/>
-      <c r="K89" s="89"/>
-      <c r="L89" s="89"/>
-      <c r="M89" s="89"/>
-      <c r="N89" s="90"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="90"/>
+      <c r="E89" s="90"/>
+      <c r="F89" s="90"/>
+      <c r="G89" s="90"/>
+      <c r="H89" s="90"/>
+      <c r="I89" s="90"/>
+      <c r="J89" s="90"/>
+      <c r="K89" s="90"/>
+      <c r="L89" s="90"/>
+      <c r="M89" s="90"/>
+      <c r="N89" s="91"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B90" s="3">
         <v>45932</v>
       </c>
-      <c r="C90" s="88"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="89"/>
-      <c r="H90" s="89"/>
-      <c r="I90" s="89"/>
-      <c r="J90" s="89"/>
-      <c r="K90" s="89"/>
-      <c r="L90" s="89"/>
-      <c r="M90" s="89"/>
-      <c r="N90" s="90"/>
+      <c r="C90" s="89"/>
+      <c r="D90" s="90"/>
+      <c r="E90" s="90"/>
+      <c r="F90" s="90"/>
+      <c r="G90" s="90"/>
+      <c r="H90" s="90"/>
+      <c r="I90" s="90"/>
+      <c r="J90" s="90"/>
+      <c r="K90" s="90"/>
+      <c r="L90" s="90"/>
+      <c r="M90" s="90"/>
+      <c r="N90" s="91"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B91" s="3">
         <v>45933</v>
       </c>
-      <c r="C91" s="88"/>
-      <c r="D91" s="89"/>
-      <c r="E91" s="89"/>
-      <c r="F91" s="89"/>
-      <c r="G91" s="89"/>
-      <c r="H91" s="89"/>
-      <c r="I91" s="89"/>
-      <c r="J91" s="89"/>
-      <c r="K91" s="89"/>
-      <c r="L91" s="89"/>
-      <c r="M91" s="89"/>
-      <c r="N91" s="90"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="90"/>
+      <c r="F91" s="90"/>
+      <c r="G91" s="90"/>
+      <c r="H91" s="90"/>
+      <c r="I91" s="90"/>
+      <c r="J91" s="90"/>
+      <c r="K91" s="90"/>
+      <c r="L91" s="90"/>
+      <c r="M91" s="90"/>
+      <c r="N91" s="91"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <v>45934</v>
       </c>
-      <c r="C92" s="82"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="83"/>
-      <c r="H92" s="83"/>
-      <c r="I92" s="83"/>
-      <c r="J92" s="83"/>
-      <c r="K92" s="83"/>
-      <c r="L92" s="83"/>
-      <c r="M92" s="83"/>
-      <c r="N92" s="84"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="84"/>
+      <c r="F92" s="84"/>
+      <c r="G92" s="84"/>
+      <c r="H92" s="84"/>
+      <c r="I92" s="84"/>
+      <c r="J92" s="84"/>
+      <c r="K92" s="84"/>
+      <c r="L92" s="84"/>
+      <c r="M92" s="84"/>
+      <c r="N92" s="85"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B93" s="3">
         <v>45935</v>
       </c>
-      <c r="C93" s="57" t="s">
+      <c r="C93" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="58"/>
-      <c r="L93" s="58"/>
-      <c r="M93" s="58"/>
-      <c r="N93" s="59"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="59"/>
+      <c r="H93" s="59"/>
+      <c r="I93" s="59"/>
+      <c r="J93" s="59"/>
+      <c r="K93" s="59"/>
+      <c r="L93" s="59"/>
+      <c r="M93" s="59"/>
+      <c r="N93" s="60"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B94" s="3">
@@ -8026,20 +8039,20 @@
       <c r="B100" s="3">
         <v>45942</v>
       </c>
-      <c r="C100" s="57" t="s">
+      <c r="C100" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="58"/>
-      <c r="L100" s="58"/>
-      <c r="M100" s="58"/>
-      <c r="N100" s="59"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="59"/>
+      <c r="K100" s="59"/>
+      <c r="L100" s="59"/>
+      <c r="M100" s="59"/>
+      <c r="N100" s="60"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B101" s="3">
@@ -8138,58 +8151,58 @@
       <c r="B106" s="3">
         <v>45948</v>
       </c>
-      <c r="C106" s="85" t="s">
+      <c r="C106" s="86" t="s">
         <v>196</v>
       </c>
-      <c r="D106" s="86"/>
-      <c r="E106" s="86"/>
-      <c r="F106" s="86"/>
-      <c r="G106" s="86"/>
-      <c r="H106" s="86"/>
-      <c r="I106" s="86"/>
-      <c r="J106" s="86"/>
-      <c r="K106" s="86"/>
-      <c r="L106" s="86"/>
-      <c r="M106" s="86"/>
-      <c r="N106" s="87"/>
+      <c r="D106" s="87"/>
+      <c r="E106" s="87"/>
+      <c r="F106" s="87"/>
+      <c r="G106" s="87"/>
+      <c r="H106" s="87"/>
+      <c r="I106" s="87"/>
+      <c r="J106" s="87"/>
+      <c r="K106" s="87"/>
+      <c r="L106" s="87"/>
+      <c r="M106" s="87"/>
+      <c r="N106" s="88"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B107" s="3">
         <v>45949</v>
       </c>
-      <c r="C107" s="57" t="s">
+      <c r="C107" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="58"/>
-      <c r="E107" s="58"/>
-      <c r="F107" s="58"/>
-      <c r="G107" s="58"/>
-      <c r="H107" s="58"/>
-      <c r="I107" s="58"/>
-      <c r="J107" s="58"/>
-      <c r="K107" s="58"/>
-      <c r="L107" s="58"/>
-      <c r="M107" s="58"/>
-      <c r="N107" s="59"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="59"/>
+      <c r="K107" s="59"/>
+      <c r="L107" s="59"/>
+      <c r="M107" s="59"/>
+      <c r="N107" s="60"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B108" s="3">
         <v>45950</v>
       </c>
-      <c r="C108" s="85" t="s">
+      <c r="C108" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="86"/>
-      <c r="E108" s="86"/>
-      <c r="F108" s="86"/>
-      <c r="G108" s="86"/>
-      <c r="H108" s="86"/>
-      <c r="I108" s="86"/>
-      <c r="J108" s="86"/>
-      <c r="K108" s="86"/>
-      <c r="L108" s="86"/>
-      <c r="M108" s="86"/>
-      <c r="N108" s="87"/>
+      <c r="D108" s="87"/>
+      <c r="E108" s="87"/>
+      <c r="F108" s="87"/>
+      <c r="G108" s="87"/>
+      <c r="H108" s="87"/>
+      <c r="I108" s="87"/>
+      <c r="J108" s="87"/>
+      <c r="K108" s="87"/>
+      <c r="L108" s="87"/>
+      <c r="M108" s="87"/>
+      <c r="N108" s="88"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B109" s="3">
@@ -8288,20 +8301,20 @@
       <c r="B114" s="3">
         <v>45956</v>
       </c>
-      <c r="C114" s="57" t="s">
+      <c r="C114" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="58"/>
-      <c r="E114" s="58"/>
-      <c r="F114" s="58"/>
-      <c r="G114" s="58"/>
-      <c r="H114" s="58"/>
-      <c r="I114" s="58"/>
-      <c r="J114" s="58"/>
-      <c r="K114" s="58"/>
-      <c r="L114" s="58"/>
-      <c r="M114" s="58"/>
-      <c r="N114" s="59"/>
+      <c r="D114" s="59"/>
+      <c r="E114" s="59"/>
+      <c r="F114" s="59"/>
+      <c r="G114" s="59"/>
+      <c r="H114" s="59"/>
+      <c r="I114" s="59"/>
+      <c r="J114" s="59"/>
+      <c r="K114" s="59"/>
+      <c r="L114" s="59"/>
+      <c r="M114" s="59"/>
+      <c r="N114" s="60"/>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B115" s="3">
@@ -8420,20 +8433,20 @@
       <c r="B121" s="3">
         <v>45963</v>
       </c>
-      <c r="C121" s="57" t="s">
+      <c r="C121" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="58"/>
-      <c r="E121" s="58"/>
-      <c r="F121" s="58"/>
-      <c r="G121" s="58"/>
-      <c r="H121" s="58"/>
-      <c r="I121" s="58"/>
-      <c r="J121" s="58"/>
-      <c r="K121" s="58"/>
-      <c r="L121" s="58"/>
-      <c r="M121" s="58"/>
-      <c r="N121" s="59"/>
+      <c r="D121" s="59"/>
+      <c r="E121" s="59"/>
+      <c r="F121" s="59"/>
+      <c r="G121" s="59"/>
+      <c r="H121" s="59"/>
+      <c r="I121" s="59"/>
+      <c r="J121" s="59"/>
+      <c r="K121" s="59"/>
+      <c r="L121" s="59"/>
+      <c r="M121" s="59"/>
+      <c r="N121" s="60"/>
       <c r="O121" t="s">
         <v>199</v>
       </c>
@@ -8484,20 +8497,20 @@
       <c r="B124" s="3">
         <v>45966</v>
       </c>
-      <c r="C124" s="85" t="s">
+      <c r="C124" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="86"/>
-      <c r="E124" s="86"/>
-      <c r="F124" s="86"/>
-      <c r="G124" s="86"/>
-      <c r="H124" s="86"/>
-      <c r="I124" s="86"/>
-      <c r="J124" s="86"/>
-      <c r="K124" s="86"/>
-      <c r="L124" s="86"/>
-      <c r="M124" s="86"/>
-      <c r="N124" s="87"/>
+      <c r="D124" s="87"/>
+      <c r="E124" s="87"/>
+      <c r="F124" s="87"/>
+      <c r="G124" s="87"/>
+      <c r="H124" s="87"/>
+      <c r="I124" s="87"/>
+      <c r="J124" s="87"/>
+      <c r="K124" s="87"/>
+      <c r="L124" s="87"/>
+      <c r="M124" s="87"/>
+      <c r="N124" s="88"/>
       <c r="O124" t="s">
         <v>199</v>
       </c>

--- a/CDC WORK 2025 - 2026 dec.xlsx
+++ b/CDC WORK 2025 - 2026 dec.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="312">
   <si>
     <t xml:space="preserve">DBMS TRAINING SCHEDULE IN CDC </t>
   </si>
@@ -968,6 +968,21 @@
   </si>
   <si>
     <t>branch wise count</t>
+  </si>
+  <si>
+    <t>Employee _webapp through Maven</t>
+  </si>
+  <si>
+    <t>WebappDemo,Employee _webapp through Maven</t>
+  </si>
+  <si>
+    <t>Student_JDBC through maven,WebappDemo</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Student _webapp through Maven</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1020,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,6 +1144,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,7 +1323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1426,15 +1447,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1442,9 +1454,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1474,6 +1483,54 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1501,41 +1558,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1948,7 +1972,7 @@
   <dimension ref="C4:J19"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3397,8 +3421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3412,21 +3436,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B2" s="49" t="s">
@@ -3594,20 +3618,20 @@
       <c r="B9" s="3">
         <v>45998</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="60"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="51" t="s">
@@ -3748,20 +3772,20 @@
       <c r="B16" s="3">
         <v>46005</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="60"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="51" t="s">
@@ -3796,7 +3820,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -3838,7 +3862,9 @@
       <c r="B20" s="3">
         <v>46009</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>308</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -3859,7 +3885,9 @@
         <v>46010</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3898,20 +3926,20 @@
       <c r="B23" s="3">
         <v>46012</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="51" t="s">
@@ -3920,7 +3948,9 @@
       <c r="B24" s="3">
         <v>46013</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -3941,7 +3971,9 @@
         <v>46014</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -3962,7 +3994,9 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="92" t="s">
+        <v>310</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -3980,20 +4014,20 @@
       <c r="B27" s="3">
         <v>46016</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="57"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="69"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="51" t="s">
@@ -4002,20 +4036,20 @@
       <c r="B28" s="3">
         <v>46017</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="57"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="69"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="51" t="s">
@@ -4026,7 +4060,9 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="92" t="s">
+        <v>310</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -4044,20 +4080,20 @@
       <c r="B30" s="3">
         <v>46019</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="60"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="57"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="51" t="s">
@@ -4186,20 +4222,20 @@
       <c r="B37" s="3">
         <v>46026</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="60"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="57"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="51" t="s">
@@ -4328,20 +4364,20 @@
       <c r="B44" s="3">
         <v>46033</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="60"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="57"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="51" t="s">
@@ -4350,20 +4386,20 @@
       <c r="B45" s="3">
         <v>46034</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="63"/>
-      <c r="N45" s="64"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="60"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="51" t="s">
@@ -4372,18 +4408,18 @@
       <c r="B46" s="3">
         <v>46035</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="66"/>
-      <c r="M46" s="66"/>
-      <c r="N46" s="67"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="63"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="51" t="s">
@@ -4392,18 +4428,18 @@
       <c r="B47" s="3">
         <v>46036</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="67"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="63"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="51" t="s">
@@ -4412,18 +4448,18 @@
       <c r="B48" s="3">
         <v>46037</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="67"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="63"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="51" t="s">
@@ -4432,18 +4468,18 @@
       <c r="B49" s="3">
         <v>46038</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="66"/>
-      <c r="N49" s="67"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="63"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="51" t="s">
@@ -4452,18 +4488,18 @@
       <c r="B50" s="3">
         <v>46039</v>
       </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="69"/>
-      <c r="N50" s="70"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="66"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="51" t="s">
@@ -4472,20 +4508,20 @@
       <c r="B51" s="3">
         <v>46040</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="60"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="57"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="51" t="s">
@@ -4614,20 +4650,20 @@
       <c r="B58" s="3">
         <v>46047</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="C58" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="60"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="57"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="51" t="s">
@@ -4636,20 +4672,20 @@
       <c r="B59" s="3">
         <v>46048</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="56"/>
-      <c r="N59" s="57"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="69"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="51" t="s">
@@ -4854,20 +4890,20 @@
       <c r="B65" s="3">
         <v>46054</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="60"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="57"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="51" t="s">
@@ -5020,20 +5056,20 @@
       <c r="B72" s="3">
         <v>46061</v>
       </c>
-      <c r="C72" s="58" t="s">
+      <c r="C72" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="59"/>
-      <c r="N72" s="60"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="57"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="51" t="s">
@@ -5162,20 +5198,20 @@
       <c r="B79" s="3">
         <v>46068</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D79" s="59"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
-      <c r="N79" s="60"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="57"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="51" t="s">
@@ -5304,20 +5340,20 @@
       <c r="B86" s="3">
         <v>46075</v>
       </c>
-      <c r="C86" s="58" t="s">
+      <c r="C86" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="59"/>
-      <c r="L86" s="59"/>
-      <c r="M86" s="59"/>
-      <c r="N86" s="60"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="57"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="51" t="s">
@@ -5446,20 +5482,20 @@
       <c r="B93" s="3">
         <v>46082</v>
       </c>
-      <c r="C93" s="58" t="s">
+      <c r="C93" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D93" s="59"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
-      <c r="G93" s="59"/>
-      <c r="H93" s="59"/>
-      <c r="I93" s="59"/>
-      <c r="J93" s="59"/>
-      <c r="K93" s="59"/>
-      <c r="L93" s="59"/>
-      <c r="M93" s="59"/>
-      <c r="N93" s="60"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="56"/>
+      <c r="K93" s="56"/>
+      <c r="L93" s="56"/>
+      <c r="M93" s="56"/>
+      <c r="N93" s="57"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="51" t="s">
@@ -5488,20 +5524,20 @@
       <c r="B95" s="3">
         <v>46084</v>
       </c>
-      <c r="C95" s="55" t="s">
+      <c r="C95" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="D95" s="56"/>
-      <c r="E95" s="56"/>
-      <c r="F95" s="56"/>
-      <c r="G95" s="56"/>
-      <c r="H95" s="56"/>
-      <c r="I95" s="56"/>
-      <c r="J95" s="56"/>
-      <c r="K95" s="56"/>
-      <c r="L95" s="56"/>
-      <c r="M95" s="56"/>
-      <c r="N95" s="57"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="68"/>
+      <c r="H95" s="68"/>
+      <c r="I95" s="68"/>
+      <c r="J95" s="68"/>
+      <c r="K95" s="68"/>
+      <c r="L95" s="68"/>
+      <c r="M95" s="68"/>
+      <c r="N95" s="69"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="51" t="s">
@@ -5590,20 +5626,20 @@
       <c r="B100" s="3">
         <v>46089</v>
       </c>
-      <c r="C100" s="58" t="s">
+      <c r="C100" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D100" s="59"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="59"/>
-      <c r="G100" s="59"/>
-      <c r="H100" s="59"/>
-      <c r="I100" s="59"/>
-      <c r="J100" s="59"/>
-      <c r="K100" s="59"/>
-      <c r="L100" s="59"/>
-      <c r="M100" s="59"/>
-      <c r="N100" s="60"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="56"/>
+      <c r="J100" s="56"/>
+      <c r="K100" s="56"/>
+      <c r="L100" s="56"/>
+      <c r="M100" s="56"/>
+      <c r="N100" s="57"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="51" t="s">
@@ -5732,20 +5768,20 @@
       <c r="B107" s="3">
         <v>46096</v>
       </c>
-      <c r="C107" s="58" t="s">
+      <c r="C107" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D107" s="59"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="59"/>
-      <c r="I107" s="59"/>
-      <c r="J107" s="59"/>
-      <c r="K107" s="59"/>
-      <c r="L107" s="59"/>
-      <c r="M107" s="59"/>
-      <c r="N107" s="60"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="56"/>
+      <c r="I107" s="56"/>
+      <c r="J107" s="56"/>
+      <c r="K107" s="56"/>
+      <c r="L107" s="56"/>
+      <c r="M107" s="56"/>
+      <c r="N107" s="57"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="51" t="s">
@@ -5814,20 +5850,20 @@
       <c r="B111" s="3">
         <v>46100</v>
       </c>
-      <c r="C111" s="55" t="s">
+      <c r="C111" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="D111" s="56"/>
-      <c r="E111" s="56"/>
-      <c r="F111" s="56"/>
-      <c r="G111" s="56"/>
-      <c r="H111" s="56"/>
-      <c r="I111" s="56"/>
-      <c r="J111" s="56"/>
-      <c r="K111" s="56"/>
-      <c r="L111" s="56"/>
-      <c r="M111" s="56"/>
-      <c r="N111" s="57"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="68"/>
+      <c r="H111" s="68"/>
+      <c r="I111" s="68"/>
+      <c r="J111" s="68"/>
+      <c r="K111" s="68"/>
+      <c r="L111" s="68"/>
+      <c r="M111" s="68"/>
+      <c r="N111" s="69"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="51" t="s">
@@ -5856,20 +5892,20 @@
       <c r="B113" s="3">
         <v>46102</v>
       </c>
-      <c r="C113" s="55" t="s">
+      <c r="C113" s="67" t="s">
         <v>301</v>
       </c>
-      <c r="D113" s="56"/>
-      <c r="E113" s="56"/>
-      <c r="F113" s="56"/>
-      <c r="G113" s="56"/>
-      <c r="H113" s="56"/>
-      <c r="I113" s="56"/>
-      <c r="J113" s="56"/>
-      <c r="K113" s="56"/>
-      <c r="L113" s="56"/>
-      <c r="M113" s="56"/>
-      <c r="N113" s="57"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="68"/>
+      <c r="H113" s="68"/>
+      <c r="I113" s="68"/>
+      <c r="J113" s="68"/>
+      <c r="K113" s="68"/>
+      <c r="L113" s="68"/>
+      <c r="M113" s="68"/>
+      <c r="N113" s="69"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="51" t="s">
@@ -5878,20 +5914,20 @@
       <c r="B114" s="3">
         <v>46103</v>
       </c>
-      <c r="C114" s="58" t="s">
+      <c r="C114" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D114" s="59"/>
-      <c r="E114" s="59"/>
-      <c r="F114" s="59"/>
-      <c r="G114" s="59"/>
-      <c r="H114" s="59"/>
-      <c r="I114" s="59"/>
-      <c r="J114" s="59"/>
-      <c r="K114" s="59"/>
-      <c r="L114" s="59"/>
-      <c r="M114" s="59"/>
-      <c r="N114" s="60"/>
+      <c r="D114" s="56"/>
+      <c r="E114" s="56"/>
+      <c r="F114" s="56"/>
+      <c r="G114" s="56"/>
+      <c r="H114" s="56"/>
+      <c r="I114" s="56"/>
+      <c r="J114" s="56"/>
+      <c r="K114" s="56"/>
+      <c r="L114" s="56"/>
+      <c r="M114" s="56"/>
+      <c r="N114" s="57"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="51" t="s">
@@ -5980,20 +6016,20 @@
       <c r="B119" s="3">
         <v>46108</v>
       </c>
-      <c r="C119" s="55" t="s">
+      <c r="C119" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="D119" s="56"/>
-      <c r="E119" s="56"/>
-      <c r="F119" s="56"/>
-      <c r="G119" s="56"/>
-      <c r="H119" s="56"/>
-      <c r="I119" s="56"/>
-      <c r="J119" s="56"/>
-      <c r="K119" s="56"/>
-      <c r="L119" s="56"/>
-      <c r="M119" s="56"/>
-      <c r="N119" s="57"/>
+      <c r="D119" s="68"/>
+      <c r="E119" s="68"/>
+      <c r="F119" s="68"/>
+      <c r="G119" s="68"/>
+      <c r="H119" s="68"/>
+      <c r="I119" s="68"/>
+      <c r="J119" s="68"/>
+      <c r="K119" s="68"/>
+      <c r="L119" s="68"/>
+      <c r="M119" s="68"/>
+      <c r="N119" s="69"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="51" t="s">
@@ -6022,20 +6058,20 @@
       <c r="B121" s="3">
         <v>46110</v>
       </c>
-      <c r="C121" s="58" t="s">
+      <c r="C121" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D121" s="59"/>
-      <c r="E121" s="59"/>
-      <c r="F121" s="59"/>
-      <c r="G121" s="59"/>
-      <c r="H121" s="59"/>
-      <c r="I121" s="59"/>
-      <c r="J121" s="59"/>
-      <c r="K121" s="59"/>
-      <c r="L121" s="59"/>
-      <c r="M121" s="59"/>
-      <c r="N121" s="60"/>
+      <c r="D121" s="56"/>
+      <c r="E121" s="56"/>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
+      <c r="L121" s="56"/>
+      <c r="M121" s="56"/>
+      <c r="N121" s="57"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="51" t="s">
@@ -6059,6 +6095,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C113:N113"/>
+    <mergeCell ref="C119:N119"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C28:N28"/>
     <mergeCell ref="C121:N121"/>
     <mergeCell ref="C44:N44"/>
     <mergeCell ref="C51:N51"/>
@@ -6075,16 +6121,6 @@
     <mergeCell ref="C114:N114"/>
     <mergeCell ref="C95:N95"/>
     <mergeCell ref="C111:N111"/>
-    <mergeCell ref="C113:N113"/>
-    <mergeCell ref="C119:N119"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="C27:N27"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="C30:N30"/>
-    <mergeCell ref="C28:N28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6126,21 +6162,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
@@ -6328,20 +6364,20 @@
       <c r="B9" s="3">
         <v>45851</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="60"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="57"/>
       <c r="R9" s="17"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.35">
@@ -6470,40 +6506,40 @@
       <c r="B16" s="3">
         <v>45858</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="60"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>45859</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="88"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
       <c r="R17" s="17"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.35">
@@ -6606,20 +6642,20 @@
       <c r="B23" s="3">
         <v>45865</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
@@ -6741,20 +6777,20 @@
       <c r="B30" s="3">
         <v>45872</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="60"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="57"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
@@ -6873,20 +6909,20 @@
       <c r="B37" s="3">
         <v>45879</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="60"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="57"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
@@ -6966,58 +7002,58 @@
       <c r="B42" s="3">
         <v>45884</v>
       </c>
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="88"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="73"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>45885</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="88"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="73"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>45886</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="60"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="57"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
@@ -7133,20 +7169,20 @@
       <c r="B51" s="3">
         <v>45893</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="60"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="57"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
@@ -7191,20 +7227,20 @@
       <c r="B54" s="3">
         <v>45896</v>
       </c>
-      <c r="C54" s="86" t="s">
+      <c r="C54" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="87"/>
-      <c r="K54" s="87"/>
-      <c r="L54" s="87"/>
-      <c r="M54" s="87"/>
-      <c r="N54" s="88"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="73"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
@@ -7268,73 +7304,73 @@
       <c r="B58" s="3">
         <v>45900</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="C58" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="60"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="57"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B59" s="38">
         <v>45901</v>
       </c>
-      <c r="C59" s="71" t="s">
+      <c r="C59" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="72"/>
-      <c r="L59" s="72"/>
-      <c r="M59" s="72"/>
-      <c r="N59" s="73"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="85"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B60" s="38">
         <v>45902</v>
       </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="75"/>
-      <c r="K60" s="75"/>
-      <c r="L60" s="75"/>
-      <c r="M60" s="75"/>
-      <c r="N60" s="76"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="87"/>
+      <c r="I60" s="87"/>
+      <c r="J60" s="87"/>
+      <c r="K60" s="87"/>
+      <c r="L60" s="87"/>
+      <c r="M60" s="87"/>
+      <c r="N60" s="88"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B61" s="38">
         <v>45903</v>
       </c>
-      <c r="C61" s="77"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="79"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="90"/>
+      <c r="M61" s="90"/>
+      <c r="N61" s="91"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
@@ -7359,56 +7395,56 @@
       <c r="B63" s="3">
         <v>45905</v>
       </c>
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="81"/>
-      <c r="J63" s="81"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="81"/>
-      <c r="M63" s="81"/>
-      <c r="N63" s="82"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="76"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>45906</v>
       </c>
-      <c r="C64" s="83"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="84"/>
-      <c r="K64" s="84"/>
-      <c r="L64" s="84"/>
-      <c r="M64" s="84"/>
-      <c r="N64" s="85"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="81"/>
+      <c r="I64" s="81"/>
+      <c r="J64" s="81"/>
+      <c r="K64" s="81"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="82"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>45907</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="60"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="57"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
@@ -7527,20 +7563,20 @@
       <c r="B72" s="3">
         <v>45914</v>
       </c>
-      <c r="C72" s="58" t="s">
+      <c r="C72" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="59"/>
-      <c r="N72" s="60"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="57"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
@@ -7658,20 +7694,20 @@
       <c r="B79" s="3">
         <v>45921</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="59"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
-      <c r="N79" s="60"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="57"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B80" s="3">
@@ -7787,143 +7823,143 @@
       <c r="B86" s="3">
         <v>45928</v>
       </c>
-      <c r="C86" s="58" t="s">
+      <c r="C86" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="59"/>
-      <c r="L86" s="59"/>
-      <c r="M86" s="59"/>
-      <c r="N86" s="60"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="57"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B87" s="3">
         <v>45929</v>
       </c>
-      <c r="C87" s="80" t="s">
+      <c r="C87" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="81"/>
-      <c r="H87" s="81"/>
-      <c r="I87" s="81"/>
-      <c r="J87" s="81"/>
-      <c r="K87" s="81"/>
-      <c r="L87" s="81"/>
-      <c r="M87" s="81"/>
-      <c r="N87" s="82"/>
+      <c r="D87" s="75"/>
+      <c r="E87" s="75"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="75"/>
+      <c r="H87" s="75"/>
+      <c r="I87" s="75"/>
+      <c r="J87" s="75"/>
+      <c r="K87" s="75"/>
+      <c r="L87" s="75"/>
+      <c r="M87" s="75"/>
+      <c r="N87" s="76"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B88" s="3">
         <v>45930</v>
       </c>
-      <c r="C88" s="89"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="90"/>
-      <c r="F88" s="90"/>
-      <c r="G88" s="90"/>
-      <c r="H88" s="90"/>
-      <c r="I88" s="90"/>
-      <c r="J88" s="90"/>
-      <c r="K88" s="90"/>
-      <c r="L88" s="90"/>
-      <c r="M88" s="90"/>
-      <c r="N88" s="91"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="78"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="78"/>
+      <c r="H88" s="78"/>
+      <c r="I88" s="78"/>
+      <c r="J88" s="78"/>
+      <c r="K88" s="78"/>
+      <c r="L88" s="78"/>
+      <c r="M88" s="78"/>
+      <c r="N88" s="79"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B89" s="3">
         <v>45931</v>
       </c>
-      <c r="C89" s="89"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="90"/>
-      <c r="F89" s="90"/>
-      <c r="G89" s="90"/>
-      <c r="H89" s="90"/>
-      <c r="I89" s="90"/>
-      <c r="J89" s="90"/>
-      <c r="K89" s="90"/>
-      <c r="L89" s="90"/>
-      <c r="M89" s="90"/>
-      <c r="N89" s="91"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="78"/>
+      <c r="F89" s="78"/>
+      <c r="G89" s="78"/>
+      <c r="H89" s="78"/>
+      <c r="I89" s="78"/>
+      <c r="J89" s="78"/>
+      <c r="K89" s="78"/>
+      <c r="L89" s="78"/>
+      <c r="M89" s="78"/>
+      <c r="N89" s="79"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B90" s="3">
         <v>45932</v>
       </c>
-      <c r="C90" s="89"/>
-      <c r="D90" s="90"/>
-      <c r="E90" s="90"/>
-      <c r="F90" s="90"/>
-      <c r="G90" s="90"/>
-      <c r="H90" s="90"/>
-      <c r="I90" s="90"/>
-      <c r="J90" s="90"/>
-      <c r="K90" s="90"/>
-      <c r="L90" s="90"/>
-      <c r="M90" s="90"/>
-      <c r="N90" s="91"/>
+      <c r="C90" s="77"/>
+      <c r="D90" s="78"/>
+      <c r="E90" s="78"/>
+      <c r="F90" s="78"/>
+      <c r="G90" s="78"/>
+      <c r="H90" s="78"/>
+      <c r="I90" s="78"/>
+      <c r="J90" s="78"/>
+      <c r="K90" s="78"/>
+      <c r="L90" s="78"/>
+      <c r="M90" s="78"/>
+      <c r="N90" s="79"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B91" s="3">
         <v>45933</v>
       </c>
-      <c r="C91" s="89"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="90"/>
-      <c r="F91" s="90"/>
-      <c r="G91" s="90"/>
-      <c r="H91" s="90"/>
-      <c r="I91" s="90"/>
-      <c r="J91" s="90"/>
-      <c r="K91" s="90"/>
-      <c r="L91" s="90"/>
-      <c r="M91" s="90"/>
-      <c r="N91" s="91"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="78"/>
+      <c r="E91" s="78"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="78"/>
+      <c r="H91" s="78"/>
+      <c r="I91" s="78"/>
+      <c r="J91" s="78"/>
+      <c r="K91" s="78"/>
+      <c r="L91" s="78"/>
+      <c r="M91" s="78"/>
+      <c r="N91" s="79"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <v>45934</v>
       </c>
-      <c r="C92" s="83"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="84"/>
-      <c r="F92" s="84"/>
-      <c r="G92" s="84"/>
-      <c r="H92" s="84"/>
-      <c r="I92" s="84"/>
-      <c r="J92" s="84"/>
-      <c r="K92" s="84"/>
-      <c r="L92" s="84"/>
-      <c r="M92" s="84"/>
-      <c r="N92" s="85"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="81"/>
+      <c r="F92" s="81"/>
+      <c r="G92" s="81"/>
+      <c r="H92" s="81"/>
+      <c r="I92" s="81"/>
+      <c r="J92" s="81"/>
+      <c r="K92" s="81"/>
+      <c r="L92" s="81"/>
+      <c r="M92" s="81"/>
+      <c r="N92" s="82"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B93" s="3">
         <v>45935</v>
       </c>
-      <c r="C93" s="58" t="s">
+      <c r="C93" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="59"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
-      <c r="G93" s="59"/>
-      <c r="H93" s="59"/>
-      <c r="I93" s="59"/>
-      <c r="J93" s="59"/>
-      <c r="K93" s="59"/>
-      <c r="L93" s="59"/>
-      <c r="M93" s="59"/>
-      <c r="N93" s="60"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="56"/>
+      <c r="K93" s="56"/>
+      <c r="L93" s="56"/>
+      <c r="M93" s="56"/>
+      <c r="N93" s="57"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B94" s="3">
@@ -8039,20 +8075,20 @@
       <c r="B100" s="3">
         <v>45942</v>
       </c>
-      <c r="C100" s="58" t="s">
+      <c r="C100" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="59"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="59"/>
-      <c r="G100" s="59"/>
-      <c r="H100" s="59"/>
-      <c r="I100" s="59"/>
-      <c r="J100" s="59"/>
-      <c r="K100" s="59"/>
-      <c r="L100" s="59"/>
-      <c r="M100" s="59"/>
-      <c r="N100" s="60"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="56"/>
+      <c r="J100" s="56"/>
+      <c r="K100" s="56"/>
+      <c r="L100" s="56"/>
+      <c r="M100" s="56"/>
+      <c r="N100" s="57"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B101" s="3">
@@ -8151,58 +8187,58 @@
       <c r="B106" s="3">
         <v>45948</v>
       </c>
-      <c r="C106" s="86" t="s">
+      <c r="C106" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="D106" s="87"/>
-      <c r="E106" s="87"/>
-      <c r="F106" s="87"/>
-      <c r="G106" s="87"/>
-      <c r="H106" s="87"/>
-      <c r="I106" s="87"/>
-      <c r="J106" s="87"/>
-      <c r="K106" s="87"/>
-      <c r="L106" s="87"/>
-      <c r="M106" s="87"/>
-      <c r="N106" s="88"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="72"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="72"/>
+      <c r="K106" s="72"/>
+      <c r="L106" s="72"/>
+      <c r="M106" s="72"/>
+      <c r="N106" s="73"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B107" s="3">
         <v>45949</v>
       </c>
-      <c r="C107" s="58" t="s">
+      <c r="C107" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="59"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="59"/>
-      <c r="I107" s="59"/>
-      <c r="J107" s="59"/>
-      <c r="K107" s="59"/>
-      <c r="L107" s="59"/>
-      <c r="M107" s="59"/>
-      <c r="N107" s="60"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="56"/>
+      <c r="I107" s="56"/>
+      <c r="J107" s="56"/>
+      <c r="K107" s="56"/>
+      <c r="L107" s="56"/>
+      <c r="M107" s="56"/>
+      <c r="N107" s="57"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B108" s="3">
         <v>45950</v>
       </c>
-      <c r="C108" s="86" t="s">
+      <c r="C108" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="87"/>
-      <c r="E108" s="87"/>
-      <c r="F108" s="87"/>
-      <c r="G108" s="87"/>
-      <c r="H108" s="87"/>
-      <c r="I108" s="87"/>
-      <c r="J108" s="87"/>
-      <c r="K108" s="87"/>
-      <c r="L108" s="87"/>
-      <c r="M108" s="87"/>
-      <c r="N108" s="88"/>
+      <c r="D108" s="72"/>
+      <c r="E108" s="72"/>
+      <c r="F108" s="72"/>
+      <c r="G108" s="72"/>
+      <c r="H108" s="72"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="72"/>
+      <c r="K108" s="72"/>
+      <c r="L108" s="72"/>
+      <c r="M108" s="72"/>
+      <c r="N108" s="73"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B109" s="3">
@@ -8301,20 +8337,20 @@
       <c r="B114" s="3">
         <v>45956</v>
       </c>
-      <c r="C114" s="58" t="s">
+      <c r="C114" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="59"/>
-      <c r="E114" s="59"/>
-      <c r="F114" s="59"/>
-      <c r="G114" s="59"/>
-      <c r="H114" s="59"/>
-      <c r="I114" s="59"/>
-      <c r="J114" s="59"/>
-      <c r="K114" s="59"/>
-      <c r="L114" s="59"/>
-      <c r="M114" s="59"/>
-      <c r="N114" s="60"/>
+      <c r="D114" s="56"/>
+      <c r="E114" s="56"/>
+      <c r="F114" s="56"/>
+      <c r="G114" s="56"/>
+      <c r="H114" s="56"/>
+      <c r="I114" s="56"/>
+      <c r="J114" s="56"/>
+      <c r="K114" s="56"/>
+      <c r="L114" s="56"/>
+      <c r="M114" s="56"/>
+      <c r="N114" s="57"/>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B115" s="3">
@@ -8433,20 +8469,20 @@
       <c r="B121" s="3">
         <v>45963</v>
       </c>
-      <c r="C121" s="58" t="s">
+      <c r="C121" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="59"/>
-      <c r="E121" s="59"/>
-      <c r="F121" s="59"/>
-      <c r="G121" s="59"/>
-      <c r="H121" s="59"/>
-      <c r="I121" s="59"/>
-      <c r="J121" s="59"/>
-      <c r="K121" s="59"/>
-      <c r="L121" s="59"/>
-      <c r="M121" s="59"/>
-      <c r="N121" s="60"/>
+      <c r="D121" s="56"/>
+      <c r="E121" s="56"/>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
+      <c r="L121" s="56"/>
+      <c r="M121" s="56"/>
+      <c r="N121" s="57"/>
       <c r="O121" t="s">
         <v>199</v>
       </c>
@@ -8497,20 +8533,20 @@
       <c r="B124" s="3">
         <v>45966</v>
       </c>
-      <c r="C124" s="86" t="s">
+      <c r="C124" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="87"/>
-      <c r="E124" s="87"/>
-      <c r="F124" s="87"/>
-      <c r="G124" s="87"/>
-      <c r="H124" s="87"/>
-      <c r="I124" s="87"/>
-      <c r="J124" s="87"/>
-      <c r="K124" s="87"/>
-      <c r="L124" s="87"/>
-      <c r="M124" s="87"/>
-      <c r="N124" s="88"/>
+      <c r="D124" s="72"/>
+      <c r="E124" s="72"/>
+      <c r="F124" s="72"/>
+      <c r="G124" s="72"/>
+      <c r="H124" s="72"/>
+      <c r="I124" s="72"/>
+      <c r="J124" s="72"/>
+      <c r="K124" s="72"/>
+      <c r="L124" s="72"/>
+      <c r="M124" s="72"/>
+      <c r="N124" s="73"/>
       <c r="O124" t="s">
         <v>199</v>
       </c>
@@ -8763,6 +8799,21 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C59:N61"/>
+    <mergeCell ref="C63:N64"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="C42:N42"/>
+    <mergeCell ref="C43:N43"/>
+    <mergeCell ref="C54:N54"/>
+    <mergeCell ref="C44:N44"/>
+    <mergeCell ref="C51:N51"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C30:N30"/>
     <mergeCell ref="C65:N65"/>
     <mergeCell ref="C108:N108"/>
     <mergeCell ref="C124:N124"/>
@@ -8776,21 +8827,6 @@
     <mergeCell ref="C72:N72"/>
     <mergeCell ref="C79:N79"/>
     <mergeCell ref="C106:N106"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="C30:N30"/>
-    <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C59:N61"/>
-    <mergeCell ref="C63:N64"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="C42:N42"/>
-    <mergeCell ref="C43:N43"/>
-    <mergeCell ref="C54:N54"/>
-    <mergeCell ref="C44:N44"/>
-    <mergeCell ref="C51:N51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CDC WORK 2025 - 2026 dec.xlsx
+++ b/CDC WORK 2025 - 2026 dec.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TW - JFS" sheetId="13" r:id="rId1"/>
     <sheet name="TT -  VI SEM" sheetId="14" r:id="rId2"/>
     <sheet name="VI SEM" sheetId="12" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId4"/>
+    <sheet name="Weekwise" sheetId="15" r:id="rId4"/>
     <sheet name="V SEM" sheetId="1" r:id="rId5"/>
     <sheet name="V" sheetId="7" r:id="rId6"/>
     <sheet name="HR" sheetId="2" r:id="rId7"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="317">
   <si>
     <t xml:space="preserve">DBMS TRAINING SCHEDULE IN CDC </t>
   </si>
@@ -983,6 +983,21 @@
   </si>
   <si>
     <t>Student _webapp through Maven</t>
+  </si>
+  <si>
+    <t>Git Overview , Web pages - Inventor list,Course Registration,PAT timetable</t>
+  </si>
+  <si>
+    <t>Maven Overview :Simple Java Projects through Maven (JavaDemo,Palindrome,Fibonacci,PrimeNumber,ReverseString</t>
+  </si>
+  <si>
+    <t>JDBC Connectivity Applications through Maven (employee-jdbc,student-jdbc)</t>
+  </si>
+  <si>
+    <t>Web Applications through Maven (WebappDemo,employee-webapp,student-webapp)</t>
+  </si>
+  <si>
+    <t>Hibernate ORM project using Maven (hibernate-employee,hibernate-student)</t>
   </si>
 </sst>
 </file>
@@ -1447,6 +1462,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1454,6 +1481,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1483,54 +1513,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1558,8 +1540,41 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3421,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3436,21 +3451,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B2" s="49" t="s">
@@ -3618,20 +3633,20 @@
       <c r="B9" s="3">
         <v>45998</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="57"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="51" t="s">
@@ -3772,20 +3787,20 @@
       <c r="B16" s="3">
         <v>46005</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="51" t="s">
@@ -3926,20 +3941,20 @@
       <c r="B23" s="3">
         <v>46012</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="61"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="51" t="s">
@@ -3994,7 +4009,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="92" t="s">
+      <c r="E26" s="55" t="s">
         <v>310</v>
       </c>
       <c r="F26" s="2"/>
@@ -4014,20 +4029,20 @@
       <c r="B27" s="3">
         <v>46016</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="69"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="58"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="51" t="s">
@@ -4036,20 +4051,20 @@
       <c r="B28" s="3">
         <v>46017</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="69"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="58"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="51" t="s">
@@ -4060,7 +4075,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="92" t="s">
+      <c r="E29" s="55" t="s">
         <v>310</v>
       </c>
       <c r="F29" s="2"/>
@@ -4080,20 +4095,20 @@
       <c r="B30" s="3">
         <v>46019</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="57"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="61"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="51" t="s">
@@ -4222,20 +4237,20 @@
       <c r="B37" s="3">
         <v>46026</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="57"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="61"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="51" t="s">
@@ -4364,20 +4379,20 @@
       <c r="B44" s="3">
         <v>46033</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="57"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="61"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="51" t="s">
@@ -4386,20 +4401,20 @@
       <c r="B45" s="3">
         <v>46034</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="60"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="65"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="51" t="s">
@@ -4408,18 +4423,18 @@
       <c r="B46" s="3">
         <v>46035</v>
       </c>
-      <c r="C46" s="61"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="63"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="68"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="51" t="s">
@@ -4428,18 +4443,18 @@
       <c r="B47" s="3">
         <v>46036</v>
       </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="63"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="68"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="51" t="s">
@@ -4448,18 +4463,18 @@
       <c r="B48" s="3">
         <v>46037</v>
       </c>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="63"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="68"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="51" t="s">
@@ -4468,18 +4483,18 @@
       <c r="B49" s="3">
         <v>46038</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="63"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="68"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="51" t="s">
@@ -4488,18 +4503,18 @@
       <c r="B50" s="3">
         <v>46039</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="66"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="71"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="51" t="s">
@@ -4508,20 +4523,20 @@
       <c r="B51" s="3">
         <v>46040</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="57"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="61"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="51" t="s">
@@ -4650,20 +4665,20 @@
       <c r="B58" s="3">
         <v>46047</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="57"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="61"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="51" t="s">
@@ -4672,20 +4687,20 @@
       <c r="B59" s="3">
         <v>46048</v>
       </c>
-      <c r="C59" s="67" t="s">
+      <c r="C59" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="69"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="58"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="51" t="s">
@@ -4890,20 +4905,20 @@
       <c r="B65" s="3">
         <v>46054</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="56"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="57"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="61"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="51" t="s">
@@ -5056,20 +5071,20 @@
       <c r="B72" s="3">
         <v>46061</v>
       </c>
-      <c r="C72" s="55" t="s">
+      <c r="C72" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="56"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="57"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="61"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="51" t="s">
@@ -5198,20 +5213,20 @@
       <c r="B79" s="3">
         <v>46068</v>
       </c>
-      <c r="C79" s="55" t="s">
+      <c r="C79" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="56"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="57"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="60"/>
+      <c r="N79" s="61"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="51" t="s">
@@ -5340,20 +5355,20 @@
       <c r="B86" s="3">
         <v>46075</v>
       </c>
-      <c r="C86" s="55" t="s">
+      <c r="C86" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="56"/>
-      <c r="K86" s="56"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="57"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="60"/>
+      <c r="J86" s="60"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="60"/>
+      <c r="N86" s="61"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="51" t="s">
@@ -5482,20 +5497,20 @@
       <c r="B93" s="3">
         <v>46082</v>
       </c>
-      <c r="C93" s="55" t="s">
+      <c r="C93" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="56"/>
-      <c r="K93" s="56"/>
-      <c r="L93" s="56"/>
-      <c r="M93" s="56"/>
-      <c r="N93" s="57"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="60"/>
+      <c r="I93" s="60"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="60"/>
+      <c r="L93" s="60"/>
+      <c r="M93" s="60"/>
+      <c r="N93" s="61"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="51" t="s">
@@ -5524,20 +5539,20 @@
       <c r="B95" s="3">
         <v>46084</v>
       </c>
-      <c r="C95" s="67" t="s">
+      <c r="C95" s="56" t="s">
         <v>303</v>
       </c>
-      <c r="D95" s="68"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="68"/>
-      <c r="H95" s="68"/>
-      <c r="I95" s="68"/>
-      <c r="J95" s="68"/>
-      <c r="K95" s="68"/>
-      <c r="L95" s="68"/>
-      <c r="M95" s="68"/>
-      <c r="N95" s="69"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="57"/>
+      <c r="K95" s="57"/>
+      <c r="L95" s="57"/>
+      <c r="M95" s="57"/>
+      <c r="N95" s="58"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="51" t="s">
@@ -5626,20 +5641,20 @@
       <c r="B100" s="3">
         <v>46089</v>
       </c>
-      <c r="C100" s="55" t="s">
+      <c r="C100" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="56"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="56"/>
-      <c r="K100" s="56"/>
-      <c r="L100" s="56"/>
-      <c r="M100" s="56"/>
-      <c r="N100" s="57"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="60"/>
+      <c r="J100" s="60"/>
+      <c r="K100" s="60"/>
+      <c r="L100" s="60"/>
+      <c r="M100" s="60"/>
+      <c r="N100" s="61"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="51" t="s">
@@ -5768,20 +5783,20 @@
       <c r="B107" s="3">
         <v>46096</v>
       </c>
-      <c r="C107" s="55" t="s">
+      <c r="C107" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D107" s="56"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
-      <c r="G107" s="56"/>
-      <c r="H107" s="56"/>
-      <c r="I107" s="56"/>
-      <c r="J107" s="56"/>
-      <c r="K107" s="56"/>
-      <c r="L107" s="56"/>
-      <c r="M107" s="56"/>
-      <c r="N107" s="57"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="60"/>
+      <c r="I107" s="60"/>
+      <c r="J107" s="60"/>
+      <c r="K107" s="60"/>
+      <c r="L107" s="60"/>
+      <c r="M107" s="60"/>
+      <c r="N107" s="61"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="51" t="s">
@@ -5850,20 +5865,20 @@
       <c r="B111" s="3">
         <v>46100</v>
       </c>
-      <c r="C111" s="67" t="s">
+      <c r="C111" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="D111" s="68"/>
-      <c r="E111" s="68"/>
-      <c r="F111" s="68"/>
-      <c r="G111" s="68"/>
-      <c r="H111" s="68"/>
-      <c r="I111" s="68"/>
-      <c r="J111" s="68"/>
-      <c r="K111" s="68"/>
-      <c r="L111" s="68"/>
-      <c r="M111" s="68"/>
-      <c r="N111" s="69"/>
+      <c r="D111" s="57"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="57"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="57"/>
+      <c r="J111" s="57"/>
+      <c r="K111" s="57"/>
+      <c r="L111" s="57"/>
+      <c r="M111" s="57"/>
+      <c r="N111" s="58"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="51" t="s">
@@ -5892,20 +5907,20 @@
       <c r="B113" s="3">
         <v>46102</v>
       </c>
-      <c r="C113" s="67" t="s">
+      <c r="C113" s="56" t="s">
         <v>301</v>
       </c>
-      <c r="D113" s="68"/>
-      <c r="E113" s="68"/>
-      <c r="F113" s="68"/>
-      <c r="G113" s="68"/>
-      <c r="H113" s="68"/>
-      <c r="I113" s="68"/>
-      <c r="J113" s="68"/>
-      <c r="K113" s="68"/>
-      <c r="L113" s="68"/>
-      <c r="M113" s="68"/>
-      <c r="N113" s="69"/>
+      <c r="D113" s="57"/>
+      <c r="E113" s="57"/>
+      <c r="F113" s="57"/>
+      <c r="G113" s="57"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="57"/>
+      <c r="J113" s="57"/>
+      <c r="K113" s="57"/>
+      <c r="L113" s="57"/>
+      <c r="M113" s="57"/>
+      <c r="N113" s="58"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="51" t="s">
@@ -5914,20 +5929,20 @@
       <c r="B114" s="3">
         <v>46103</v>
       </c>
-      <c r="C114" s="55" t="s">
+      <c r="C114" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D114" s="56"/>
-      <c r="E114" s="56"/>
-      <c r="F114" s="56"/>
-      <c r="G114" s="56"/>
-      <c r="H114" s="56"/>
-      <c r="I114" s="56"/>
-      <c r="J114" s="56"/>
-      <c r="K114" s="56"/>
-      <c r="L114" s="56"/>
-      <c r="M114" s="56"/>
-      <c r="N114" s="57"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="60"/>
+      <c r="F114" s="60"/>
+      <c r="G114" s="60"/>
+      <c r="H114" s="60"/>
+      <c r="I114" s="60"/>
+      <c r="J114" s="60"/>
+      <c r="K114" s="60"/>
+      <c r="L114" s="60"/>
+      <c r="M114" s="60"/>
+      <c r="N114" s="61"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="51" t="s">
@@ -6016,20 +6031,20 @@
       <c r="B119" s="3">
         <v>46108</v>
       </c>
-      <c r="C119" s="67" t="s">
+      <c r="C119" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="D119" s="68"/>
-      <c r="E119" s="68"/>
-      <c r="F119" s="68"/>
-      <c r="G119" s="68"/>
-      <c r="H119" s="68"/>
-      <c r="I119" s="68"/>
-      <c r="J119" s="68"/>
-      <c r="K119" s="68"/>
-      <c r="L119" s="68"/>
-      <c r="M119" s="68"/>
-      <c r="N119" s="69"/>
+      <c r="D119" s="57"/>
+      <c r="E119" s="57"/>
+      <c r="F119" s="57"/>
+      <c r="G119" s="57"/>
+      <c r="H119" s="57"/>
+      <c r="I119" s="57"/>
+      <c r="J119" s="57"/>
+      <c r="K119" s="57"/>
+      <c r="L119" s="57"/>
+      <c r="M119" s="57"/>
+      <c r="N119" s="58"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="51" t="s">
@@ -6058,20 +6073,20 @@
       <c r="B121" s="3">
         <v>46110</v>
       </c>
-      <c r="C121" s="55" t="s">
+      <c r="C121" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D121" s="56"/>
-      <c r="E121" s="56"/>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
-      <c r="L121" s="56"/>
-      <c r="M121" s="56"/>
-      <c r="N121" s="57"/>
+      <c r="D121" s="60"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
+      <c r="L121" s="60"/>
+      <c r="M121" s="60"/>
+      <c r="N121" s="61"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="51" t="s">
@@ -6095,16 +6110,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C113:N113"/>
-    <mergeCell ref="C119:N119"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="C27:N27"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="C30:N30"/>
-    <mergeCell ref="C28:N28"/>
     <mergeCell ref="C121:N121"/>
     <mergeCell ref="C44:N44"/>
     <mergeCell ref="C51:N51"/>
@@ -6121,6 +6126,16 @@
     <mergeCell ref="C114:N114"/>
     <mergeCell ref="C95:N95"/>
     <mergeCell ref="C111:N111"/>
+    <mergeCell ref="C113:N113"/>
+    <mergeCell ref="C119:N119"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C28:N28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6128,14 +6143,70 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D4:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="99.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D5" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D6" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D10" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6162,21 +6233,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
@@ -6364,20 +6435,20 @@
       <c r="B9" s="3">
         <v>45851</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="57"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
       <c r="R9" s="17"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.35">
@@ -6506,40 +6577,40 @@
       <c r="B16" s="3">
         <v>45858</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>45859</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="73"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="89"/>
       <c r="R17" s="17"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.35">
@@ -6642,20 +6713,20 @@
       <c r="B23" s="3">
         <v>45865</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="61"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
@@ -6777,20 +6848,20 @@
       <c r="B30" s="3">
         <v>45872</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="57"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="61"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
@@ -6909,20 +6980,20 @@
       <c r="B37" s="3">
         <v>45879</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="57"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="61"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
@@ -7002,58 +7073,58 @@
       <c r="B42" s="3">
         <v>45884</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="73"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="89"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>45885</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="73"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="89"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>45886</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="57"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="61"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
@@ -7169,20 +7240,20 @@
       <c r="B51" s="3">
         <v>45893</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="57"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="61"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
@@ -7227,20 +7298,20 @@
       <c r="B54" s="3">
         <v>45896</v>
       </c>
-      <c r="C54" s="71" t="s">
+      <c r="C54" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="73"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
+      <c r="L54" s="88"/>
+      <c r="M54" s="88"/>
+      <c r="N54" s="89"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
@@ -7304,73 +7375,73 @@
       <c r="B58" s="3">
         <v>45900</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="57"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="61"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B59" s="38">
         <v>45901</v>
       </c>
-      <c r="C59" s="83" t="s">
+      <c r="C59" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="84"/>
-      <c r="N59" s="85"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="74"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B60" s="38">
         <v>45902</v>
       </c>
-      <c r="C60" s="86"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="87"/>
-      <c r="H60" s="87"/>
-      <c r="I60" s="87"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="87"/>
-      <c r="M60" s="87"/>
-      <c r="N60" s="88"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="77"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B61" s="38">
         <v>45903</v>
       </c>
-      <c r="C61" s="89"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="90"/>
-      <c r="J61" s="90"/>
-      <c r="K61" s="90"/>
-      <c r="L61" s="90"/>
-      <c r="M61" s="90"/>
-      <c r="N61" s="91"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="79"/>
+      <c r="M61" s="79"/>
+      <c r="N61" s="80"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
@@ -7395,56 +7466,56 @@
       <c r="B63" s="3">
         <v>45905</v>
       </c>
-      <c r="C63" s="74" t="s">
+      <c r="C63" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
-      <c r="N63" s="76"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="82"/>
+      <c r="J63" s="82"/>
+      <c r="K63" s="82"/>
+      <c r="L63" s="82"/>
+      <c r="M63" s="82"/>
+      <c r="N63" s="83"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>45906</v>
       </c>
-      <c r="C64" s="80"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="81"/>
-      <c r="I64" s="81"/>
-      <c r="J64" s="81"/>
-      <c r="K64" s="81"/>
-      <c r="L64" s="81"/>
-      <c r="M64" s="81"/>
-      <c r="N64" s="82"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
+      <c r="J64" s="85"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="85"/>
+      <c r="M64" s="85"/>
+      <c r="N64" s="86"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>45907</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="56"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="57"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="61"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
@@ -7563,20 +7634,20 @@
       <c r="B72" s="3">
         <v>45914</v>
       </c>
-      <c r="C72" s="55" t="s">
+      <c r="C72" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="56"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="57"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="61"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
@@ -7694,20 +7765,20 @@
       <c r="B79" s="3">
         <v>45921</v>
       </c>
-      <c r="C79" s="55" t="s">
+      <c r="C79" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="56"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="57"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="60"/>
+      <c r="N79" s="61"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B80" s="3">
@@ -7823,143 +7894,143 @@
       <c r="B86" s="3">
         <v>45928</v>
       </c>
-      <c r="C86" s="55" t="s">
+      <c r="C86" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="56"/>
-      <c r="K86" s="56"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="57"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="60"/>
+      <c r="J86" s="60"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="60"/>
+      <c r="N86" s="61"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B87" s="3">
         <v>45929</v>
       </c>
-      <c r="C87" s="74" t="s">
+      <c r="C87" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="75"/>
-      <c r="E87" s="75"/>
-      <c r="F87" s="75"/>
-      <c r="G87" s="75"/>
-      <c r="H87" s="75"/>
-      <c r="I87" s="75"/>
-      <c r="J87" s="75"/>
-      <c r="K87" s="75"/>
-      <c r="L87" s="75"/>
-      <c r="M87" s="75"/>
-      <c r="N87" s="76"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="82"/>
+      <c r="I87" s="82"/>
+      <c r="J87" s="82"/>
+      <c r="K87" s="82"/>
+      <c r="L87" s="82"/>
+      <c r="M87" s="82"/>
+      <c r="N87" s="83"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B88" s="3">
         <v>45930</v>
       </c>
-      <c r="C88" s="77"/>
-      <c r="D88" s="78"/>
-      <c r="E88" s="78"/>
-      <c r="F88" s="78"/>
-      <c r="G88" s="78"/>
-      <c r="H88" s="78"/>
-      <c r="I88" s="78"/>
-      <c r="J88" s="78"/>
-      <c r="K88" s="78"/>
-      <c r="L88" s="78"/>
-      <c r="M88" s="78"/>
-      <c r="N88" s="79"/>
+      <c r="C88" s="90"/>
+      <c r="D88" s="91"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="91"/>
+      <c r="H88" s="91"/>
+      <c r="I88" s="91"/>
+      <c r="J88" s="91"/>
+      <c r="K88" s="91"/>
+      <c r="L88" s="91"/>
+      <c r="M88" s="91"/>
+      <c r="N88" s="92"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B89" s="3">
         <v>45931</v>
       </c>
-      <c r="C89" s="77"/>
-      <c r="D89" s="78"/>
-      <c r="E89" s="78"/>
-      <c r="F89" s="78"/>
-      <c r="G89" s="78"/>
-      <c r="H89" s="78"/>
-      <c r="I89" s="78"/>
-      <c r="J89" s="78"/>
-      <c r="K89" s="78"/>
-      <c r="L89" s="78"/>
-      <c r="M89" s="78"/>
-      <c r="N89" s="79"/>
+      <c r="C89" s="90"/>
+      <c r="D89" s="91"/>
+      <c r="E89" s="91"/>
+      <c r="F89" s="91"/>
+      <c r="G89" s="91"/>
+      <c r="H89" s="91"/>
+      <c r="I89" s="91"/>
+      <c r="J89" s="91"/>
+      <c r="K89" s="91"/>
+      <c r="L89" s="91"/>
+      <c r="M89" s="91"/>
+      <c r="N89" s="92"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B90" s="3">
         <v>45932</v>
       </c>
-      <c r="C90" s="77"/>
-      <c r="D90" s="78"/>
-      <c r="E90" s="78"/>
-      <c r="F90" s="78"/>
-      <c r="G90" s="78"/>
-      <c r="H90" s="78"/>
-      <c r="I90" s="78"/>
-      <c r="J90" s="78"/>
-      <c r="K90" s="78"/>
-      <c r="L90" s="78"/>
-      <c r="M90" s="78"/>
-      <c r="N90" s="79"/>
+      <c r="C90" s="90"/>
+      <c r="D90" s="91"/>
+      <c r="E90" s="91"/>
+      <c r="F90" s="91"/>
+      <c r="G90" s="91"/>
+      <c r="H90" s="91"/>
+      <c r="I90" s="91"/>
+      <c r="J90" s="91"/>
+      <c r="K90" s="91"/>
+      <c r="L90" s="91"/>
+      <c r="M90" s="91"/>
+      <c r="N90" s="92"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B91" s="3">
         <v>45933</v>
       </c>
-      <c r="C91" s="77"/>
-      <c r="D91" s="78"/>
-      <c r="E91" s="78"/>
-      <c r="F91" s="78"/>
-      <c r="G91" s="78"/>
-      <c r="H91" s="78"/>
-      <c r="I91" s="78"/>
-      <c r="J91" s="78"/>
-      <c r="K91" s="78"/>
-      <c r="L91" s="78"/>
-      <c r="M91" s="78"/>
-      <c r="N91" s="79"/>
+      <c r="C91" s="90"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="91"/>
+      <c r="H91" s="91"/>
+      <c r="I91" s="91"/>
+      <c r="J91" s="91"/>
+      <c r="K91" s="91"/>
+      <c r="L91" s="91"/>
+      <c r="M91" s="91"/>
+      <c r="N91" s="92"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <v>45934</v>
       </c>
-      <c r="C92" s="80"/>
-      <c r="D92" s="81"/>
-      <c r="E92" s="81"/>
-      <c r="F92" s="81"/>
-      <c r="G92" s="81"/>
-      <c r="H92" s="81"/>
-      <c r="I92" s="81"/>
-      <c r="J92" s="81"/>
-      <c r="K92" s="81"/>
-      <c r="L92" s="81"/>
-      <c r="M92" s="81"/>
-      <c r="N92" s="82"/>
+      <c r="C92" s="84"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="85"/>
+      <c r="L92" s="85"/>
+      <c r="M92" s="85"/>
+      <c r="N92" s="86"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B93" s="3">
         <v>45935</v>
       </c>
-      <c r="C93" s="55" t="s">
+      <c r="C93" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="56"/>
-      <c r="K93" s="56"/>
-      <c r="L93" s="56"/>
-      <c r="M93" s="56"/>
-      <c r="N93" s="57"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="60"/>
+      <c r="I93" s="60"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="60"/>
+      <c r="L93" s="60"/>
+      <c r="M93" s="60"/>
+      <c r="N93" s="61"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B94" s="3">
@@ -8075,20 +8146,20 @@
       <c r="B100" s="3">
         <v>45942</v>
       </c>
-      <c r="C100" s="55" t="s">
+      <c r="C100" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="56"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="56"/>
-      <c r="K100" s="56"/>
-      <c r="L100" s="56"/>
-      <c r="M100" s="56"/>
-      <c r="N100" s="57"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="60"/>
+      <c r="J100" s="60"/>
+      <c r="K100" s="60"/>
+      <c r="L100" s="60"/>
+      <c r="M100" s="60"/>
+      <c r="N100" s="61"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B101" s="3">
@@ -8187,58 +8258,58 @@
       <c r="B106" s="3">
         <v>45948</v>
       </c>
-      <c r="C106" s="71" t="s">
+      <c r="C106" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="72"/>
-      <c r="H106" s="72"/>
-      <c r="I106" s="72"/>
-      <c r="J106" s="72"/>
-      <c r="K106" s="72"/>
-      <c r="L106" s="72"/>
-      <c r="M106" s="72"/>
-      <c r="N106" s="73"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="88"/>
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="K106" s="88"/>
+      <c r="L106" s="88"/>
+      <c r="M106" s="88"/>
+      <c r="N106" s="89"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B107" s="3">
         <v>45949</v>
       </c>
-      <c r="C107" s="55" t="s">
+      <c r="C107" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="56"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
-      <c r="G107" s="56"/>
-      <c r="H107" s="56"/>
-      <c r="I107" s="56"/>
-      <c r="J107" s="56"/>
-      <c r="K107" s="56"/>
-      <c r="L107" s="56"/>
-      <c r="M107" s="56"/>
-      <c r="N107" s="57"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="60"/>
+      <c r="I107" s="60"/>
+      <c r="J107" s="60"/>
+      <c r="K107" s="60"/>
+      <c r="L107" s="60"/>
+      <c r="M107" s="60"/>
+      <c r="N107" s="61"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B108" s="3">
         <v>45950</v>
       </c>
-      <c r="C108" s="71" t="s">
+      <c r="C108" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="72"/>
-      <c r="E108" s="72"/>
-      <c r="F108" s="72"/>
-      <c r="G108" s="72"/>
-      <c r="H108" s="72"/>
-      <c r="I108" s="72"/>
-      <c r="J108" s="72"/>
-      <c r="K108" s="72"/>
-      <c r="L108" s="72"/>
-      <c r="M108" s="72"/>
-      <c r="N108" s="73"/>
+      <c r="D108" s="88"/>
+      <c r="E108" s="88"/>
+      <c r="F108" s="88"/>
+      <c r="G108" s="88"/>
+      <c r="H108" s="88"/>
+      <c r="I108" s="88"/>
+      <c r="J108" s="88"/>
+      <c r="K108" s="88"/>
+      <c r="L108" s="88"/>
+      <c r="M108" s="88"/>
+      <c r="N108" s="89"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B109" s="3">
@@ -8337,20 +8408,20 @@
       <c r="B114" s="3">
         <v>45956</v>
       </c>
-      <c r="C114" s="55" t="s">
+      <c r="C114" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="56"/>
-      <c r="E114" s="56"/>
-      <c r="F114" s="56"/>
-      <c r="G114" s="56"/>
-      <c r="H114" s="56"/>
-      <c r="I114" s="56"/>
-      <c r="J114" s="56"/>
-      <c r="K114" s="56"/>
-      <c r="L114" s="56"/>
-      <c r="M114" s="56"/>
-      <c r="N114" s="57"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="60"/>
+      <c r="F114" s="60"/>
+      <c r="G114" s="60"/>
+      <c r="H114" s="60"/>
+      <c r="I114" s="60"/>
+      <c r="J114" s="60"/>
+      <c r="K114" s="60"/>
+      <c r="L114" s="60"/>
+      <c r="M114" s="60"/>
+      <c r="N114" s="61"/>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B115" s="3">
@@ -8469,20 +8540,20 @@
       <c r="B121" s="3">
         <v>45963</v>
       </c>
-      <c r="C121" s="55" t="s">
+      <c r="C121" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="56"/>
-      <c r="E121" s="56"/>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
-      <c r="L121" s="56"/>
-      <c r="M121" s="56"/>
-      <c r="N121" s="57"/>
+      <c r="D121" s="60"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
+      <c r="L121" s="60"/>
+      <c r="M121" s="60"/>
+      <c r="N121" s="61"/>
       <c r="O121" t="s">
         <v>199</v>
       </c>
@@ -8533,20 +8604,20 @@
       <c r="B124" s="3">
         <v>45966</v>
       </c>
-      <c r="C124" s="71" t="s">
+      <c r="C124" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="72"/>
-      <c r="E124" s="72"/>
-      <c r="F124" s="72"/>
-      <c r="G124" s="72"/>
-      <c r="H124" s="72"/>
-      <c r="I124" s="72"/>
-      <c r="J124" s="72"/>
-      <c r="K124" s="72"/>
-      <c r="L124" s="72"/>
-      <c r="M124" s="72"/>
-      <c r="N124" s="73"/>
+      <c r="D124" s="88"/>
+      <c r="E124" s="88"/>
+      <c r="F124" s="88"/>
+      <c r="G124" s="88"/>
+      <c r="H124" s="88"/>
+      <c r="I124" s="88"/>
+      <c r="J124" s="88"/>
+      <c r="K124" s="88"/>
+      <c r="L124" s="88"/>
+      <c r="M124" s="88"/>
+      <c r="N124" s="89"/>
       <c r="O124" t="s">
         <v>199</v>
       </c>
@@ -8799,21 +8870,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C59:N61"/>
-    <mergeCell ref="C63:N64"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="C42:N42"/>
-    <mergeCell ref="C43:N43"/>
-    <mergeCell ref="C54:N54"/>
-    <mergeCell ref="C44:N44"/>
-    <mergeCell ref="C51:N51"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="C30:N30"/>
     <mergeCell ref="C65:N65"/>
     <mergeCell ref="C108:N108"/>
     <mergeCell ref="C124:N124"/>
@@ -8827,6 +8883,21 @@
     <mergeCell ref="C72:N72"/>
     <mergeCell ref="C79:N79"/>
     <mergeCell ref="C106:N106"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C59:N61"/>
+    <mergeCell ref="C63:N64"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="C42:N42"/>
+    <mergeCell ref="C43:N43"/>
+    <mergeCell ref="C54:N54"/>
+    <mergeCell ref="C44:N44"/>
+    <mergeCell ref="C51:N51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CDC WORK 2025 - 2026 dec.xlsx
+++ b/CDC WORK 2025 - 2026 dec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="TW - JFS" sheetId="13" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="319">
   <si>
     <t xml:space="preserve">DBMS TRAINING SCHEDULE IN CDC </t>
   </si>
@@ -998,6 +998,12 @@
   </si>
   <si>
     <t>Hibernate ORM project using Maven (hibernate-employee,hibernate-student)</t>
+  </si>
+  <si>
+    <t>No  Classwork</t>
+  </si>
+  <si>
+    <t>Student _webapp through Maven,hibernate-employee</t>
   </si>
 </sst>
 </file>
@@ -1465,15 +1471,6 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1481,9 +1478,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1513,6 +1507,54 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1538,42 +1580,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1986,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3436,8 +3442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3451,21 +3457,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B2" s="49" t="s">
@@ -3633,20 +3639,20 @@
       <c r="B9" s="3">
         <v>45998</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="61"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="51" t="s">
@@ -3787,20 +3793,20 @@
       <c r="B16" s="3">
         <v>46005</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="58"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="51" t="s">
@@ -3941,20 +3947,20 @@
       <c r="B23" s="3">
         <v>46012</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="61"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="58"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="51" t="s">
@@ -3964,7 +3970,7 @@
         <v>46013</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4029,20 +4035,20 @@
       <c r="B27" s="3">
         <v>46016</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="58"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="70"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="51" t="s">
@@ -4051,20 +4057,20 @@
       <c r="B28" s="3">
         <v>46017</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="68" t="s">
         <v>299</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="58"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="70"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="51" t="s">
@@ -4076,7 +4082,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="55" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -4095,20 +4101,20 @@
       <c r="B30" s="3">
         <v>46019</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="61"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="58"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="51" t="s">
@@ -4237,20 +4243,20 @@
       <c r="B37" s="3">
         <v>46026</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="61"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="58"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="51" t="s">
@@ -4379,20 +4385,20 @@
       <c r="B44" s="3">
         <v>46033</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="61"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="58"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="51" t="s">
@@ -4401,20 +4407,20 @@
       <c r="B45" s="3">
         <v>46034</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="65"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="61"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="51" t="s">
@@ -4423,18 +4429,18 @@
       <c r="B46" s="3">
         <v>46035</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="68"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="64"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="51" t="s">
@@ -4443,18 +4449,18 @@
       <c r="B47" s="3">
         <v>46036</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="68"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="64"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="51" t="s">
@@ -4463,18 +4469,18 @@
       <c r="B48" s="3">
         <v>46037</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="68"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="64"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="51" t="s">
@@ -4483,18 +4489,18 @@
       <c r="B49" s="3">
         <v>46038</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="68"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="64"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="51" t="s">
@@ -4503,18 +4509,18 @@
       <c r="B50" s="3">
         <v>46039</v>
       </c>
-      <c r="C50" s="69"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="71"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="67"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="51" t="s">
@@ -4523,20 +4529,20 @@
       <c r="B51" s="3">
         <v>46040</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="61"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="58"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="51" t="s">
@@ -4665,20 +4671,20 @@
       <c r="B58" s="3">
         <v>46047</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-      <c r="N58" s="61"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="58"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="51" t="s">
@@ -4687,20 +4693,20 @@
       <c r="B59" s="3">
         <v>46048</v>
       </c>
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="57"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="58"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="70"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="51" t="s">
@@ -4905,20 +4911,20 @@
       <c r="B65" s="3">
         <v>46054</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="60"/>
-      <c r="M65" s="60"/>
-      <c r="N65" s="61"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="58"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="51" t="s">
@@ -5071,20 +5077,20 @@
       <c r="B72" s="3">
         <v>46061</v>
       </c>
-      <c r="C72" s="59" t="s">
+      <c r="C72" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="61"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="57"/>
+      <c r="K72" s="57"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="57"/>
+      <c r="N72" s="58"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="51" t="s">
@@ -5213,20 +5219,20 @@
       <c r="B79" s="3">
         <v>46068</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="C79" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="60"/>
-      <c r="K79" s="60"/>
-      <c r="L79" s="60"/>
-      <c r="M79" s="60"/>
-      <c r="N79" s="61"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="58"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="51" t="s">
@@ -5355,20 +5361,20 @@
       <c r="B86" s="3">
         <v>46075</v>
       </c>
-      <c r="C86" s="59" t="s">
+      <c r="C86" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D86" s="60"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="60"/>
-      <c r="I86" s="60"/>
-      <c r="J86" s="60"/>
-      <c r="K86" s="60"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="60"/>
-      <c r="N86" s="61"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="57"/>
+      <c r="K86" s="57"/>
+      <c r="L86" s="57"/>
+      <c r="M86" s="57"/>
+      <c r="N86" s="58"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="51" t="s">
@@ -5497,20 +5503,20 @@
       <c r="B93" s="3">
         <v>46082</v>
       </c>
-      <c r="C93" s="59" t="s">
+      <c r="C93" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D93" s="60"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="60"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="60"/>
-      <c r="N93" s="61"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="57"/>
+      <c r="K93" s="57"/>
+      <c r="L93" s="57"/>
+      <c r="M93" s="57"/>
+      <c r="N93" s="58"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="51" t="s">
@@ -5539,20 +5545,20 @@
       <c r="B95" s="3">
         <v>46084</v>
       </c>
-      <c r="C95" s="56" t="s">
+      <c r="C95" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="D95" s="57"/>
-      <c r="E95" s="57"/>
-      <c r="F95" s="57"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="57"/>
-      <c r="I95" s="57"/>
-      <c r="J95" s="57"/>
-      <c r="K95" s="57"/>
-      <c r="L95" s="57"/>
-      <c r="M95" s="57"/>
-      <c r="N95" s="58"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="69"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="69"/>
+      <c r="J95" s="69"/>
+      <c r="K95" s="69"/>
+      <c r="L95" s="69"/>
+      <c r="M95" s="69"/>
+      <c r="N95" s="70"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="51" t="s">
@@ -5641,20 +5647,20 @@
       <c r="B100" s="3">
         <v>46089</v>
       </c>
-      <c r="C100" s="59" t="s">
+      <c r="C100" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="60"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="60"/>
-      <c r="J100" s="60"/>
-      <c r="K100" s="60"/>
-      <c r="L100" s="60"/>
-      <c r="M100" s="60"/>
-      <c r="N100" s="61"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="57"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="57"/>
+      <c r="J100" s="57"/>
+      <c r="K100" s="57"/>
+      <c r="L100" s="57"/>
+      <c r="M100" s="57"/>
+      <c r="N100" s="58"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="51" t="s">
@@ -5783,20 +5789,20 @@
       <c r="B107" s="3">
         <v>46096</v>
       </c>
-      <c r="C107" s="59" t="s">
+      <c r="C107" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D107" s="60"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="60"/>
-      <c r="G107" s="60"/>
-      <c r="H107" s="60"/>
-      <c r="I107" s="60"/>
-      <c r="J107" s="60"/>
-      <c r="K107" s="60"/>
-      <c r="L107" s="60"/>
-      <c r="M107" s="60"/>
-      <c r="N107" s="61"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="57"/>
+      <c r="J107" s="57"/>
+      <c r="K107" s="57"/>
+      <c r="L107" s="57"/>
+      <c r="M107" s="57"/>
+      <c r="N107" s="58"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="51" t="s">
@@ -5865,20 +5871,20 @@
       <c r="B111" s="3">
         <v>46100</v>
       </c>
-      <c r="C111" s="56" t="s">
+      <c r="C111" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="D111" s="57"/>
-      <c r="E111" s="57"/>
-      <c r="F111" s="57"/>
-      <c r="G111" s="57"/>
-      <c r="H111" s="57"/>
-      <c r="I111" s="57"/>
-      <c r="J111" s="57"/>
-      <c r="K111" s="57"/>
-      <c r="L111" s="57"/>
-      <c r="M111" s="57"/>
-      <c r="N111" s="58"/>
+      <c r="D111" s="69"/>
+      <c r="E111" s="69"/>
+      <c r="F111" s="69"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="69"/>
+      <c r="I111" s="69"/>
+      <c r="J111" s="69"/>
+      <c r="K111" s="69"/>
+      <c r="L111" s="69"/>
+      <c r="M111" s="69"/>
+      <c r="N111" s="70"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="51" t="s">
@@ -5907,20 +5913,20 @@
       <c r="B113" s="3">
         <v>46102</v>
       </c>
-      <c r="C113" s="56" t="s">
+      <c r="C113" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="D113" s="57"/>
-      <c r="E113" s="57"/>
-      <c r="F113" s="57"/>
-      <c r="G113" s="57"/>
-      <c r="H113" s="57"/>
-      <c r="I113" s="57"/>
-      <c r="J113" s="57"/>
-      <c r="K113" s="57"/>
-      <c r="L113" s="57"/>
-      <c r="M113" s="57"/>
-      <c r="N113" s="58"/>
+      <c r="D113" s="69"/>
+      <c r="E113" s="69"/>
+      <c r="F113" s="69"/>
+      <c r="G113" s="69"/>
+      <c r="H113" s="69"/>
+      <c r="I113" s="69"/>
+      <c r="J113" s="69"/>
+      <c r="K113" s="69"/>
+      <c r="L113" s="69"/>
+      <c r="M113" s="69"/>
+      <c r="N113" s="70"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="51" t="s">
@@ -5929,20 +5935,20 @@
       <c r="B114" s="3">
         <v>46103</v>
       </c>
-      <c r="C114" s="59" t="s">
+      <c r="C114" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D114" s="60"/>
-      <c r="E114" s="60"/>
-      <c r="F114" s="60"/>
-      <c r="G114" s="60"/>
-      <c r="H114" s="60"/>
-      <c r="I114" s="60"/>
-      <c r="J114" s="60"/>
-      <c r="K114" s="60"/>
-      <c r="L114" s="60"/>
-      <c r="M114" s="60"/>
-      <c r="N114" s="61"/>
+      <c r="D114" s="57"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="57"/>
+      <c r="G114" s="57"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="57"/>
+      <c r="J114" s="57"/>
+      <c r="K114" s="57"/>
+      <c r="L114" s="57"/>
+      <c r="M114" s="57"/>
+      <c r="N114" s="58"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="51" t="s">
@@ -6031,20 +6037,20 @@
       <c r="B119" s="3">
         <v>46108</v>
       </c>
-      <c r="C119" s="56" t="s">
+      <c r="C119" s="68" t="s">
         <v>300</v>
       </c>
-      <c r="D119" s="57"/>
-      <c r="E119" s="57"/>
-      <c r="F119" s="57"/>
-      <c r="G119" s="57"/>
-      <c r="H119" s="57"/>
-      <c r="I119" s="57"/>
-      <c r="J119" s="57"/>
-      <c r="K119" s="57"/>
-      <c r="L119" s="57"/>
-      <c r="M119" s="57"/>
-      <c r="N119" s="58"/>
+      <c r="D119" s="69"/>
+      <c r="E119" s="69"/>
+      <c r="F119" s="69"/>
+      <c r="G119" s="69"/>
+      <c r="H119" s="69"/>
+      <c r="I119" s="69"/>
+      <c r="J119" s="69"/>
+      <c r="K119" s="69"/>
+      <c r="L119" s="69"/>
+      <c r="M119" s="69"/>
+      <c r="N119" s="70"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="51" t="s">
@@ -6073,20 +6079,20 @@
       <c r="B121" s="3">
         <v>46110</v>
       </c>
-      <c r="C121" s="59" t="s">
+      <c r="C121" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D121" s="60"/>
-      <c r="E121" s="60"/>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
-      <c r="L121" s="60"/>
-      <c r="M121" s="60"/>
-      <c r="N121" s="61"/>
+      <c r="D121" s="57"/>
+      <c r="E121" s="57"/>
+      <c r="F121" s="57"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="57"/>
+      <c r="L121" s="57"/>
+      <c r="M121" s="57"/>
+      <c r="N121" s="58"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="51" t="s">
@@ -6110,6 +6116,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C113:N113"/>
+    <mergeCell ref="C119:N119"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C28:N28"/>
     <mergeCell ref="C121:N121"/>
     <mergeCell ref="C44:N44"/>
     <mergeCell ref="C51:N51"/>
@@ -6126,16 +6142,6 @@
     <mergeCell ref="C114:N114"/>
     <mergeCell ref="C95:N95"/>
     <mergeCell ref="C111:N111"/>
-    <mergeCell ref="C113:N113"/>
-    <mergeCell ref="C119:N119"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="C27:N27"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="C30:N30"/>
-    <mergeCell ref="C28:N28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6143,10 +6149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:E10"/>
+  <dimension ref="C4:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="E3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6154,7 +6160,10 @@
     <col min="5" max="5" width="99.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>3</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>247</v>
       </c>
@@ -6162,7 +6171,10 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>5</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>249</v>
       </c>
@@ -6170,7 +6182,10 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>251</v>
       </c>
@@ -6178,7 +6193,10 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>3</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>253</v>
       </c>
@@ -6186,7 +6204,10 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>255</v>
       </c>
@@ -6194,13 +6215,13 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D9" s="2" t="s">
         <v>257</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D10" s="2" t="s">
         <v>259</v>
       </c>
@@ -6233,21 +6254,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
@@ -6435,20 +6456,20 @@
       <c r="B9" s="3">
         <v>45851</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="61"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58"/>
       <c r="R9" s="17"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.35">
@@ -6577,40 +6598,40 @@
       <c r="B16" s="3">
         <v>45858</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="58"/>
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>45859</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="89"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="74"/>
       <c r="R17" s="17"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.35">
@@ -6713,20 +6734,20 @@
       <c r="B23" s="3">
         <v>45865</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="61"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="58"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
@@ -6848,20 +6869,20 @@
       <c r="B30" s="3">
         <v>45872</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="61"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="58"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
@@ -6980,20 +7001,20 @@
       <c r="B37" s="3">
         <v>45879</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="61"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="58"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
@@ -7073,58 +7094,58 @@
       <c r="B42" s="3">
         <v>45884</v>
       </c>
-      <c r="C42" s="87" t="s">
+      <c r="C42" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="89"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="74"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>45885</v>
       </c>
-      <c r="C43" s="87" t="s">
+      <c r="C43" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="89"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="74"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>45886</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="61"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="58"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
@@ -7240,20 +7261,20 @@
       <c r="B51" s="3">
         <v>45893</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="61"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="58"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
@@ -7298,20 +7319,20 @@
       <c r="B54" s="3">
         <v>45896</v>
       </c>
-      <c r="C54" s="87" t="s">
+      <c r="C54" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="89"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="74"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
@@ -7375,73 +7396,73 @@
       <c r="B58" s="3">
         <v>45900</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-      <c r="N58" s="61"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="58"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B59" s="38">
         <v>45901</v>
       </c>
-      <c r="C59" s="72" t="s">
+      <c r="C59" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="74"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="85"/>
+      <c r="K59" s="85"/>
+      <c r="L59" s="85"/>
+      <c r="M59" s="85"/>
+      <c r="N59" s="86"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B60" s="38">
         <v>45902</v>
       </c>
-      <c r="C60" s="75"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="77"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="88"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="88"/>
+      <c r="L60" s="88"/>
+      <c r="M60" s="88"/>
+      <c r="N60" s="89"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B61" s="38">
         <v>45903</v>
       </c>
-      <c r="C61" s="78"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="79"/>
-      <c r="N61" s="80"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="91"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="91"/>
+      <c r="I61" s="91"/>
+      <c r="J61" s="91"/>
+      <c r="K61" s="91"/>
+      <c r="L61" s="91"/>
+      <c r="M61" s="91"/>
+      <c r="N61" s="92"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
@@ -7466,56 +7487,56 @@
       <c r="B63" s="3">
         <v>45905</v>
       </c>
-      <c r="C63" s="81" t="s">
+      <c r="C63" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="82"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="82"/>
-      <c r="I63" s="82"/>
-      <c r="J63" s="82"/>
-      <c r="K63" s="82"/>
-      <c r="L63" s="82"/>
-      <c r="M63" s="82"/>
-      <c r="N63" s="83"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
+      <c r="K63" s="76"/>
+      <c r="L63" s="76"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="77"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>45906</v>
       </c>
-      <c r="C64" s="84"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="85"/>
-      <c r="J64" s="85"/>
-      <c r="K64" s="85"/>
-      <c r="L64" s="85"/>
-      <c r="M64" s="85"/>
-      <c r="N64" s="86"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="82"/>
+      <c r="I64" s="82"/>
+      <c r="J64" s="82"/>
+      <c r="K64" s="82"/>
+      <c r="L64" s="82"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="83"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>45907</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="60"/>
-      <c r="M65" s="60"/>
-      <c r="N65" s="61"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="58"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
@@ -7634,20 +7655,20 @@
       <c r="B72" s="3">
         <v>45914</v>
       </c>
-      <c r="C72" s="59" t="s">
+      <c r="C72" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="61"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="57"/>
+      <c r="K72" s="57"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="57"/>
+      <c r="N72" s="58"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
@@ -7765,20 +7786,20 @@
       <c r="B79" s="3">
         <v>45921</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="C79" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="60"/>
-      <c r="K79" s="60"/>
-      <c r="L79" s="60"/>
-      <c r="M79" s="60"/>
-      <c r="N79" s="61"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="58"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B80" s="3">
@@ -7894,143 +7915,143 @@
       <c r="B86" s="3">
         <v>45928</v>
       </c>
-      <c r="C86" s="59" t="s">
+      <c r="C86" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="60"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="60"/>
-      <c r="I86" s="60"/>
-      <c r="J86" s="60"/>
-      <c r="K86" s="60"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="60"/>
-      <c r="N86" s="61"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="57"/>
+      <c r="K86" s="57"/>
+      <c r="L86" s="57"/>
+      <c r="M86" s="57"/>
+      <c r="N86" s="58"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B87" s="3">
         <v>45929</v>
       </c>
-      <c r="C87" s="81" t="s">
+      <c r="C87" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="H87" s="82"/>
-      <c r="I87" s="82"/>
-      <c r="J87" s="82"/>
-      <c r="K87" s="82"/>
-      <c r="L87" s="82"/>
-      <c r="M87" s="82"/>
-      <c r="N87" s="83"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="76"/>
+      <c r="H87" s="76"/>
+      <c r="I87" s="76"/>
+      <c r="J87" s="76"/>
+      <c r="K87" s="76"/>
+      <c r="L87" s="76"/>
+      <c r="M87" s="76"/>
+      <c r="N87" s="77"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B88" s="3">
         <v>45930</v>
       </c>
-      <c r="C88" s="90"/>
-      <c r="D88" s="91"/>
-      <c r="E88" s="91"/>
-      <c r="F88" s="91"/>
-      <c r="G88" s="91"/>
-      <c r="H88" s="91"/>
-      <c r="I88" s="91"/>
-      <c r="J88" s="91"/>
-      <c r="K88" s="91"/>
-      <c r="L88" s="91"/>
-      <c r="M88" s="91"/>
-      <c r="N88" s="92"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="79"/>
+      <c r="I88" s="79"/>
+      <c r="J88" s="79"/>
+      <c r="K88" s="79"/>
+      <c r="L88" s="79"/>
+      <c r="M88" s="79"/>
+      <c r="N88" s="80"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B89" s="3">
         <v>45931</v>
       </c>
-      <c r="C89" s="90"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="91"/>
-      <c r="J89" s="91"/>
-      <c r="K89" s="91"/>
-      <c r="L89" s="91"/>
-      <c r="M89" s="91"/>
-      <c r="N89" s="92"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="79"/>
+      <c r="H89" s="79"/>
+      <c r="I89" s="79"/>
+      <c r="J89" s="79"/>
+      <c r="K89" s="79"/>
+      <c r="L89" s="79"/>
+      <c r="M89" s="79"/>
+      <c r="N89" s="80"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B90" s="3">
         <v>45932</v>
       </c>
-      <c r="C90" s="90"/>
-      <c r="D90" s="91"/>
-      <c r="E90" s="91"/>
-      <c r="F90" s="91"/>
-      <c r="G90" s="91"/>
-      <c r="H90" s="91"/>
-      <c r="I90" s="91"/>
-      <c r="J90" s="91"/>
-      <c r="K90" s="91"/>
-      <c r="L90" s="91"/>
-      <c r="M90" s="91"/>
-      <c r="N90" s="92"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="79"/>
+      <c r="G90" s="79"/>
+      <c r="H90" s="79"/>
+      <c r="I90" s="79"/>
+      <c r="J90" s="79"/>
+      <c r="K90" s="79"/>
+      <c r="L90" s="79"/>
+      <c r="M90" s="79"/>
+      <c r="N90" s="80"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B91" s="3">
         <v>45933</v>
       </c>
-      <c r="C91" s="90"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="91"/>
-      <c r="F91" s="91"/>
-      <c r="G91" s="91"/>
-      <c r="H91" s="91"/>
-      <c r="I91" s="91"/>
-      <c r="J91" s="91"/>
-      <c r="K91" s="91"/>
-      <c r="L91" s="91"/>
-      <c r="M91" s="91"/>
-      <c r="N91" s="92"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="79"/>
+      <c r="H91" s="79"/>
+      <c r="I91" s="79"/>
+      <c r="J91" s="79"/>
+      <c r="K91" s="79"/>
+      <c r="L91" s="79"/>
+      <c r="M91" s="79"/>
+      <c r="N91" s="80"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <v>45934</v>
       </c>
-      <c r="C92" s="84"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="85"/>
-      <c r="I92" s="85"/>
-      <c r="J92" s="85"/>
-      <c r="K92" s="85"/>
-      <c r="L92" s="85"/>
-      <c r="M92" s="85"/>
-      <c r="N92" s="86"/>
+      <c r="C92" s="81"/>
+      <c r="D92" s="82"/>
+      <c r="E92" s="82"/>
+      <c r="F92" s="82"/>
+      <c r="G92" s="82"/>
+      <c r="H92" s="82"/>
+      <c r="I92" s="82"/>
+      <c r="J92" s="82"/>
+      <c r="K92" s="82"/>
+      <c r="L92" s="82"/>
+      <c r="M92" s="82"/>
+      <c r="N92" s="83"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B93" s="3">
         <v>45935</v>
       </c>
-      <c r="C93" s="59" t="s">
+      <c r="C93" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="60"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="60"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="60"/>
-      <c r="N93" s="61"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="57"/>
+      <c r="K93" s="57"/>
+      <c r="L93" s="57"/>
+      <c r="M93" s="57"/>
+      <c r="N93" s="58"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B94" s="3">
@@ -8146,20 +8167,20 @@
       <c r="B100" s="3">
         <v>45942</v>
       </c>
-      <c r="C100" s="59" t="s">
+      <c r="C100" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="60"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="60"/>
-      <c r="J100" s="60"/>
-      <c r="K100" s="60"/>
-      <c r="L100" s="60"/>
-      <c r="M100" s="60"/>
-      <c r="N100" s="61"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="57"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="57"/>
+      <c r="J100" s="57"/>
+      <c r="K100" s="57"/>
+      <c r="L100" s="57"/>
+      <c r="M100" s="57"/>
+      <c r="N100" s="58"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B101" s="3">
@@ -8258,58 +8279,58 @@
       <c r="B106" s="3">
         <v>45948</v>
       </c>
-      <c r="C106" s="87" t="s">
+      <c r="C106" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="D106" s="88"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="88"/>
-      <c r="H106" s="88"/>
-      <c r="I106" s="88"/>
-      <c r="J106" s="88"/>
-      <c r="K106" s="88"/>
-      <c r="L106" s="88"/>
-      <c r="M106" s="88"/>
-      <c r="N106" s="89"/>
+      <c r="D106" s="73"/>
+      <c r="E106" s="73"/>
+      <c r="F106" s="73"/>
+      <c r="G106" s="73"/>
+      <c r="H106" s="73"/>
+      <c r="I106" s="73"/>
+      <c r="J106" s="73"/>
+      <c r="K106" s="73"/>
+      <c r="L106" s="73"/>
+      <c r="M106" s="73"/>
+      <c r="N106" s="74"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B107" s="3">
         <v>45949</v>
       </c>
-      <c r="C107" s="59" t="s">
+      <c r="C107" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="60"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="60"/>
-      <c r="G107" s="60"/>
-      <c r="H107" s="60"/>
-      <c r="I107" s="60"/>
-      <c r="J107" s="60"/>
-      <c r="K107" s="60"/>
-      <c r="L107" s="60"/>
-      <c r="M107" s="60"/>
-      <c r="N107" s="61"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="57"/>
+      <c r="J107" s="57"/>
+      <c r="K107" s="57"/>
+      <c r="L107" s="57"/>
+      <c r="M107" s="57"/>
+      <c r="N107" s="58"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B108" s="3">
         <v>45950</v>
       </c>
-      <c r="C108" s="87" t="s">
+      <c r="C108" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="88"/>
-      <c r="E108" s="88"/>
-      <c r="F108" s="88"/>
-      <c r="G108" s="88"/>
-      <c r="H108" s="88"/>
-      <c r="I108" s="88"/>
-      <c r="J108" s="88"/>
-      <c r="K108" s="88"/>
-      <c r="L108" s="88"/>
-      <c r="M108" s="88"/>
-      <c r="N108" s="89"/>
+      <c r="D108" s="73"/>
+      <c r="E108" s="73"/>
+      <c r="F108" s="73"/>
+      <c r="G108" s="73"/>
+      <c r="H108" s="73"/>
+      <c r="I108" s="73"/>
+      <c r="J108" s="73"/>
+      <c r="K108" s="73"/>
+      <c r="L108" s="73"/>
+      <c r="M108" s="73"/>
+      <c r="N108" s="74"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B109" s="3">
@@ -8408,20 +8429,20 @@
       <c r="B114" s="3">
         <v>45956</v>
       </c>
-      <c r="C114" s="59" t="s">
+      <c r="C114" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="60"/>
-      <c r="E114" s="60"/>
-      <c r="F114" s="60"/>
-      <c r="G114" s="60"/>
-      <c r="H114" s="60"/>
-      <c r="I114" s="60"/>
-      <c r="J114" s="60"/>
-      <c r="K114" s="60"/>
-      <c r="L114" s="60"/>
-      <c r="M114" s="60"/>
-      <c r="N114" s="61"/>
+      <c r="D114" s="57"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="57"/>
+      <c r="G114" s="57"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="57"/>
+      <c r="J114" s="57"/>
+      <c r="K114" s="57"/>
+      <c r="L114" s="57"/>
+      <c r="M114" s="57"/>
+      <c r="N114" s="58"/>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B115" s="3">
@@ -8540,20 +8561,20 @@
       <c r="B121" s="3">
         <v>45963</v>
       </c>
-      <c r="C121" s="59" t="s">
+      <c r="C121" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="60"/>
-      <c r="E121" s="60"/>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
-      <c r="L121" s="60"/>
-      <c r="M121" s="60"/>
-      <c r="N121" s="61"/>
+      <c r="D121" s="57"/>
+      <c r="E121" s="57"/>
+      <c r="F121" s="57"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="57"/>
+      <c r="L121" s="57"/>
+      <c r="M121" s="57"/>
+      <c r="N121" s="58"/>
       <c r="O121" t="s">
         <v>199</v>
       </c>
@@ -8604,20 +8625,20 @@
       <c r="B124" s="3">
         <v>45966</v>
       </c>
-      <c r="C124" s="87" t="s">
+      <c r="C124" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="88"/>
-      <c r="E124" s="88"/>
-      <c r="F124" s="88"/>
-      <c r="G124" s="88"/>
-      <c r="H124" s="88"/>
-      <c r="I124" s="88"/>
-      <c r="J124" s="88"/>
-      <c r="K124" s="88"/>
-      <c r="L124" s="88"/>
-      <c r="M124" s="88"/>
-      <c r="N124" s="89"/>
+      <c r="D124" s="73"/>
+      <c r="E124" s="73"/>
+      <c r="F124" s="73"/>
+      <c r="G124" s="73"/>
+      <c r="H124" s="73"/>
+      <c r="I124" s="73"/>
+      <c r="J124" s="73"/>
+      <c r="K124" s="73"/>
+      <c r="L124" s="73"/>
+      <c r="M124" s="73"/>
+      <c r="N124" s="74"/>
       <c r="O124" t="s">
         <v>199</v>
       </c>
@@ -8870,6 +8891,21 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C59:N61"/>
+    <mergeCell ref="C63:N64"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="C42:N42"/>
+    <mergeCell ref="C43:N43"/>
+    <mergeCell ref="C54:N54"/>
+    <mergeCell ref="C44:N44"/>
+    <mergeCell ref="C51:N51"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C30:N30"/>
     <mergeCell ref="C65:N65"/>
     <mergeCell ref="C108:N108"/>
     <mergeCell ref="C124:N124"/>
@@ -8883,21 +8919,6 @@
     <mergeCell ref="C72:N72"/>
     <mergeCell ref="C79:N79"/>
     <mergeCell ref="C106:N106"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="C30:N30"/>
-    <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C59:N61"/>
-    <mergeCell ref="C63:N64"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="C42:N42"/>
-    <mergeCell ref="C43:N43"/>
-    <mergeCell ref="C54:N54"/>
-    <mergeCell ref="C44:N44"/>
-    <mergeCell ref="C51:N51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CDC WORK 2025 - 2026 dec.xlsx
+++ b/CDC WORK 2025 - 2026 dec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TW - JFS" sheetId="13" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="322">
   <si>
     <t xml:space="preserve">DBMS TRAINING SCHEDULE IN CDC </t>
   </si>
@@ -982,18 +982,12 @@
     <t>Leave</t>
   </si>
   <si>
-    <t>Student _webapp through Maven</t>
-  </si>
-  <si>
     <t>Git Overview , Web pages - Inventor list,Course Registration,PAT timetable</t>
   </si>
   <si>
     <t>Maven Overview :Simple Java Projects through Maven (JavaDemo,Palindrome,Fibonacci,PrimeNumber,ReverseString</t>
   </si>
   <si>
-    <t>JDBC Connectivity Applications through Maven (employee-jdbc,student-jdbc)</t>
-  </si>
-  <si>
     <t>Web Applications through Maven (WebappDemo,employee-webapp,student-webapp)</t>
   </si>
   <si>
@@ -1004,6 +998,21 @@
   </si>
   <si>
     <t>Student _webapp through Maven,hibernate-employee</t>
+  </si>
+  <si>
+    <t>SN B1</t>
+  </si>
+  <si>
+    <t>SN B2</t>
+  </si>
+  <si>
+    <t>Develop hibernate-student application</t>
+  </si>
+  <si>
+    <t>JDBC Connectivity Applications through Maven (employee-jdbc,student-jdbc) -employee(id,name,email,salary) student (id,name,sem dept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -1471,6 +1480,15 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1478,6 +1496,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1507,54 +1528,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1582,6 +1555,42 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1591,8 +1600,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF33CC"/>
       <color rgb="FF6699FF"/>
-      <color rgb="FFFF33CC"/>
       <color rgb="FFFF0066"/>
     </mruColors>
   </colors>
@@ -1992,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2024,7 +2033,7 @@
       <c r="H5" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="45" t="s">
         <v>248</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -2041,7 +2050,7 @@
       <c r="H6" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="45" t="s">
         <v>250</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -2058,7 +2067,7 @@
       <c r="H7" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="45" t="s">
         <v>252</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -2075,7 +2084,7 @@
       <c r="H8" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="45" t="s">
         <v>254</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -2092,7 +2101,7 @@
       <c r="H9" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="45" t="s">
         <v>256</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -2109,7 +2118,7 @@
       <c r="H10" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="45" t="s">
         <v>258</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -3442,8 +3451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="B22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3457,21 +3466,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B2" s="49" t="s">
@@ -3639,20 +3648,20 @@
       <c r="B9" s="3">
         <v>45998</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="58"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="51" t="s">
@@ -3793,20 +3802,20 @@
       <c r="B16" s="3">
         <v>46005</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="58"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="51" t="s">
@@ -3929,7 +3938,9 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="54" t="s">
+        <v>304</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -3947,20 +3958,20 @@
       <c r="B23" s="3">
         <v>46012</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="58"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="61"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="51" t="s">
@@ -3970,7 +3981,7 @@
         <v>46013</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -3993,7 +4004,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -4035,20 +4046,20 @@
       <c r="B27" s="3">
         <v>46016</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="70"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="58"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="51" t="s">
@@ -4057,20 +4068,20 @@
       <c r="B28" s="3">
         <v>46017</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="70"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="58"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="51" t="s">
@@ -4082,7 +4093,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="55" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -4101,20 +4112,20 @@
       <c r="B30" s="3">
         <v>46019</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="58"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="61"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="51" t="s">
@@ -4123,7 +4134,9 @@
       <c r="B31" s="3">
         <v>46020</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -4144,7 +4157,9 @@
         <v>46021</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4243,20 +4258,20 @@
       <c r="B37" s="3">
         <v>46026</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="58"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="61"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="51" t="s">
@@ -4385,20 +4400,20 @@
       <c r="B44" s="3">
         <v>46033</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="58"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="61"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="51" t="s">
@@ -4407,20 +4422,20 @@
       <c r="B45" s="3">
         <v>46034</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="61"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="65"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="51" t="s">
@@ -4429,18 +4444,18 @@
       <c r="B46" s="3">
         <v>46035</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="64"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="68"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="51" t="s">
@@ -4449,18 +4464,18 @@
       <c r="B47" s="3">
         <v>46036</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="63"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="64"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="68"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="51" t="s">
@@ -4469,18 +4484,18 @@
       <c r="B48" s="3">
         <v>46037</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="64"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="68"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="51" t="s">
@@ -4489,18 +4504,18 @@
       <c r="B49" s="3">
         <v>46038</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="64"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="68"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="51" t="s">
@@ -4509,18 +4524,18 @@
       <c r="B50" s="3">
         <v>46039</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="66"/>
-      <c r="N50" s="67"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="71"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="51" t="s">
@@ -4529,20 +4544,20 @@
       <c r="B51" s="3">
         <v>46040</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="58"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="61"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="51" t="s">
@@ -4671,20 +4686,20 @@
       <c r="B58" s="3">
         <v>46047</v>
       </c>
-      <c r="C58" s="56" t="s">
+      <c r="C58" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="58"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="61"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="51" t="s">
@@ -4693,20 +4708,20 @@
       <c r="B59" s="3">
         <v>46048</v>
       </c>
-      <c r="C59" s="68" t="s">
+      <c r="C59" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="69"/>
-      <c r="N59" s="70"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="58"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="51" t="s">
@@ -4911,20 +4926,20 @@
       <c r="B65" s="3">
         <v>46054</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="57"/>
-      <c r="N65" s="58"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="61"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="51" t="s">
@@ -5077,20 +5092,20 @@
       <c r="B72" s="3">
         <v>46061</v>
       </c>
-      <c r="C72" s="56" t="s">
+      <c r="C72" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
-      <c r="J72" s="57"/>
-      <c r="K72" s="57"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="57"/>
-      <c r="N72" s="58"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="61"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="51" t="s">
@@ -5219,20 +5234,20 @@
       <c r="B79" s="3">
         <v>46068</v>
       </c>
-      <c r="C79" s="56" t="s">
+      <c r="C79" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="57"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="58"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="60"/>
+      <c r="N79" s="61"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="51" t="s">
@@ -5361,20 +5376,20 @@
       <c r="B86" s="3">
         <v>46075</v>
       </c>
-      <c r="C86" s="56" t="s">
+      <c r="C86" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="57"/>
-      <c r="J86" s="57"/>
-      <c r="K86" s="57"/>
-      <c r="L86" s="57"/>
-      <c r="M86" s="57"/>
-      <c r="N86" s="58"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="60"/>
+      <c r="J86" s="60"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="60"/>
+      <c r="N86" s="61"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="51" t="s">
@@ -5503,20 +5518,20 @@
       <c r="B93" s="3">
         <v>46082</v>
       </c>
-      <c r="C93" s="56" t="s">
+      <c r="C93" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D93" s="57"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="57"/>
-      <c r="H93" s="57"/>
-      <c r="I93" s="57"/>
-      <c r="J93" s="57"/>
-      <c r="K93" s="57"/>
-      <c r="L93" s="57"/>
-      <c r="M93" s="57"/>
-      <c r="N93" s="58"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="60"/>
+      <c r="I93" s="60"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="60"/>
+      <c r="L93" s="60"/>
+      <c r="M93" s="60"/>
+      <c r="N93" s="61"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="51" t="s">
@@ -5545,20 +5560,20 @@
       <c r="B95" s="3">
         <v>46084</v>
       </c>
-      <c r="C95" s="68" t="s">
+      <c r="C95" s="56" t="s">
         <v>303</v>
       </c>
-      <c r="D95" s="69"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="69"/>
-      <c r="G95" s="69"/>
-      <c r="H95" s="69"/>
-      <c r="I95" s="69"/>
-      <c r="J95" s="69"/>
-      <c r="K95" s="69"/>
-      <c r="L95" s="69"/>
-      <c r="M95" s="69"/>
-      <c r="N95" s="70"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="57"/>
+      <c r="K95" s="57"/>
+      <c r="L95" s="57"/>
+      <c r="M95" s="57"/>
+      <c r="N95" s="58"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="51" t="s">
@@ -5647,20 +5662,20 @@
       <c r="B100" s="3">
         <v>46089</v>
       </c>
-      <c r="C100" s="56" t="s">
+      <c r="C100" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D100" s="57"/>
-      <c r="E100" s="57"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="57"/>
-      <c r="H100" s="57"/>
-      <c r="I100" s="57"/>
-      <c r="J100" s="57"/>
-      <c r="K100" s="57"/>
-      <c r="L100" s="57"/>
-      <c r="M100" s="57"/>
-      <c r="N100" s="58"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="60"/>
+      <c r="J100" s="60"/>
+      <c r="K100" s="60"/>
+      <c r="L100" s="60"/>
+      <c r="M100" s="60"/>
+      <c r="N100" s="61"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="51" t="s">
@@ -5789,20 +5804,20 @@
       <c r="B107" s="3">
         <v>46096</v>
       </c>
-      <c r="C107" s="56" t="s">
+      <c r="C107" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D107" s="57"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="57"/>
-      <c r="I107" s="57"/>
-      <c r="J107" s="57"/>
-      <c r="K107" s="57"/>
-      <c r="L107" s="57"/>
-      <c r="M107" s="57"/>
-      <c r="N107" s="58"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="60"/>
+      <c r="I107" s="60"/>
+      <c r="J107" s="60"/>
+      <c r="K107" s="60"/>
+      <c r="L107" s="60"/>
+      <c r="M107" s="60"/>
+      <c r="N107" s="61"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="51" t="s">
@@ -5871,20 +5886,20 @@
       <c r="B111" s="3">
         <v>46100</v>
       </c>
-      <c r="C111" s="68" t="s">
+      <c r="C111" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="D111" s="69"/>
-      <c r="E111" s="69"/>
-      <c r="F111" s="69"/>
-      <c r="G111" s="69"/>
-      <c r="H111" s="69"/>
-      <c r="I111" s="69"/>
-      <c r="J111" s="69"/>
-      <c r="K111" s="69"/>
-      <c r="L111" s="69"/>
-      <c r="M111" s="69"/>
-      <c r="N111" s="70"/>
+      <c r="D111" s="57"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="57"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="57"/>
+      <c r="J111" s="57"/>
+      <c r="K111" s="57"/>
+      <c r="L111" s="57"/>
+      <c r="M111" s="57"/>
+      <c r="N111" s="58"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="51" t="s">
@@ -5913,20 +5928,20 @@
       <c r="B113" s="3">
         <v>46102</v>
       </c>
-      <c r="C113" s="68" t="s">
+      <c r="C113" s="56" t="s">
         <v>301</v>
       </c>
-      <c r="D113" s="69"/>
-      <c r="E113" s="69"/>
-      <c r="F113" s="69"/>
-      <c r="G113" s="69"/>
-      <c r="H113" s="69"/>
-      <c r="I113" s="69"/>
-      <c r="J113" s="69"/>
-      <c r="K113" s="69"/>
-      <c r="L113" s="69"/>
-      <c r="M113" s="69"/>
-      <c r="N113" s="70"/>
+      <c r="D113" s="57"/>
+      <c r="E113" s="57"/>
+      <c r="F113" s="57"/>
+      <c r="G113" s="57"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="57"/>
+      <c r="J113" s="57"/>
+      <c r="K113" s="57"/>
+      <c r="L113" s="57"/>
+      <c r="M113" s="57"/>
+      <c r="N113" s="58"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="51" t="s">
@@ -5935,20 +5950,20 @@
       <c r="B114" s="3">
         <v>46103</v>
       </c>
-      <c r="C114" s="56" t="s">
+      <c r="C114" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D114" s="57"/>
-      <c r="E114" s="57"/>
-      <c r="F114" s="57"/>
-      <c r="G114" s="57"/>
-      <c r="H114" s="57"/>
-      <c r="I114" s="57"/>
-      <c r="J114" s="57"/>
-      <c r="K114" s="57"/>
-      <c r="L114" s="57"/>
-      <c r="M114" s="57"/>
-      <c r="N114" s="58"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="60"/>
+      <c r="F114" s="60"/>
+      <c r="G114" s="60"/>
+      <c r="H114" s="60"/>
+      <c r="I114" s="60"/>
+      <c r="J114" s="60"/>
+      <c r="K114" s="60"/>
+      <c r="L114" s="60"/>
+      <c r="M114" s="60"/>
+      <c r="N114" s="61"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="51" t="s">
@@ -6037,20 +6052,20 @@
       <c r="B119" s="3">
         <v>46108</v>
       </c>
-      <c r="C119" s="68" t="s">
+      <c r="C119" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="D119" s="69"/>
-      <c r="E119" s="69"/>
-      <c r="F119" s="69"/>
-      <c r="G119" s="69"/>
-      <c r="H119" s="69"/>
-      <c r="I119" s="69"/>
-      <c r="J119" s="69"/>
-      <c r="K119" s="69"/>
-      <c r="L119" s="69"/>
-      <c r="M119" s="69"/>
-      <c r="N119" s="70"/>
+      <c r="D119" s="57"/>
+      <c r="E119" s="57"/>
+      <c r="F119" s="57"/>
+      <c r="G119" s="57"/>
+      <c r="H119" s="57"/>
+      <c r="I119" s="57"/>
+      <c r="J119" s="57"/>
+      <c r="K119" s="57"/>
+      <c r="L119" s="57"/>
+      <c r="M119" s="57"/>
+      <c r="N119" s="58"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="51" t="s">
@@ -6079,20 +6094,20 @@
       <c r="B121" s="3">
         <v>46110</v>
       </c>
-      <c r="C121" s="56" t="s">
+      <c r="C121" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D121" s="57"/>
-      <c r="E121" s="57"/>
-      <c r="F121" s="57"/>
-      <c r="G121" s="57"/>
-      <c r="H121" s="57"/>
-      <c r="I121" s="57"/>
-      <c r="J121" s="57"/>
-      <c r="K121" s="57"/>
-      <c r="L121" s="57"/>
-      <c r="M121" s="57"/>
-      <c r="N121" s="58"/>
+      <c r="D121" s="60"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
+      <c r="L121" s="60"/>
+      <c r="M121" s="60"/>
+      <c r="N121" s="61"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="51" t="s">
@@ -6116,16 +6131,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C113:N113"/>
-    <mergeCell ref="C119:N119"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="C27:N27"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="C30:N30"/>
-    <mergeCell ref="C28:N28"/>
     <mergeCell ref="C121:N121"/>
     <mergeCell ref="C44:N44"/>
     <mergeCell ref="C51:N51"/>
@@ -6142,6 +6147,16 @@
     <mergeCell ref="C114:N114"/>
     <mergeCell ref="C95:N95"/>
     <mergeCell ref="C111:N111"/>
+    <mergeCell ref="C113:N113"/>
+    <mergeCell ref="C119:N119"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C28:N28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6149,83 +6164,112 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:E10"/>
+  <dimension ref="B3:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="99.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="116.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>247</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>251</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>253</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C8">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D9" s="2" t="s">
         <v>257</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D10" s="2" t="s">
         <v>259</v>
       </c>
       <c r="E10" s="2"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>321</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6237,8 +6281,8 @@
   <dimension ref="A1:R149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H133" sqref="H133"/>
+      <pane ySplit="2" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D146" sqref="D146:D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6254,21 +6298,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
@@ -6456,20 +6500,20 @@
       <c r="B9" s="3">
         <v>45851</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="58"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
       <c r="R9" s="17"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.35">
@@ -6598,40 +6642,40 @@
       <c r="B16" s="3">
         <v>45858</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="58"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>45859</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="74"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="89"/>
       <c r="R17" s="17"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.35">
@@ -6734,20 +6778,20 @@
       <c r="B23" s="3">
         <v>45865</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="58"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="61"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
@@ -6869,20 +6913,20 @@
       <c r="B30" s="3">
         <v>45872</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="58"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="61"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
@@ -7001,20 +7045,20 @@
       <c r="B37" s="3">
         <v>45879</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="58"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="61"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
@@ -7094,58 +7138,58 @@
       <c r="B42" s="3">
         <v>45884</v>
       </c>
-      <c r="C42" s="72" t="s">
+      <c r="C42" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="74"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="89"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>45885</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="74"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="89"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>45886</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="58"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="61"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
@@ -7261,20 +7305,20 @@
       <c r="B51" s="3">
         <v>45893</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="58"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="61"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
@@ -7319,20 +7363,20 @@
       <c r="B54" s="3">
         <v>45896</v>
       </c>
-      <c r="C54" s="72" t="s">
+      <c r="C54" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="73"/>
-      <c r="M54" s="73"/>
-      <c r="N54" s="74"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
+      <c r="L54" s="88"/>
+      <c r="M54" s="88"/>
+      <c r="N54" s="89"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
@@ -7396,73 +7440,73 @@
       <c r="B58" s="3">
         <v>45900</v>
       </c>
-      <c r="C58" s="56" t="s">
+      <c r="C58" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="58"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="61"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B59" s="38">
         <v>45901</v>
       </c>
-      <c r="C59" s="84" t="s">
+      <c r="C59" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="85"/>
-      <c r="N59" s="86"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="74"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B60" s="38">
         <v>45902</v>
       </c>
-      <c r="C60" s="87"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="88"/>
-      <c r="M60" s="88"/>
-      <c r="N60" s="89"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="77"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B61" s="38">
         <v>45903</v>
       </c>
-      <c r="C61" s="90"/>
-      <c r="D61" s="91"/>
-      <c r="E61" s="91"/>
-      <c r="F61" s="91"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="91"/>
-      <c r="I61" s="91"/>
-      <c r="J61" s="91"/>
-      <c r="K61" s="91"/>
-      <c r="L61" s="91"/>
-      <c r="M61" s="91"/>
-      <c r="N61" s="92"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="79"/>
+      <c r="M61" s="79"/>
+      <c r="N61" s="80"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
@@ -7487,56 +7531,56 @@
       <c r="B63" s="3">
         <v>45905</v>
       </c>
-      <c r="C63" s="75" t="s">
+      <c r="C63" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="76"/>
-      <c r="J63" s="76"/>
-      <c r="K63" s="76"/>
-      <c r="L63" s="76"/>
-      <c r="M63" s="76"/>
-      <c r="N63" s="77"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="82"/>
+      <c r="J63" s="82"/>
+      <c r="K63" s="82"/>
+      <c r="L63" s="82"/>
+      <c r="M63" s="82"/>
+      <c r="N63" s="83"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>45906</v>
       </c>
-      <c r="C64" s="81"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="82"/>
-      <c r="I64" s="82"/>
-      <c r="J64" s="82"/>
-      <c r="K64" s="82"/>
-      <c r="L64" s="82"/>
-      <c r="M64" s="82"/>
-      <c r="N64" s="83"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
+      <c r="J64" s="85"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="85"/>
+      <c r="M64" s="85"/>
+      <c r="N64" s="86"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>45907</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="57"/>
-      <c r="N65" s="58"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="61"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
@@ -7655,20 +7699,20 @@
       <c r="B72" s="3">
         <v>45914</v>
       </c>
-      <c r="C72" s="56" t="s">
+      <c r="C72" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
-      <c r="J72" s="57"/>
-      <c r="K72" s="57"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="57"/>
-      <c r="N72" s="58"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="61"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
@@ -7786,20 +7830,20 @@
       <c r="B79" s="3">
         <v>45921</v>
       </c>
-      <c r="C79" s="56" t="s">
+      <c r="C79" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="57"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="58"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="60"/>
+      <c r="N79" s="61"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B80" s="3">
@@ -7915,143 +7959,143 @@
       <c r="B86" s="3">
         <v>45928</v>
       </c>
-      <c r="C86" s="56" t="s">
+      <c r="C86" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="57"/>
-      <c r="J86" s="57"/>
-      <c r="K86" s="57"/>
-      <c r="L86" s="57"/>
-      <c r="M86" s="57"/>
-      <c r="N86" s="58"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="60"/>
+      <c r="J86" s="60"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="60"/>
+      <c r="N86" s="61"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B87" s="3">
         <v>45929</v>
       </c>
-      <c r="C87" s="75" t="s">
+      <c r="C87" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="76"/>
-      <c r="E87" s="76"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="76"/>
-      <c r="H87" s="76"/>
-      <c r="I87" s="76"/>
-      <c r="J87" s="76"/>
-      <c r="K87" s="76"/>
-      <c r="L87" s="76"/>
-      <c r="M87" s="76"/>
-      <c r="N87" s="77"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="82"/>
+      <c r="I87" s="82"/>
+      <c r="J87" s="82"/>
+      <c r="K87" s="82"/>
+      <c r="L87" s="82"/>
+      <c r="M87" s="82"/>
+      <c r="N87" s="83"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B88" s="3">
         <v>45930</v>
       </c>
-      <c r="C88" s="78"/>
-      <c r="D88" s="79"/>
-      <c r="E88" s="79"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="79"/>
-      <c r="H88" s="79"/>
-      <c r="I88" s="79"/>
-      <c r="J88" s="79"/>
-      <c r="K88" s="79"/>
-      <c r="L88" s="79"/>
-      <c r="M88" s="79"/>
-      <c r="N88" s="80"/>
+      <c r="C88" s="90"/>
+      <c r="D88" s="91"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="91"/>
+      <c r="H88" s="91"/>
+      <c r="I88" s="91"/>
+      <c r="J88" s="91"/>
+      <c r="K88" s="91"/>
+      <c r="L88" s="91"/>
+      <c r="M88" s="91"/>
+      <c r="N88" s="92"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B89" s="3">
         <v>45931</v>
       </c>
-      <c r="C89" s="78"/>
-      <c r="D89" s="79"/>
-      <c r="E89" s="79"/>
-      <c r="F89" s="79"/>
-      <c r="G89" s="79"/>
-      <c r="H89" s="79"/>
-      <c r="I89" s="79"/>
-      <c r="J89" s="79"/>
-      <c r="K89" s="79"/>
-      <c r="L89" s="79"/>
-      <c r="M89" s="79"/>
-      <c r="N89" s="80"/>
+      <c r="C89" s="90"/>
+      <c r="D89" s="91"/>
+      <c r="E89" s="91"/>
+      <c r="F89" s="91"/>
+      <c r="G89" s="91"/>
+      <c r="H89" s="91"/>
+      <c r="I89" s="91"/>
+      <c r="J89" s="91"/>
+      <c r="K89" s="91"/>
+      <c r="L89" s="91"/>
+      <c r="M89" s="91"/>
+      <c r="N89" s="92"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B90" s="3">
         <v>45932</v>
       </c>
-      <c r="C90" s="78"/>
-      <c r="D90" s="79"/>
-      <c r="E90" s="79"/>
-      <c r="F90" s="79"/>
-      <c r="G90" s="79"/>
-      <c r="H90" s="79"/>
-      <c r="I90" s="79"/>
-      <c r="J90" s="79"/>
-      <c r="K90" s="79"/>
-      <c r="L90" s="79"/>
-      <c r="M90" s="79"/>
-      <c r="N90" s="80"/>
+      <c r="C90" s="90"/>
+      <c r="D90" s="91"/>
+      <c r="E90" s="91"/>
+      <c r="F90" s="91"/>
+      <c r="G90" s="91"/>
+      <c r="H90" s="91"/>
+      <c r="I90" s="91"/>
+      <c r="J90" s="91"/>
+      <c r="K90" s="91"/>
+      <c r="L90" s="91"/>
+      <c r="M90" s="91"/>
+      <c r="N90" s="92"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B91" s="3">
         <v>45933</v>
       </c>
-      <c r="C91" s="78"/>
-      <c r="D91" s="79"/>
-      <c r="E91" s="79"/>
-      <c r="F91" s="79"/>
-      <c r="G91" s="79"/>
-      <c r="H91" s="79"/>
-      <c r="I91" s="79"/>
-      <c r="J91" s="79"/>
-      <c r="K91" s="79"/>
-      <c r="L91" s="79"/>
-      <c r="M91" s="79"/>
-      <c r="N91" s="80"/>
+      <c r="C91" s="90"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="91"/>
+      <c r="H91" s="91"/>
+      <c r="I91" s="91"/>
+      <c r="J91" s="91"/>
+      <c r="K91" s="91"/>
+      <c r="L91" s="91"/>
+      <c r="M91" s="91"/>
+      <c r="N91" s="92"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <v>45934</v>
       </c>
-      <c r="C92" s="81"/>
-      <c r="D92" s="82"/>
-      <c r="E92" s="82"/>
-      <c r="F92" s="82"/>
-      <c r="G92" s="82"/>
-      <c r="H92" s="82"/>
-      <c r="I92" s="82"/>
-      <c r="J92" s="82"/>
-      <c r="K92" s="82"/>
-      <c r="L92" s="82"/>
-      <c r="M92" s="82"/>
-      <c r="N92" s="83"/>
+      <c r="C92" s="84"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="85"/>
+      <c r="L92" s="85"/>
+      <c r="M92" s="85"/>
+      <c r="N92" s="86"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B93" s="3">
         <v>45935</v>
       </c>
-      <c r="C93" s="56" t="s">
+      <c r="C93" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="57"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="57"/>
-      <c r="H93" s="57"/>
-      <c r="I93" s="57"/>
-      <c r="J93" s="57"/>
-      <c r="K93" s="57"/>
-      <c r="L93" s="57"/>
-      <c r="M93" s="57"/>
-      <c r="N93" s="58"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="60"/>
+      <c r="I93" s="60"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="60"/>
+      <c r="L93" s="60"/>
+      <c r="M93" s="60"/>
+      <c r="N93" s="61"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B94" s="3">
@@ -8167,20 +8211,20 @@
       <c r="B100" s="3">
         <v>45942</v>
       </c>
-      <c r="C100" s="56" t="s">
+      <c r="C100" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="57"/>
-      <c r="E100" s="57"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="57"/>
-      <c r="H100" s="57"/>
-      <c r="I100" s="57"/>
-      <c r="J100" s="57"/>
-      <c r="K100" s="57"/>
-      <c r="L100" s="57"/>
-      <c r="M100" s="57"/>
-      <c r="N100" s="58"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="60"/>
+      <c r="J100" s="60"/>
+      <c r="K100" s="60"/>
+      <c r="L100" s="60"/>
+      <c r="M100" s="60"/>
+      <c r="N100" s="61"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B101" s="3">
@@ -8279,58 +8323,58 @@
       <c r="B106" s="3">
         <v>45948</v>
       </c>
-      <c r="C106" s="72" t="s">
+      <c r="C106" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="D106" s="73"/>
-      <c r="E106" s="73"/>
-      <c r="F106" s="73"/>
-      <c r="G106" s="73"/>
-      <c r="H106" s="73"/>
-      <c r="I106" s="73"/>
-      <c r="J106" s="73"/>
-      <c r="K106" s="73"/>
-      <c r="L106" s="73"/>
-      <c r="M106" s="73"/>
-      <c r="N106" s="74"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="88"/>
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="K106" s="88"/>
+      <c r="L106" s="88"/>
+      <c r="M106" s="88"/>
+      <c r="N106" s="89"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B107" s="3">
         <v>45949</v>
       </c>
-      <c r="C107" s="56" t="s">
+      <c r="C107" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="57"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="57"/>
-      <c r="I107" s="57"/>
-      <c r="J107" s="57"/>
-      <c r="K107" s="57"/>
-      <c r="L107" s="57"/>
-      <c r="M107" s="57"/>
-      <c r="N107" s="58"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="60"/>
+      <c r="I107" s="60"/>
+      <c r="J107" s="60"/>
+      <c r="K107" s="60"/>
+      <c r="L107" s="60"/>
+      <c r="M107" s="60"/>
+      <c r="N107" s="61"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B108" s="3">
         <v>45950</v>
       </c>
-      <c r="C108" s="72" t="s">
+      <c r="C108" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="73"/>
-      <c r="E108" s="73"/>
-      <c r="F108" s="73"/>
-      <c r="G108" s="73"/>
-      <c r="H108" s="73"/>
-      <c r="I108" s="73"/>
-      <c r="J108" s="73"/>
-      <c r="K108" s="73"/>
-      <c r="L108" s="73"/>
-      <c r="M108" s="73"/>
-      <c r="N108" s="74"/>
+      <c r="D108" s="88"/>
+      <c r="E108" s="88"/>
+      <c r="F108" s="88"/>
+      <c r="G108" s="88"/>
+      <c r="H108" s="88"/>
+      <c r="I108" s="88"/>
+      <c r="J108" s="88"/>
+      <c r="K108" s="88"/>
+      <c r="L108" s="88"/>
+      <c r="M108" s="88"/>
+      <c r="N108" s="89"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B109" s="3">
@@ -8429,20 +8473,20 @@
       <c r="B114" s="3">
         <v>45956</v>
       </c>
-      <c r="C114" s="56" t="s">
+      <c r="C114" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="57"/>
-      <c r="E114" s="57"/>
-      <c r="F114" s="57"/>
-      <c r="G114" s="57"/>
-      <c r="H114" s="57"/>
-      <c r="I114" s="57"/>
-      <c r="J114" s="57"/>
-      <c r="K114" s="57"/>
-      <c r="L114" s="57"/>
-      <c r="M114" s="57"/>
-      <c r="N114" s="58"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="60"/>
+      <c r="F114" s="60"/>
+      <c r="G114" s="60"/>
+      <c r="H114" s="60"/>
+      <c r="I114" s="60"/>
+      <c r="J114" s="60"/>
+      <c r="K114" s="60"/>
+      <c r="L114" s="60"/>
+      <c r="M114" s="60"/>
+      <c r="N114" s="61"/>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B115" s="3">
@@ -8561,20 +8605,20 @@
       <c r="B121" s="3">
         <v>45963</v>
       </c>
-      <c r="C121" s="56" t="s">
+      <c r="C121" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="57"/>
-      <c r="E121" s="57"/>
-      <c r="F121" s="57"/>
-      <c r="G121" s="57"/>
-      <c r="H121" s="57"/>
-      <c r="I121" s="57"/>
-      <c r="J121" s="57"/>
-      <c r="K121" s="57"/>
-      <c r="L121" s="57"/>
-      <c r="M121" s="57"/>
-      <c r="N121" s="58"/>
+      <c r="D121" s="60"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
+      <c r="L121" s="60"/>
+      <c r="M121" s="60"/>
+      <c r="N121" s="61"/>
       <c r="O121" t="s">
         <v>199</v>
       </c>
@@ -8625,20 +8669,20 @@
       <c r="B124" s="3">
         <v>45966</v>
       </c>
-      <c r="C124" s="72" t="s">
+      <c r="C124" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="73"/>
-      <c r="E124" s="73"/>
-      <c r="F124" s="73"/>
-      <c r="G124" s="73"/>
-      <c r="H124" s="73"/>
-      <c r="I124" s="73"/>
-      <c r="J124" s="73"/>
-      <c r="K124" s="73"/>
-      <c r="L124" s="73"/>
-      <c r="M124" s="73"/>
-      <c r="N124" s="74"/>
+      <c r="D124" s="88"/>
+      <c r="E124" s="88"/>
+      <c r="F124" s="88"/>
+      <c r="G124" s="88"/>
+      <c r="H124" s="88"/>
+      <c r="I124" s="88"/>
+      <c r="J124" s="88"/>
+      <c r="K124" s="88"/>
+      <c r="L124" s="88"/>
+      <c r="M124" s="88"/>
+      <c r="N124" s="89"/>
       <c r="O124" t="s">
         <v>199</v>
       </c>
@@ -8891,21 +8935,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C59:N61"/>
-    <mergeCell ref="C63:N64"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="C42:N42"/>
-    <mergeCell ref="C43:N43"/>
-    <mergeCell ref="C54:N54"/>
-    <mergeCell ref="C44:N44"/>
-    <mergeCell ref="C51:N51"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="C30:N30"/>
     <mergeCell ref="C65:N65"/>
     <mergeCell ref="C108:N108"/>
     <mergeCell ref="C124:N124"/>
@@ -8919,6 +8948,21 @@
     <mergeCell ref="C72:N72"/>
     <mergeCell ref="C79:N79"/>
     <mergeCell ref="C106:N106"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C59:N61"/>
+    <mergeCell ref="C63:N64"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="C42:N42"/>
+    <mergeCell ref="C43:N43"/>
+    <mergeCell ref="C54:N54"/>
+    <mergeCell ref="C44:N44"/>
+    <mergeCell ref="C51:N51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
